--- a/data/links.xlsx
+++ b/data/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crypto\Private\LQDU\LinkBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8EF29F-5E59-4857-A73D-DCCD1305BD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008B616E-7DF5-4B45-9102-06101A4BBC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="555">
   <si>
     <t>https://xhamster18.desi/videos/nubile-films-seductive-games-of-passion-3267609</t>
   </si>
@@ -1722,14 +1722,14 @@
     <t>tit flogging at 9m,nipple clamps at 10m,water boarding at 25m</t>
   </si>
   <si>
-    <t>https://spankbang.com/s/1seviliyager/</t>
+    <t>zlinks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1752,14 +1752,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1797,11 +1789,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1815,22 +1806,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2121,11 +2101,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7495,10 +7475,10 @@
         <v>254</v>
       </c>
       <c r="B86" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>283</v>
+        <v>554</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>255</v>
@@ -7550,69 +7530,6 @@
       </c>
       <c r="T86" s="3" t="str" cm="1">
         <f t="array" ref="T86">_xlfn.REGEXEXTRACT(A86,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="B87" s="4">
-        <v>500</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R87" s="4">
-        <v>3</v>
-      </c>
-      <c r="S87" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T87" s="4" t="str" cm="1">
-        <f t="array" ref="T87">_xlfn.REGEXEXTRACT(A87,"(?&lt;=//)[^/]+")</f>
         <v>spankbang.com</v>
       </c>
     </row>
@@ -7621,11 +7538,6 @@
     <sortCondition ref="B1:B86"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A87">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:T40 A41:I41 K41:T41 A42:T73 A74:H75 J74:T75">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"-"</formula>
@@ -7648,10 +7560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A87" r:id="rId1" xr:uid="{876D5C11-7F3D-48A0-9975-FDB2C0ADD1F1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/links.xlsx
+++ b/data/links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crypto\Private\LQDU\LinkBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008B616E-7DF5-4B45-9102-06101A4BBC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6E2E3E-422E-4BA1-AD45-3796EBBD49E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="597">
   <si>
     <t>https://xhamster18.desi/videos/nubile-films-seductive-games-of-passion-3267609</t>
   </si>
@@ -1020,9 +1020,6 @@
     <t>arms up against wall flogging at 11m</t>
   </si>
   <si>
-    <t>nipples suction</t>
-  </si>
-  <si>
     <t>lesbian strapon pretzel</t>
   </si>
   <si>
@@ -1623,9 +1620,6 @@
     <t>lay down diamond</t>
   </si>
   <si>
-    <t>split face down uspended</t>
-  </si>
-  <si>
     <t>pussy hook</t>
   </si>
   <si>
@@ -1716,13 +1710,145 @@
     <t>canning</t>
   </si>
   <si>
-    <t>suspended inverted</t>
-  </si>
-  <si>
     <t>tit flogging at 9m,nipple clamps at 10m,water boarding at 25m</t>
   </si>
   <si>
-    <t>zlinks</t>
+    <t>zlink</t>
+  </si>
+  <si>
+    <t>https://pornxp.com/tags/InnocentHigh</t>
+  </si>
+  <si>
+    <t>teacher-student</t>
+  </si>
+  <si>
+    <t>petite</t>
+  </si>
+  <si>
+    <t>plaid</t>
+  </si>
+  <si>
+    <t>several innocent high videos of length from 20 to 50 mins</t>
+  </si>
+  <si>
+    <t>https://tube.perverzija.com/studio/kink/</t>
+  </si>
+  <si>
+    <t>zstar</t>
+  </si>
+  <si>
+    <t>kink.com</t>
+  </si>
+  <si>
+    <t>lesdom</t>
+  </si>
+  <si>
+    <t>several full length kink.com videos with good quality and loading,mix of lesdom and maledom</t>
+  </si>
+  <si>
+    <t>https://curebdsm.com/search?q=katie+kush</t>
+  </si>
+  <si>
+    <t>oiled</t>
+  </si>
+  <si>
+    <t>flagged suspicious,doesn’t load well, katie kush full length bdsm videos</t>
+  </si>
+  <si>
+    <t>https://curebdsm.com/stars/Lily%20LaBeau</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>lily's full length bdsm videos but smaller collection and not very exciting</t>
+  </si>
+  <si>
+    <t>https://netfapx.net/63721/</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>lot of long length videos across several categories</t>
+  </si>
+  <si>
+    <t>https://pornzog</t>
+  </si>
+  <si>
+    <t>general videos mainly for random cases, not big studios</t>
+  </si>
+  <si>
+    <t>split face down suspended</t>
+  </si>
+  <si>
+    <t>https://heavyfetish.com/videos/13380/sex-and-submission-feeding-the-gimp/</t>
+  </si>
+  <si>
+    <t>kara price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nikki daniels </t>
+  </si>
+  <si>
+    <t>cloth cutting at 8m,tit slap at 8m,nipples clamps at 12m,wax on back at 29m,fingering at 41m,missionary with flogging at 42m</t>
+  </si>
+  <si>
+    <t>https://heavyfetish.com/videos/14079/wired-pussy-jade-indica-gets-spanked-and-shocked-in-hot-lesbian-bdsm-scene/</t>
+  </si>
+  <si>
+    <t>jade indica</t>
+  </si>
+  <si>
+    <t>spanking at 5m,steel plug anal at 10m,flogging at 22m</t>
+  </si>
+  <si>
+    <t>https://heavyfetish.com/videos/6123/hogtied-lilith-luxe-first-timer-in-extreme-bondage/</t>
+  </si>
+  <si>
+    <t>lilith luxe</t>
+  </si>
+  <si>
+    <t>pussy clamps at 8m,cloth cutting at 8m,stomach hitting and pressing at 11m,ass up caning at 24m,inverted flogging at 36m</t>
+  </si>
+  <si>
+    <t>https://www.peekvids.com/v/fucking-wet-beer-festival-with-selvaggia-balls-petite-body-deep-anal-dap-gapes-pee-drink-swallow-gio953/jg8TS9EN00M</t>
+  </si>
+  <si>
+    <t>legalporno</t>
+  </si>
+  <si>
+    <t>selvaggia balls</t>
+  </si>
+  <si>
+    <t>piss drinking</t>
+  </si>
+  <si>
+    <t>double penetration</t>
+  </si>
+  <si>
+    <t>inverted sofa</t>
+  </si>
+  <si>
+    <t>piss drinking at 15m,inverted sofa at 54m</t>
+  </si>
+  <si>
+    <t>https://heavyfetish.com/videos/5882/hogtied-beretta-james-challenged-with-wanton-cruelty/</t>
+  </si>
+  <si>
+    <t>beretta james</t>
+  </si>
+  <si>
+    <t>kicking at 5m,spanking at 10m,cloth cutting at 16m,nipple clamps at 16m,cream on pussy at 30m</t>
+  </si>
+  <si>
+    <t>https://heavyfetish.com/videos/6121/hogtied-charlotte-cross-2/</t>
+  </si>
+  <si>
+    <t>charlotte cross</t>
+  </si>
+  <si>
+    <t>canning at 10m,flogging at 15m,flexible pipe flogging at 19m,shaving at 20m,rope on pussy at 24m,spanking at 42m, water boarding at 45m</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1806,11 +1932,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2101,11 +2240,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
-  <dimension ref="A1:T86"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,18 +2317,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>266</v>
+        <v>557</v>
       </c>
       <c r="B2" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>279</v>
+        <v>551</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>280</v>
+        <v>558</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>44</v>
@@ -2201,121 +2340,121 @@
         <v>82</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>73</v>
+        <v>444</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>87</v>
+        <v>559</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>44</v>
+        <v>560</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>281</v>
+        <v>444</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R2" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>282</v>
+        <v>561</v>
       </c>
       <c r="T2" s="3" t="str" cm="1">
         <f t="array" ref="T2">_xlfn.REGEXEXTRACT(A2,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>284</v>
+        <v>395</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R3" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>525</v>
+        <v>209</v>
       </c>
       <c r="T3" s="3" t="str" cm="1">
         <f t="array" ref="T3">_xlfn.REGEXEXTRACT(A3,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>528</v>
       </c>
       <c r="B4" s="3">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>398</v>
+        <v>529</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>44</v>
@@ -2327,58 +2466,58 @@
         <v>82</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>44</v>
+        <v>443</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>44</v>
+        <v>527</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R4" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="T4" s="3" t="str" cm="1">
         <f t="array" ref="T4">_xlfn.REGEXEXTRACT(A4,"(?&lt;=//)[^/]+")</f>
-        <v>anyporn.com</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>397</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>44</v>
@@ -2387,61 +2526,61 @@
         <v>44</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>341</v>
+        <v>125</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>289</v>
+        <v>121</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R5" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>288</v>
+        <v>129</v>
       </c>
       <c r="T5" s="3" t="str" cm="1">
         <f t="array" ref="T5">_xlfn.REGEXEXTRACT(A5,"(?&lt;=//)[^/]+")</f>
-        <v>xhamster18.desi</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B6" s="3">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>291</v>
+        <v>484</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>44</v>
@@ -2450,61 +2589,61 @@
         <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>341</v>
+        <v>486</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>295</v>
+        <v>103</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="O6" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="Q6" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R6" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>296</v>
+        <v>487</v>
       </c>
       <c r="T6" s="3" t="str" cm="1">
         <f t="array" ref="T6">_xlfn.REGEXEXTRACT(A6,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="B7" s="3">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>297</v>
+        <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>44</v>
@@ -2513,61 +2652,61 @@
         <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>341</v>
+        <v>218</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="3">
-        <v>69</v>
-      </c>
-      <c r="O7" s="3">
-        <v>619</v>
+        <v>67</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>366</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R7" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c r="T7" s="3" t="str" cm="1">
         <f t="array" ref="T7">_xlfn.REGEXEXTRACT(A7,"(?&lt;=//)[^/]+")</f>
-        <v>www.porndead.org</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="B8" s="3">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>134</v>
+        <v>335</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>44</v>
@@ -2576,61 +2715,61 @@
         <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>301</v>
+        <v>464</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>44</v>
+        <v>465</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>44</v>
+        <v>466</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>292</v>
+        <v>136</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R8" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>305</v>
+        <v>467</v>
       </c>
       <c r="T8" s="3" t="str" cm="1">
         <f t="array" ref="T8">_xlfn.REGEXEXTRACT(A8,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>254</v>
       </c>
       <c r="B9" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>308</v>
+        <v>551</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
@@ -2639,61 +2778,61 @@
         <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>341</v>
+        <v>66</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="N9" s="3" t="s">
-        <v>385</v>
+        <v>155</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="R9" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="T9" s="3" t="str" cm="1">
         <f t="array" ref="T9">_xlfn.REGEXEXTRACT(A9,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="B10" s="3">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>234</v>
+        <v>398</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>44</v>
@@ -2702,61 +2841,61 @@
         <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R10" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="T10" s="3" t="str" cm="1">
         <f t="array" ref="T10">_xlfn.REGEXEXTRACT(A10,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>www.pornhits.com</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>269</v>
+        <v>594</v>
       </c>
       <c r="B11" s="3">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>308</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>307</v>
+        <v>595</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>44</v>
@@ -2768,40 +2907,40 @@
         <v>82</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="M11" s="3" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>311</v>
+        <v>444</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R11" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>312</v>
+        <v>596</v>
       </c>
       <c r="T11" s="3" t="str" cm="1">
         <f t="array" ref="T11">_xlfn.REGEXEXTRACT(A11,"(?&lt;=//)[^/]+")</f>
@@ -2810,124 +2949,124 @@
     </row>
     <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>241</v>
+        <v>533</v>
       </c>
       <c r="B12" s="3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>283</v>
+        <v>478</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>242</v>
+        <v>534</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>245</v>
+        <v>463</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>246</v>
+        <v>535</v>
       </c>
       <c r="T12" s="3" t="str" cm="1">
         <f t="array" ref="T12">_xlfn.REGEXEXTRACT(A12,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="3">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R13" s="3">
-        <v>3</v>
-      </c>
       <c r="S13" s="3" t="s">
-        <v>315</v>
+        <v>521</v>
       </c>
       <c r="T13" s="3" t="str" cm="1">
         <f t="array" ref="T13">_xlfn.REGEXEXTRACT(A13,"(?&lt;=//)[^/]+")</f>
@@ -2936,142 +3075,142 @@
     </row>
     <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="B14" s="3">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>192</v>
+        <v>400</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>101</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>317</v>
+        <v>206</v>
       </c>
       <c r="T14" s="3" t="str" cm="1">
         <f t="array" ref="T14">_xlfn.REGEXEXTRACT(A14,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>abxxx.com</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>190</v>
+        <v>401</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>191</v>
+        <v>409</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>221</v>
+        <v>320</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="T15" s="3" t="str" cm="1">
         <f t="array" ref="T15">_xlfn.REGEXEXTRACT(A15,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>399</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -3080,19 +3219,19 @@
         <v>44</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>301</v>
+        <v>85</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>66</v>
@@ -3101,43 +3240,43 @@
         <v>44</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="T16" s="3" t="str" cm="1">
         <f t="array" ref="T16">_xlfn.REGEXEXTRACT(A16,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="B17" s="3">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>44</v>
@@ -3146,40 +3285,40 @@
         <v>82</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>320</v>
+        <v>101</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>78</v>
+        <v>476</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>341</v>
+        <v>68</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="N17" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>322</v>
+        <v>477</v>
       </c>
       <c r="T17" s="3" t="str" cm="1">
         <f t="array" ref="T17">_xlfn.REGEXEXTRACT(A17,"(?&lt;=//)[^/]+")</f>
@@ -3188,16 +3327,16 @@
     </row>
     <row r="18" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>134</v>
+        <v>307</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>44</v>
@@ -3206,124 +3345,124 @@
         <v>44</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>341</v>
+        <v>126</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>94</v>
+        <v>457</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>324</v>
+        <v>458</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R18" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>325</v>
+        <v>526</v>
       </c>
       <c r="T18" s="3" t="str" cm="1">
         <f t="array" ref="T18">_xlfn.REGEXEXTRACT(A18,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="B19" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>128</v>
+        <v>443</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>333</v>
+        <v>525</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O19" s="3">
-        <v>69</v>
+        <v>136</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>104</v>
+        <v>345</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>331</v>
+        <v>442</v>
       </c>
       <c r="T19" s="3" t="str" cm="1">
         <f t="array" ref="T19">_xlfn.REGEXEXTRACT(A19,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
+        <v>m.hqporner.com</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>44</v>
@@ -3332,94 +3471,94 @@
         <v>44</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>341</v>
+        <v>110</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>155</v>
+        <v>389</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>339</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R20" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="T20" s="3" t="str" cm="1">
         <f t="array" ref="T20">_xlfn.REGEXEXTRACT(A20,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="B21" s="3">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>114</v>
+        <v>372</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>430</v>
+        <v>231</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>74</v>
+        <v>365</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="P21" s="3">
         <v>69</v>
@@ -3428,28 +3567,28 @@
         <v>57</v>
       </c>
       <c r="R21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>208</v>
+        <v>374</v>
       </c>
       <c r="T21" s="3" t="str" cm="1">
         <f t="array" ref="T21">_xlfn.REGEXEXTRACT(A21,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>www.tnaflix.com</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>342</v>
+        <v>114</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>44</v>
@@ -3458,124 +3597,124 @@
         <v>44</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>155</v>
+        <v>370</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="R22" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="T22" s="3" t="str" cm="1">
         <f t="array" ref="T22">_xlfn.REGEXEXTRACT(A22,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.me</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>552</v>
       </c>
       <c r="B23" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>192</v>
+        <v>551</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>192</v>
+        <v>359</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>345</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>349</v>
+        <v>553</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>350</v>
+        <v>87</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>44</v>
+        <v>554</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>44</v>
+        <v>555</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R23" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>351</v>
+        <v>556</v>
       </c>
       <c r="T23" s="3" t="str" cm="1">
         <f t="array" ref="T23">_xlfn.REGEXEXTRACT(A23,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>267</v>
+        <v>591</v>
       </c>
       <c r="B24" s="3">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>353</v>
+        <v>592</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>44</v>
@@ -3584,43 +3723,43 @@
         <v>44</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="J24" s="3" t="s">
-        <v>341</v>
+        <v>68</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>526</v>
+        <v>463</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>44</v>
+        <v>531</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>355</v>
+        <v>593</v>
       </c>
       <c r="T24" s="3" t="str" cm="1">
         <f t="array" ref="T24">_xlfn.REGEXEXTRACT(A24,"(?&lt;=//)[^/]+")</f>
@@ -3629,16 +3768,16 @@
     </row>
     <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>581</v>
       </c>
       <c r="B25" s="3">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>135</v>
+        <v>582</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>44</v>
@@ -3650,31 +3789,31 @@
         <v>82</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>142</v>
+        <v>451</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>78</v>
+        <v>501</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>57</v>
@@ -3683,28 +3822,28 @@
         <v>5</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>210</v>
+        <v>583</v>
       </c>
       <c r="T25" s="3" t="str" cm="1">
         <f t="array" ref="T25">_xlfn.REGEXEXTRACT(A25,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>187</v>
+        <v>578</v>
       </c>
       <c r="B26" s="3">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>192</v>
+        <v>478</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>190</v>
+        <v>579</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>44</v>
@@ -3713,94 +3852,94 @@
         <v>83</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>44</v>
+        <v>531</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R26" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>195</v>
+        <v>580</v>
       </c>
       <c r="T26" s="3" t="str" cm="1">
         <f t="array" ref="T26">_xlfn.REGEXEXTRACT(A26,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>357</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>327</v>
+        <v>180</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>356</v>
+        <v>181</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>287</v>
+        <v>116</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>359</v>
+        <v>120</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>324</v>
+        <v>183</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>57</v>
@@ -3809,25 +3948,25 @@
         <v>5</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>358</v>
+        <v>185</v>
       </c>
       <c r="T27" s="3" t="str" cm="1">
         <f t="array" ref="T27">_xlfn.REGEXEXTRACT(A27,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>180</v>
+        <v>403</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>44</v>
@@ -3836,31 +3975,31 @@
         <v>44</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>101</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>44</v>
@@ -3869,28 +4008,28 @@
         <v>57</v>
       </c>
       <c r="R28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="T28" s="3" t="str" cm="1">
         <f t="array" ref="T28">_xlfn.REGEXEXTRACT(A28,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B29" s="3">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>323</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>44</v>
@@ -3899,61 +4038,61 @@
         <v>44</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>363</v>
+        <v>120</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>341</v>
+        <v>507</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>287</v>
+        <v>509</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>44</v>
+        <v>510</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>94</v>
+        <v>389</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>95</v>
+        <v>506</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>339</v>
+        <v>69</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>361</v>
+        <v>508</v>
       </c>
       <c r="T29" s="3" t="str" cm="1">
         <f t="array" ref="T29">_xlfn.REGEXEXTRACT(A29,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>curebdsm.com</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>275</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>364</v>
+        <v>283</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>44</v>
@@ -3962,61 +4101,61 @@
         <v>44</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>87</v>
+        <v>512</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>369</v>
+        <v>513</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>44</v>
+        <v>434</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>367</v>
+        <v>514</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>346</v>
+        <v>463</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>368</v>
+        <v>516</v>
       </c>
       <c r="T30" s="3" t="str" cm="1">
         <f t="array" ref="T30">_xlfn.REGEXEXTRACT(A30,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B31" s="3">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>370</v>
+        <v>481</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>44</v>
@@ -4028,157 +4167,157 @@
         <v>82</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>314</v>
+        <v>231</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>66</v>
+        <v>476</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>371</v>
+        <v>527</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>346</v>
+        <v>444</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>281</v>
+        <v>483</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R31" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>372</v>
+        <v>482</v>
       </c>
       <c r="T31" s="3" t="str" cm="1">
         <f t="array" ref="T31">_xlfn.REGEXEXTRACT(A31,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>270</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>373</v>
+        <v>478</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>330</v>
+        <v>83</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>376</v>
+        <v>126</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>341</v>
+        <v>419</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>366</v>
+        <v>479</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="P32" s="3">
-        <v>69</v>
+        <v>389</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R32" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>375</v>
+        <v>480</v>
       </c>
       <c r="T32" s="3" t="str" cm="1">
         <f t="array" ref="T32">_xlfn.REGEXEXTRACT(A32,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
+        <v>hcbdsm.com</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B33" s="3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>377</v>
+        <v>98</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>327</v>
+        <v>453</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>378</v>
+        <v>44</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>359</v>
+        <v>101</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>287</v>
+        <v>68</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>44</v>
+        <v>439</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="O33" s="3">
-        <v>69</v>
+        <v>121</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>57</v>
@@ -4187,28 +4326,28 @@
         <v>5</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>380</v>
+        <v>454</v>
       </c>
       <c r="T33" s="3" t="str" cm="1">
         <f t="array" ref="T33">_xlfn.REGEXEXTRACT(A33,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="B34" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>44</v>
@@ -4217,40 +4356,40 @@
         <v>82</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>383</v>
+        <v>84</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>101</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>44</v>
+        <v>391</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>44</v>
+        <v>518</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R34" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="T34" s="3" t="str" cm="1">
         <f t="array" ref="T34">_xlfn.REGEXEXTRACT(A34,"(?&lt;=//)[^/]+")</f>
@@ -4259,115 +4398,115 @@
     </row>
     <row r="35" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B35" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>134</v>
+        <v>326</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>304</v>
+        <v>162</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>85</v>
+        <v>358</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>94</v>
+        <v>197</v>
+      </c>
+      <c r="O35" s="3">
+        <v>69</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>95</v>
+        <v>323</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R35" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="T35" s="3" t="str" cm="1">
         <f t="array" ref="T35">_xlfn.REGEXEXTRACT(A35,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>115</v>
+        <v>356</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>68</v>
+        <v>358</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>519</v>
+        <v>155</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>115</v>
+        <v>292</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>57</v>
@@ -4376,25 +4515,25 @@
         <v>5</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="T36" s="3" t="str" cm="1">
         <f t="array" ref="T36">_xlfn.REGEXEXTRACT(A36,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="B37" s="3">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>44</v>
@@ -4403,64 +4542,64 @@
         <v>44</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>44</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="R37" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T37" s="3" t="str" cm="1">
         <f t="array" ref="T37">_xlfn.REGEXEXTRACT(A37,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="3">
         <v>31</v>
       </c>
-      <c r="B38" s="3">
-        <v>44</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>393</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>408</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>44</v>
@@ -4469,16 +4608,16 @@
         <v>82</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>66</v>
@@ -4487,40 +4626,40 @@
         <v>73</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>115</v>
+        <v>75</v>
+      </c>
+      <c r="P38" s="3">
+        <v>69</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R38" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>395</v>
+        <v>208</v>
       </c>
       <c r="T38" s="3" t="str" cm="1">
         <f t="array" ref="T38">_xlfn.REGEXEXTRACT(A38,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="B39" s="3">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>114</v>
+        <v>284</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>415</v>
+        <v>285</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>44</v>
@@ -4532,58 +4671,58 @@
         <v>82</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>416</v>
+        <v>220</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>417</v>
+        <v>286</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>419</v>
+        <v>120</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>420</v>
+        <v>287</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>418</v>
+        <v>219</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="Q39" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R39" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>421</v>
+        <v>523</v>
       </c>
       <c r="T39" s="3" t="str" cm="1">
         <f t="array" ref="T39">_xlfn.REGEXEXTRACT(A39,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B40" s="3">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>423</v>
+        <v>279</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>44</v>
@@ -4592,97 +4731,97 @@
         <v>44</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>424</v>
+        <v>73</v>
       </c>
       <c r="I40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="L40" s="3" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>292</v>
+        <v>69</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>367</v>
+        <v>193</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R40" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>425</v>
+        <v>282</v>
       </c>
       <c r="T40" s="3" t="str" cm="1">
         <f t="array" ref="T40">_xlfn.REGEXEXTRACT(A40,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>txxx.com</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="B41" s="3">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>427</v>
+        <v>83</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="N41" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="P41" s="3" t="s">
-        <v>431</v>
+        <v>162</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>57</v>
@@ -4691,25 +4830,25 @@
         <v>4</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>429</v>
+        <v>230</v>
       </c>
       <c r="T41" s="3" t="str" cm="1">
         <f t="array" ref="T41">_xlfn.REGEXEXTRACT(A41,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>44</v>
@@ -4718,64 +4857,64 @@
         <v>44</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>433</v>
+        <v>101</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>435</v>
+        <v>163</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>346</v>
+        <v>152</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>339</v>
+        <v>155</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>434</v>
+        <v>162</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R42" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>432</v>
+        <v>164</v>
       </c>
       <c r="T42" s="3" t="str" cm="1">
         <f t="array" ref="T42">_xlfn.REGEXEXTRACT(A42,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>23</v>
+        <v>574</v>
       </c>
       <c r="B43" s="3">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>436</v>
+        <v>575</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>576</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>44</v>
@@ -4784,31 +4923,31 @@
         <v>82</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>437</v>
+        <v>113</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>438</v>
+        <v>68</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>101</v>
+        <v>476</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>440</v>
+        <v>140</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>155</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>439</v>
+        <v>94</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>115</v>
+        <v>531</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>57</v>
@@ -4817,151 +4956,151 @@
         <v>4</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>441</v>
+        <v>577</v>
       </c>
       <c r="T43" s="3" t="str" cm="1">
         <f t="array" ref="T43">_xlfn.REGEXEXTRACT(A43,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="B44" s="3">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>446</v>
+        <v>226</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>307</v>
+        <v>404</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>444</v>
+        <v>85</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>527</v>
+        <v>88</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>445</v>
+        <v>91</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>442</v>
+        <v>94</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>346</v>
+        <v>95</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R44" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>443</v>
+        <v>97</v>
       </c>
       <c r="T44" s="3" t="str" cm="1">
         <f t="array" ref="T44">_xlfn.REGEXEXTRACT(A44,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>19</v>
+        <v>544</v>
       </c>
       <c r="B45" s="3">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>279</v>
+        <v>98</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>447</v>
+        <v>545</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>546</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>424</v>
+        <v>68</v>
       </c>
       <c r="I45" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>452</v>
-      </c>
       <c r="N45" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>152</v>
+        <v>531</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R45" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>448</v>
+        <v>550</v>
       </c>
       <c r="T45" s="3" t="str" cm="1">
         <f t="array" ref="T45">_xlfn.REGEXEXTRACT(A45,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B46" s="3">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>44</v>
@@ -4973,28 +5112,28 @@
         <v>82</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>417</v>
+        <v>119</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>451</v>
+        <v>120</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>452</v>
+        <v>116</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>438</v>
+        <v>66</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>450</v>
+        <v>115</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>44</v>
@@ -5006,25 +5145,25 @@
         <v>4</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>453</v>
+        <v>118</v>
       </c>
       <c r="T46" s="3" t="str" cm="1">
         <f t="array" ref="T46">_xlfn.REGEXEXTRACT(A46,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B47" s="3">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>98</v>
+        <v>392</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>454</v>
+        <v>180</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>44</v>
@@ -5033,61 +5172,61 @@
         <v>44</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>113</v>
+        <v>498</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>66</v>
+        <v>349</v>
       </c>
       <c r="J47" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="L47" s="3" t="s">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>121</v>
+        <v>501</v>
+      </c>
+      <c r="N47" s="3">
+        <v>69</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>44</v>
+        <v>502</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R47" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="T47" s="3" t="str" cm="1">
         <f t="array" ref="T47">_xlfn.REGEXEXTRACT(A47,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48" s="3">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>307</v>
+        <v>497</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>44</v>
@@ -5099,91 +5238,91 @@
         <v>82</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>150</v>
+        <v>353</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>73</v>
+        <v>436</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>346</v>
+        <v>503</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>459</v>
+        <v>104</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R48" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="T48" s="3" t="str" cm="1">
         <f t="array" ref="T48">_xlfn.REGEXEXTRACT(A48,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B49" s="3">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>460</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>463</v>
+        <v>287</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>304</v>
+        <v>489</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>341</v>
+        <v>66</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="N49" s="3">
-        <v>69</v>
+        <v>120</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>94</v>
+        <v>488</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>155</v>
@@ -5192,28 +5331,28 @@
         <v>57</v>
       </c>
       <c r="R49" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="T49" s="3" t="str" cm="1">
         <f t="array" ref="T49">_xlfn.REGEXEXTRACT(A49,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>spankbang.party</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c r="B50" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>308</v>
+        <v>114</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>336</v>
+        <v>448</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>44</v>
@@ -5225,121 +5364,121 @@
         <v>82</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>120</v>
+        <v>416</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>78</v>
+        <v>450</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>115</v>
+        <v>449</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R50" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="T50" s="3" t="str" cm="1">
         <f t="array" ref="T50">_xlfn.REGEXEXTRACT(A50,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="B51" s="3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>470</v>
+        <v>44</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>229</v>
+        <v>436</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>473</v>
+        <v>116</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R51" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="T51" s="3" t="str" cm="1">
         <f t="array" ref="T51">_xlfn.REGEXEXTRACT(A51,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="B52" s="3">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>201</v>
+        <v>414</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>44</v>
@@ -5348,124 +5487,124 @@
         <v>44</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>204</v>
+        <v>415</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>203</v>
+        <v>416</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>116</v>
+        <v>418</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>67</v>
+        <v>421</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>202</v>
+        <v>417</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R52" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>217</v>
+        <v>420</v>
       </c>
       <c r="T52" s="3" t="str" cm="1">
         <f t="array" ref="T52">_xlfn.REGEXEXTRACT(A52,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="B53" s="3">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>192</v>
+        <v>425</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>83</v>
+        <v>426</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>456</v>
+        <v>126</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>44</v>
+        <v>68</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="R53" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="T53" s="3" t="str" cm="1">
         <f t="array" ref="T53">_xlfn.REGEXEXTRACT(A53,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>txxx.com</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>5</v>
+        <v>247</v>
       </c>
       <c r="B54" s="3">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>308</v>
+        <v>98</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>476</v>
+        <v>380</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>44</v>
@@ -5477,58 +5616,58 @@
         <v>82</v>
       </c>
       <c r="H54" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="K54" s="3" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>193</v>
+        <v>381</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R54" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="T54" s="3" t="str" cm="1">
         <f t="array" ref="T54">_xlfn.REGEXEXTRACT(A54,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B55" s="3">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>44</v>
@@ -5537,19 +5676,19 @@
         <v>44</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>66</v>
@@ -5558,40 +5697,40 @@
         <v>44</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R55" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="T55" s="3" t="str" cm="1">
         <f t="array" ref="T55">_xlfn.REGEXEXTRACT(A55,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="B56" s="3">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>157</v>
+        <v>322</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>177</v>
+        <v>359</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>44</v>
@@ -5600,61 +5739,61 @@
         <v>44</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>494</v>
+        <v>362</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>179</v>
+        <v>287</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="Q56" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R56" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>215</v>
+        <v>360</v>
       </c>
       <c r="T56" s="3" t="str" cm="1">
         <f t="array" ref="T56">_xlfn.REGEXEXTRACT(A56,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="B57" s="3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>479</v>
+        <v>341</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>44</v>
@@ -5663,64 +5802,64 @@
         <v>44</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>96</v>
+        <v>347</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>420</v>
+        <v>44</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>480</v>
+        <v>155</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="R57" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>481</v>
+        <v>346</v>
       </c>
       <c r="T57" s="3" t="str" cm="1">
         <f t="array" ref="T57">_xlfn.REGEXEXTRACT(A57,"(?&lt;=//)[^/]+")</f>
-        <v>hcbdsm.com</v>
+        <v>txxx.me</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="B58" s="3">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>482</v>
+        <v>398</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>44</v>
@@ -5729,40 +5868,40 @@
         <v>82</v>
       </c>
       <c r="H58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="J58" s="3" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>529</v>
+        <v>193</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>445</v>
+        <v>95</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>484</v>
+        <v>44</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R58" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>483</v>
+        <v>321</v>
       </c>
       <c r="T58" s="3" t="str" cm="1">
         <f t="array" ref="T58">_xlfn.REGEXEXTRACT(A58,"(?&lt;=//)[^/]+")</f>
@@ -5771,16 +5910,16 @@
     </row>
     <row r="59" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B59" s="3">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>485</v>
+        <v>307</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>44</v>
@@ -5792,58 +5931,58 @@
         <v>82</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>68</v>
+        <v>120</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>487</v>
+        <v>101</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>486</v>
+        <v>311</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R59" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>488</v>
+        <v>312</v>
       </c>
       <c r="T59" s="3" t="str" cm="1">
         <f t="array" ref="T59">_xlfn.REGEXEXTRACT(A59,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B60" s="3">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>308</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>44</v>
@@ -5855,31 +5994,31 @@
         <v>82</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>490</v>
+        <v>309</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>115</v>
+        <v>384</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>489</v>
+        <v>44</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>57</v>
@@ -5888,25 +6027,25 @@
         <v>4</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>491</v>
+        <v>310</v>
       </c>
       <c r="T60" s="3" t="str" cm="1">
         <f t="array" ref="T60">_xlfn.REGEXEXTRACT(A60,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.party</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="B61" s="3">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>401</v>
+        <v>134</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>44</v>
@@ -5915,124 +6054,124 @@
         <v>44</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>101</v>
+        <v>340</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>94</v>
+        <v>44</v>
+      </c>
+      <c r="N61" s="3">
+        <v>69</v>
+      </c>
+      <c r="O61" s="3">
+        <v>619</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>104</v>
+        <v>365</v>
       </c>
       <c r="Q61" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R61" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="T61" s="3" t="str" cm="1">
         <f t="array" ref="T61">_xlfn.REGEXEXTRACT(A61,"(?&lt;=//)[^/]+")</f>
-        <v>abxxx.com</v>
+        <v>www.porndead.org</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B62" s="3">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R62" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="T62" s="3" t="str" cm="1">
         <f t="array" ref="T62">_xlfn.REGEXEXTRACT(A62,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>xhamster18.desi</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>30</v>
+        <v>568</v>
       </c>
       <c r="B63" s="3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>98</v>
+        <v>551</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>44</v>
@@ -6041,61 +6180,61 @@
         <v>44</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>101</v>
+        <v>569</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>121</v>
+        <v>569</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="Q63" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R63" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>129</v>
+        <v>570</v>
       </c>
       <c r="T63" s="3" t="str" cm="1">
         <f t="array" ref="T63">_xlfn.REGEXEXTRACT(A63,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>netfapx.net</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>492</v>
+        <v>571</v>
       </c>
       <c r="B64" s="3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>157</v>
+        <v>551</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>44</v>
@@ -6104,61 +6243,61 @@
         <v>44</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>494</v>
+        <v>569</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>495</v>
+        <v>44</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>477</v>
+        <v>44</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>497</v>
+        <v>44</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>155</v>
+        <v>569</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="Q64" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R64" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="T64" s="3" t="str" cm="1">
         <f t="array" ref="T64">_xlfn.REGEXEXTRACT(A64,"(?&lt;=//)[^/]+")</f>
-        <v>pervtube.net</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>pornzog</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B65" s="3">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>393</v>
+        <v>227</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>180</v>
+        <v>407</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>44</v>
@@ -6167,61 +6306,61 @@
         <v>44</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>499</v>
+        <v>106</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>487</v>
+        <v>110</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="N65" s="3">
-        <v>69</v>
+        <v>112</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>193</v>
+        <v>438</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>503</v>
+        <v>111</v>
       </c>
       <c r="Q65" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R65" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>501</v>
+        <v>207</v>
       </c>
       <c r="T65" s="3" t="str" cm="1">
         <f t="array" ref="T65">_xlfn.REGEXEXTRACT(A65,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="B66" s="3">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>498</v>
+        <v>352</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>44</v>
@@ -6239,85 +6378,85 @@
         <v>68</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>354</v>
+        <v>532</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>437</v>
+        <v>101</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>504</v>
+        <v>155</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>505</v>
+        <v>44</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R66" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="T66" s="3" t="str" cm="1">
         <f t="array" ref="T66">_xlfn.REGEXEXTRACT(A66,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B67" s="3">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>114</v>
+        <v>395</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>416</v>
+        <v>153</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>44</v>
@@ -6326,10 +6465,10 @@
         <v>57</v>
       </c>
       <c r="R67" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="T67" s="3" t="str" cm="1">
         <f t="array" ref="T67">_xlfn.REGEXEXTRACT(A67,"(?&lt;=//)[^/]+")</f>
@@ -6338,16 +6477,16 @@
     </row>
     <row r="68" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>268</v>
+        <v>491</v>
       </c>
       <c r="B68" s="3">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>353</v>
+        <v>492</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>44</v>
@@ -6356,61 +6495,61 @@
         <v>44</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>510</v>
+        <v>61</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>128</v>
+        <v>476</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>390</v>
+        <v>155</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>507</v>
+        <v>94</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>69</v>
+        <v>389</v>
       </c>
       <c r="Q68" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R68" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="T68" s="3" t="str" cm="1">
         <f t="array" ref="T68">_xlfn.REGEXEXTRACT(A68,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>pervtube.net</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="B69" s="3">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>283</v>
+        <v>157</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>44</v>
@@ -6419,61 +6558,61 @@
         <v>44</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>513</v>
+        <v>84</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>514</v>
+        <v>178</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>477</v>
+        <v>61</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>515</v>
+        <v>155</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>516</v>
+        <v>44</v>
       </c>
       <c r="Q69" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R69" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>517</v>
+        <v>215</v>
       </c>
       <c r="T69" s="3" t="str" cm="1">
         <f t="array" ref="T69">_xlfn.REGEXEXTRACT(A69,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>www.pornhits.com</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B70" s="3">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>518</v>
+        <v>446</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>44</v>
@@ -6482,94 +6621,94 @@
         <v>44</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>452</v>
+        <v>120</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>502</v>
+        <v>119</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>522</v>
+        <v>67</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>524</v>
+        <v>451</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>520</v>
+        <v>193</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>521</v>
+        <v>152</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R70" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>523</v>
+        <v>447</v>
       </c>
       <c r="T70" s="3" t="str" cm="1">
         <f t="array" ref="T70">_xlfn.REGEXEXTRACT(A70,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>530</v>
+        <v>9</v>
       </c>
       <c r="B71" s="3">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>531</v>
+        <v>326</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>459</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>82</v>
+        <v>460</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>101</v>
+        <v>462</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>527</v>
+        <v>85</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>444</v>
+        <v>304</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>477</v>
+        <v>340</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>133</v>
+        <v>287</v>
+      </c>
+      <c r="N71" s="3">
+        <v>69</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>529</v>
+        <v>94</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>155</v>
@@ -6578,28 +6717,28 @@
         <v>57</v>
       </c>
       <c r="R71" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>532</v>
+        <v>461</v>
       </c>
       <c r="T71" s="3" t="str" cm="1">
         <f t="array" ref="T71">_xlfn.REGEXEXTRACT(A71,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="B72" s="3">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>404</v>
+        <v>186</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>44</v>
@@ -6608,43 +6747,43 @@
         <v>44</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>44</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="R72" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="T72" s="3" t="str" cm="1">
         <f t="array" ref="T72">_xlfn.REGEXEXTRACT(A72,"(?&lt;=//)[^/]+")</f>
@@ -6653,16 +6792,16 @@
     </row>
     <row r="73" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>535</v>
+        <v>264</v>
       </c>
       <c r="B73" s="3">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>536</v>
+        <v>335</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>44</v>
@@ -6671,61 +6810,61 @@
         <v>44</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>119</v>
+        <v>423</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>132</v>
+        <v>287</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>464</v>
+        <v>292</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="Q73" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R73" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="T73" s="3" t="str" cm="1">
         <f t="array" ref="T73">_xlfn.REGEXEXTRACT(A73,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>538</v>
+        <v>1</v>
       </c>
       <c r="B74" s="3">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>539</v>
+        <v>386</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>540</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>44</v>
@@ -6734,82 +6873,82 @@
         <v>44</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>68</v>
+        <v>304</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>101</v>
+        <v>340</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>367</v>
+        <v>94</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>533</v>
+        <v>95</v>
       </c>
       <c r="Q74" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R74" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>541</v>
+        <v>387</v>
       </c>
       <c r="T74" s="3" t="str" cm="1">
         <f t="array" ref="T74">_xlfn.REGEXEXTRACT(A74,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>542</v>
+        <v>275</v>
       </c>
       <c r="B75" s="3">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>543</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>430</v>
+        <v>87</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>44</v>
@@ -6818,73 +6957,73 @@
         <v>44</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>544</v>
+        <v>366</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="P75" s="3" t="s">
-        <v>94</v>
+        <v>323</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="Q75" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R75" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>545</v>
+        <v>367</v>
       </c>
       <c r="T75" s="3" t="str" cm="1">
         <f t="array" ref="T75">_xlfn.REGEXEXTRACT(A75,"(?&lt;=//)[^/]+")</f>
-        <v>www.omg.xxx</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B76" s="3">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>181</v>
+        <v>344</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>85</v>
+        <v>348</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>68</v>
+        <v>349</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>116</v>
+        <v>351</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>44</v>
@@ -6893,154 +7032,154 @@
         <v>57</v>
       </c>
       <c r="R76" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>185</v>
+        <v>350</v>
       </c>
       <c r="T76" s="3" t="str" cm="1">
         <f t="array" ref="T76">_xlfn.REGEXEXTRACT(A76,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>546</v>
+        <v>42</v>
       </c>
       <c r="B77" s="3">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>547</v>
+        <v>326</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>548</v>
+        <v>327</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>549</v>
+        <v>85</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>550</v>
+        <v>128</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>100</v>
+        <v>331</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>551</v>
+        <v>332</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O77" s="3" t="s">
-        <v>552</v>
+        <v>162</v>
+      </c>
+      <c r="O77" s="3">
+        <v>69</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>533</v>
+        <v>104</v>
       </c>
       <c r="Q77" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R77" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>553</v>
+        <v>330</v>
       </c>
       <c r="T77" s="3" t="str" cm="1">
         <f t="array" ref="T77">_xlfn.REGEXEXTRACT(A77,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>tube.perverzija.com</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B78" s="3">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>226</v>
+        <v>334</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>411</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>84</v>
+        <v>337</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>85</v>
+        <v>340</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>86</v>
+        <v>339</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>95</v>
+        <v>338</v>
       </c>
       <c r="Q78" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R78" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>97</v>
+        <v>336</v>
       </c>
       <c r="T78" s="3" t="str" cm="1">
         <f t="array" ref="T78">_xlfn.REGEXEXTRACT(A78,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>www.pornhub.com</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B79" s="3">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>157</v>
+        <v>322</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>44</v>
@@ -7049,94 +7188,94 @@
         <v>44</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M79" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>162</v>
+        <v>323</v>
       </c>
       <c r="Q79" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R79" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="T79" s="3" t="str" cm="1">
         <f t="array" ref="T79">_xlfn.REGEXEXTRACT(A79,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="B80" s="3">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>396</v>
+        <v>98</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="I80" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J80" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="K80" s="3" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>69</v>
+        <v>318</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>44</v>
@@ -7148,28 +7287,28 @@
         <v>3</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="T80" s="3" t="str" cm="1">
         <f t="array" ref="T80">_xlfn.REGEXEXTRACT(A80,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="B81" s="3">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>407</v>
+        <v>190</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>413</v>
+        <v>191</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>44</v>
@@ -7178,16 +7317,16 @@
         <v>83</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>44</v>
+        <v>223</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>44</v>
@@ -7196,40 +7335,40 @@
         <v>44</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>533</v>
+        <v>219</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R81" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="T81" s="3" t="str" cm="1">
         <f t="array" ref="T81">_xlfn.REGEXEXTRACT(A81,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>271</v>
+        <v>6</v>
       </c>
       <c r="B82" s="3">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>44</v>
@@ -7241,25 +7380,25 @@
         <v>82</v>
       </c>
       <c r="H82" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K82" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I82" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="L82" s="3" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>44</v>
@@ -7274,25 +7413,25 @@
         <v>3</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>512</v>
+        <v>315</v>
       </c>
       <c r="T82" s="3" t="str" cm="1">
         <f t="array" ref="T82">_xlfn.REGEXEXTRACT(A82,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="B83" s="3">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>399</v>
+        <v>291</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>44</v>
@@ -7301,124 +7440,124 @@
         <v>44</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>84</v>
+        <v>340</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>175</v>
+        <v>294</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>136</v>
+        <v>292</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>172</v>
+        <v>293</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R83" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="T83" s="3" t="str" cm="1">
         <f t="array" ref="T83">_xlfn.REGEXEXTRACT(A83,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
+        <v>www.tnaflix.com</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B84" s="3">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>396</v>
+        <v>76</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>397</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>414</v>
+        <v>44</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="Q84" s="3" t="s">
         <v>57</v>
       </c>
       <c r="R84" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="T84" s="3" t="str" cm="1">
         <f t="array" ref="T84">_xlfn.REGEXEXTRACT(A84,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>anyporn.com</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>24</v>
+        <v>562</v>
       </c>
       <c r="B85" s="3">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>227</v>
+        <v>551</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>408</v>
+        <v>307</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>44</v>
@@ -7430,31 +7569,31 @@
         <v>82</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>106</v>
+        <v>563</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>112</v>
+        <v>560</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>111</v>
+        <v>389</v>
       </c>
       <c r="Q85" s="3" t="s">
         <v>57</v>
@@ -7463,25 +7602,25 @@
         <v>3</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>207</v>
+        <v>564</v>
       </c>
       <c r="T85" s="3" t="str" cm="1">
         <f t="array" ref="T85">_xlfn.REGEXEXTRACT(A85,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>254</v>
+        <v>565</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>44</v>
@@ -7490,66 +7629,834 @@
         <v>44</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>67</v>
+        <v>563</v>
       </c>
       <c r="I86" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M86" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="N86" s="3" t="s">
         <v>155</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>193</v>
+        <v>506</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="R86" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>260</v>
+        <v>567</v>
       </c>
       <c r="T86" s="3" t="str" cm="1">
         <f t="array" ref="T86">_xlfn.REGEXEXTRACT(A86,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B87" s="3">
+        <v>64</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R87" s="3">
+        <v>2</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="T87" s="3" t="str" cm="1">
+        <f t="array" ref="T87">_xlfn.REGEXEXTRACT(A87,"(?&lt;=//)[^/]+")</f>
+        <v>www.peekvids.com</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B88" s="3">
+        <v>57</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R88" s="3">
+        <v>2</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="T88" s="3" t="str" cm="1">
+        <f t="array" ref="T88">_xlfn.REGEXEXTRACT(A88,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B89" s="3">
+        <v>57</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R89" s="3">
+        <v>2</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="T89" s="3" t="str" cm="1">
+        <f t="array" ref="T89">_xlfn.REGEXEXTRACT(A89,"(?&lt;=//)[^/]+")</f>
+        <v>www.omg.xxx</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B90" s="3">
+        <v>47</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q90" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R90" s="3">
+        <v>2</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="T90" s="3" t="str" cm="1">
+        <f t="array" ref="T90">_xlfn.REGEXEXTRACT(A90,"(?&lt;=//)[^/]+")</f>
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="3">
+        <v>45</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R91" s="3">
+        <v>2</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="T91" s="3" t="str" cm="1">
+        <f t="array" ref="T91">_xlfn.REGEXEXTRACT(A91,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" s="3">
+        <v>32</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R92" s="3">
+        <v>2</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="T92" s="3" t="str" cm="1">
+        <f t="array" ref="T92">_xlfn.REGEXEXTRACT(A92,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="3">
+        <v>23</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q93" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R93" s="3">
+        <v>2</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="T93" s="3" t="str" cm="1">
+        <f t="array" ref="T93">_xlfn.REGEXEXTRACT(A93,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B94" s="3">
+        <v>18</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R94" s="3">
+        <v>2</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="T94" s="3" t="str" cm="1">
+        <f t="array" ref="T94">_xlfn.REGEXEXTRACT(A94,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B95" s="3">
+        <v>14</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R95" s="3">
+        <v>2</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="T95" s="3" t="str" cm="1">
+        <f t="array" ref="T95">_xlfn.REGEXEXTRACT(A95,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B96" s="3">
+        <v>48</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="R96" s="3">
+        <v>1</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="T96" s="3" t="str" cm="1">
+        <f t="array" ref="T96">_xlfn.REGEXEXTRACT(A96,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" s="3">
+        <v>34</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R97" s="3">
+        <v>1</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T97" s="3" t="str" cm="1">
+        <f t="array" ref="T97">_xlfn.REGEXEXTRACT(A97,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="3">
+        <v>11</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R98" s="3">
+        <v>1</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="T98" s="3" t="str" cm="1">
+        <f t="array" ref="T98">_xlfn.REGEXEXTRACT(A98,"(?&lt;=//)[^/]+")</f>
+        <v>www.pornhub.com</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T86">
-    <sortCondition ref="B1:B86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T98">
+    <sortCondition descending="1" ref="R1:R98"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:T40 A41:I41 K41:T41 A42:T73 A74:H75 J74:T75">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="A1:T1">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:T86">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="R1">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T39 A2:B98 C40:I40 K40:T40 C41:T72 C73:H74 J73:T74 C75:T86 C87:O87 Q87:T87 C88:T88 C89 E89:T89 C90:T90 C91:N91 P91:T91 C92:T98">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R86">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="R2:R98">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/data/links.xlsx
+++ b/data/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crypto\Private\LQDU\LinkBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6E2E3E-422E-4BA1-AD45-3796EBBD49E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEFFA43-AE29-4B68-B0C8-34F1F73D0ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="596">
   <si>
     <t>https://xhamster18.desi/videos/nubile-films-seductive-games-of-passion-3267609</t>
   </si>
@@ -1438,9 +1438,6 @@
   </si>
   <si>
     <t>carter cruise</t>
-  </si>
-  <si>
-    <t>normal-soft-lesbian</t>
   </si>
   <si>
     <t>69 at 5m,feet licking at 16m</t>
@@ -1932,10 +1929,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2242,9 +2239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:T98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,16 +2316,16 @@
     </row>
     <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>44</v>
@@ -2349,13 +2346,13 @@
         <v>68</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>84</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>444</v>
@@ -2373,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="T2" s="3" t="str" cm="1">
         <f t="array" ref="T2">_xlfn.REGEXEXTRACT(A2,"(?&lt;=//)[^/]+")</f>
@@ -2382,79 +2379,79 @@
     </row>
     <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="B3" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>395</v>
+        <v>550</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>413</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="R3" s="3">
         <v>7</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="T3" s="3" t="str" cm="1">
         <f t="array" ref="T3">_xlfn.REGEXEXTRACT(A3,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>528</v>
+        <v>263</v>
       </c>
       <c r="B4" s="3">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>529</v>
+        <v>335</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>44</v>
@@ -2466,28 +2463,28 @@
         <v>82</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>443</v>
+        <v>78</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>128</v>
+        <v>465</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>527</v>
+        <v>136</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>155</v>
@@ -2499,25 +2496,25 @@
         <v>7</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>530</v>
+        <v>466</v>
       </c>
       <c r="T4" s="3" t="str" cm="1">
         <f t="array" ref="T4">_xlfn.REGEXEXTRACT(A4,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="B5" s="3">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>398</v>
+        <v>201</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>44</v>
@@ -2526,34 +2523,34 @@
         <v>44</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>57</v>
@@ -2562,11 +2559,11 @@
         <v>7</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>129</v>
+        <v>217</v>
       </c>
       <c r="T5" s="3" t="str" cm="1">
         <f t="array" ref="T5">_xlfn.REGEXEXTRACT(A5,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2580,7 +2577,7 @@
         <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>44</v>
@@ -2598,7 +2595,7 @@
         <v>68</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>126</v>
@@ -2613,7 +2610,7 @@
         <v>219</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>94</v>
@@ -2625,25 +2622,25 @@
         <v>7</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="T6" s="3" t="str" cm="1">
         <f t="array" ref="T6">_xlfn.REGEXEXTRACT(A6,"(?&lt;=//)[^/]+")</f>
         <v>m.hqporner.com</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>201</v>
+        <v>398</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>44</v>
@@ -2652,34 +2649,34 @@
         <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>57</v>
@@ -2688,25 +2685,25 @@
         <v>7</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="T7" s="3" t="str" cm="1">
         <f t="array" ref="T7">_xlfn.REGEXEXTRACT(A7,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>263</v>
+        <v>527</v>
       </c>
       <c r="B8" s="3">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>308</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>44</v>
@@ -2718,28 +2715,28 @@
         <v>82</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>78</v>
+        <v>443</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>466</v>
+        <v>128</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>136</v>
+        <v>526</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>155</v>
@@ -2751,88 +2748,88 @@
         <v>7</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="T8" s="3" t="str" cm="1">
         <f t="array" ref="T8">_xlfn.REGEXEXTRACT(A8,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>m.hqporner.com</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>551</v>
+        <v>395</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>258</v>
+        <v>93</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="R9" s="3">
         <v>7</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="T9" s="3" t="str" cm="1">
         <f t="array" ref="T9">_xlfn.REGEXEXTRACT(A9,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>169</v>
+        <v>551</v>
       </c>
       <c r="B10" s="3">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>170</v>
+        <v>550</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>44</v>
@@ -2841,34 +2838,34 @@
         <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>120</v>
+        <v>552</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>84</v>
+        <v>340</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>175</v>
+        <v>553</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>174</v>
+        <v>554</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>172</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>57</v>
@@ -2877,25 +2874,25 @@
         <v>6</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>214</v>
+        <v>555</v>
       </c>
       <c r="T10" s="3" t="str" cm="1">
         <f t="array" ref="T10">_xlfn.REGEXEXTRACT(A10,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>594</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>595</v>
+        <v>369</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>44</v>
@@ -2910,28 +2907,28 @@
         <v>100</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>84</v>
+        <v>314</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>44</v>
+        <v>370</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>57</v>
@@ -2940,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>596</v>
+        <v>371</v>
       </c>
       <c r="T11" s="3" t="str" cm="1">
         <f t="array" ref="T11">_xlfn.REGEXEXTRACT(A11,"(?&lt;=//)[^/]+")</f>
@@ -2949,52 +2946,52 @@
     </row>
     <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>533</v>
+        <v>270</v>
       </c>
       <c r="B12" s="3">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>478</v>
+        <v>372</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>534</v>
+        <v>326</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>132</v>
+        <v>375</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>389</v>
+        <v>345</v>
+      </c>
+      <c r="P12" s="3">
+        <v>69</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>57</v>
@@ -3003,25 +3000,25 @@
         <v>6</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>535</v>
+        <v>374</v>
       </c>
       <c r="T12" s="3" t="str" cm="1">
         <f t="array" ref="T12">_xlfn.REGEXEXTRACT(A12,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>www.tnaflix.com</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>98</v>
+        <v>392</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>517</v>
+        <v>393</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>44</v>
@@ -3030,34 +3027,34 @@
         <v>44</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>419</v>
+        <v>84</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>451</v>
+        <v>110</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>501</v>
+        <v>415</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>520</v>
+        <v>66</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>522</v>
+        <v>73</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>95</v>
+        <v>389</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>519</v>
+        <v>133</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>573</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>57</v>
@@ -3066,25 +3063,25 @@
         <v>6</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>521</v>
+        <v>394</v>
       </c>
       <c r="T13" s="3" t="str" cm="1">
         <f t="array" ref="T13">_xlfn.REGEXEXTRACT(A13,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="B14" s="3">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>98</v>
+        <v>445</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>400</v>
+        <v>307</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>44</v>
@@ -3096,31 +3093,31 @@
         <v>82</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>101</v>
+        <v>443</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>102</v>
+        <v>314</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>103</v>
+        <v>524</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>66</v>
+        <v>444</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>94</v>
+        <v>441</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>104</v>
+        <v>345</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>57</v>
@@ -3129,61 +3126,61 @@
         <v>6</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>206</v>
+        <v>442</v>
       </c>
       <c r="T14" s="3" t="str" cm="1">
         <f t="array" ref="T14">_xlfn.REGEXEXTRACT(A14,"(?&lt;=//)[^/]+")</f>
-        <v>abxxx.com</v>
+        <v>m.hqporner.com</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>320</v>
+        <v>126</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>122</v>
+        <v>345</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>90</v>
+        <v>457</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>89</v>
+        <v>458</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>57</v>
@@ -3192,25 +3189,25 @@
         <v>6</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>205</v>
+        <v>525</v>
       </c>
       <c r="T15" s="3" t="str" cm="1">
         <f t="array" ref="T15">_xlfn.REGEXEXTRACT(A15,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>134</v>
+        <v>474</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -3219,34 +3216,34 @@
         <v>44</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>150</v>
+        <v>475</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>151</v>
+        <v>456</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>57</v>
@@ -3255,25 +3252,25 @@
         <v>6</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>211</v>
+        <v>476</v>
       </c>
       <c r="T16" s="3" t="str" cm="1">
         <f t="array" ref="T16">_xlfn.REGEXEXTRACT(A16,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>308</v>
+        <v>148</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>475</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>44</v>
@@ -3282,34 +3279,34 @@
         <v>44</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>476</v>
-      </c>
       <c r="K17" s="3" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>345</v>
+        <v>136</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>456</v>
+        <v>151</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>57</v>
@@ -3318,25 +3315,25 @@
         <v>6</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>477</v>
+        <v>211</v>
       </c>
       <c r="T17" s="3" t="str" cm="1">
         <f t="array" ref="T17">_xlfn.REGEXEXTRACT(A17,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B18" s="3">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>307</v>
+        <v>400</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>44</v>
@@ -3348,31 +3345,31 @@
         <v>82</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="J18" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>345</v>
+        <v>105</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>457</v>
+        <v>94</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>458</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>57</v>
@@ -3381,61 +3378,61 @@
         <v>6</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>526</v>
+        <v>206</v>
       </c>
       <c r="T18" s="3" t="str" cm="1">
         <f t="array" ref="T18">_xlfn.REGEXEXTRACT(A18,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>abxxx.com</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>307</v>
+        <v>401</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>409</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>66</v>
+        <v>320</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>443</v>
+        <v>92</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>314</v>
+        <v>88</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>444</v>
+        <v>91</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>441</v>
+        <v>90</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>345</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>57</v>
@@ -3444,25 +3441,25 @@
         <v>6</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>442</v>
+        <v>205</v>
       </c>
       <c r="T19" s="3" t="str" cm="1">
         <f t="array" ref="T19">_xlfn.REGEXEXTRACT(A19,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>392</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>393</v>
+        <v>516</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>44</v>
@@ -3471,34 +3468,34 @@
         <v>44</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>84</v>
+        <v>419</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>110</v>
+        <v>451</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>415</v>
+        <v>500</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>66</v>
+        <v>519</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>73</v>
+        <v>521</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>389</v>
+        <v>95</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>133</v>
+        <v>518</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>115</v>
+        <v>572</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>57</v>
@@ -3507,7 +3504,7 @@
         <v>6</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>394</v>
+        <v>520</v>
       </c>
       <c r="T20" s="3" t="str" cm="1">
         <f t="array" ref="T20">_xlfn.REGEXEXTRACT(A20,"(?&lt;=//)[^/]+")</f>
@@ -3516,52 +3513,52 @@
     </row>
     <row r="21" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>270</v>
+        <v>532</v>
       </c>
       <c r="B21" s="3">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>372</v>
+        <v>477</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>326</v>
+        <v>533</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>373</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>340</v>
+        <v>73</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>365</v>
+        <v>462</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="P21" s="3">
-        <v>69</v>
+        <v>93</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>57</v>
@@ -3570,25 +3567,25 @@
         <v>6</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>374</v>
+        <v>534</v>
       </c>
       <c r="T21" s="3" t="str" cm="1">
         <f t="array" ref="T21">_xlfn.REGEXEXTRACT(A21,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>593</v>
       </c>
       <c r="B22" s="3">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>369</v>
+        <v>594</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>44</v>
@@ -3603,28 +3600,28 @@
         <v>100</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>68</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>314</v>
+        <v>84</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>345</v>
+        <v>444</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>281</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>57</v>
@@ -3633,25 +3630,25 @@
         <v>6</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>371</v>
+        <v>595</v>
       </c>
       <c r="T22" s="3" t="str" cm="1">
         <f t="array" ref="T22">_xlfn.REGEXEXTRACT(A22,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>552</v>
+        <v>169</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>551</v>
+        <v>170</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>44</v>
@@ -3660,34 +3657,34 @@
         <v>44</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>553</v>
+        <v>120</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>340</v>
+        <v>84</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>554</v>
+        <v>175</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>555</v>
+        <v>174</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>366</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>57</v>
@@ -3696,25 +3693,25 @@
         <v>6</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>556</v>
+        <v>214</v>
       </c>
       <c r="T23" s="3" t="str" cm="1">
         <f t="array" ref="T23">_xlfn.REGEXEXTRACT(A23,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>www.pornhits.com</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>591</v>
+        <v>266</v>
       </c>
       <c r="B24" s="3">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>592</v>
+        <v>280</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>44</v>
@@ -3723,34 +3720,34 @@
         <v>44</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>463</v>
+        <v>69</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>531</v>
+        <v>193</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>57</v>
@@ -3759,25 +3756,25 @@
         <v>5</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>593</v>
+        <v>282</v>
       </c>
       <c r="T24" s="3" t="str" cm="1">
         <f t="array" ref="T24">_xlfn.REGEXEXTRACT(A24,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>txxx.com</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>581</v>
+        <v>276</v>
       </c>
       <c r="B25" s="3">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>582</v>
+        <v>285</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>44</v>
@@ -3789,31 +3786,31 @@
         <v>82</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>451</v>
+        <v>220</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>68</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>501</v>
+        <v>287</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>323</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>57</v>
@@ -3822,61 +3819,61 @@
         <v>5</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>583</v>
+        <v>522</v>
       </c>
       <c r="T25" s="3" t="str" cm="1">
         <f t="array" ref="T25">_xlfn.REGEXEXTRACT(A25,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>578</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>478</v>
+        <v>114</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>579</v>
+        <v>399</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>408</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="K26" s="3" t="s">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>444</v>
+        <v>75</v>
+      </c>
+      <c r="P26" s="3">
+        <v>69</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>57</v>
@@ -3885,58 +3882,58 @@
         <v>5</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>580</v>
+        <v>208</v>
       </c>
       <c r="T26" s="3" t="str" cm="1">
         <f t="array" ref="T26">_xlfn.REGEXEXTRACT(A26,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B27" s="3">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>44</v>
@@ -3948,7 +3945,7 @@
         <v>5</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="T27" s="3" t="str" cm="1">
         <f t="array" ref="T27">_xlfn.REGEXEXTRACT(A27,"(?&lt;=//)[^/]+")</f>
@@ -3957,52 +3954,52 @@
     </row>
     <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>157</v>
+        <v>356</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>403</v>
+        <v>326</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>167</v>
+        <v>358</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>57</v>
@@ -4011,61 +4008,61 @@
         <v>5</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>213</v>
+        <v>357</v>
       </c>
       <c r="T28" s="3" t="str" cm="1">
         <f t="array" ref="T28">_xlfn.REGEXEXTRACT(A28,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>tube.perverzija.com</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>98</v>
+        <v>376</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>436</v>
+        <v>162</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>507</v>
+        <v>358</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>509</v>
+        <v>287</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>128</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>510</v>
+        <v>44</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>506</v>
+        <v>197</v>
+      </c>
+      <c r="O29" s="3">
+        <v>69</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>69</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>57</v>
@@ -4074,61 +4071,61 @@
         <v>5</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>508</v>
+        <v>379</v>
       </c>
       <c r="T29" s="3" t="str" cm="1">
         <f t="array" ref="T29">_xlfn.REGEXEXTRACT(A29,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="B30" s="3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>283</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>388</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>512</v>
+        <v>71</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>84</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>513</v>
+        <v>101</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>476</v>
+        <v>120</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>514</v>
+        <v>389</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>515</v>
+        <v>115</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>57</v>
@@ -4137,25 +4134,25 @@
         <v>5</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>516</v>
+        <v>390</v>
       </c>
       <c r="T30" s="3" t="str" cm="1">
         <f t="array" ref="T30">_xlfn.REGEXEXTRACT(A30,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>44</v>
@@ -4167,31 +4164,31 @@
         <v>82</v>
       </c>
       <c r="H31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="L31" s="3" t="s">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>527</v>
+        <v>121</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>444</v>
+        <v>155</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>483</v>
+        <v>44</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>57</v>
@@ -4200,7 +4197,7 @@
         <v>5</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="T31" s="3" t="str" cm="1">
         <f t="array" ref="T31">_xlfn.REGEXEXTRACT(A31,"(?&lt;=//)[^/]+")</f>
@@ -4215,7 +4212,7 @@
         <v>50</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>398</v>
@@ -4248,7 +4245,7 @@
         <v>419</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>389</v>
@@ -4263,7 +4260,7 @@
         <v>5</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="T32" s="3" t="str" cm="1">
         <f t="array" ref="T32">_xlfn.REGEXEXTRACT(A32,"(?&lt;=//)[^/]+")</f>
@@ -4272,16 +4269,16 @@
     </row>
     <row r="33" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33" s="3">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>44</v>
@@ -4293,31 +4290,31 @@
         <v>82</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>68</v>
+        <v>314</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>121</v>
+        <v>526</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>155</v>
+        <v>444</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>44</v>
+        <v>482</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>57</v>
@@ -4326,7 +4323,7 @@
         <v>5</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="T33" s="3" t="str" cm="1">
         <f t="array" ref="T33">_xlfn.REGEXEXTRACT(A33,"(?&lt;=//)[^/]+")</f>
@@ -4335,19 +4332,19 @@
     </row>
     <row r="34" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B34" s="3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>378</v>
+        <v>44</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>44</v>
@@ -4356,31 +4353,31 @@
         <v>82</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>71</v>
+        <v>436</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>101</v>
+        <v>506</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>68</v>
+        <v>508</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>391</v>
+        <v>509</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>389</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>57</v>
@@ -4389,61 +4386,61 @@
         <v>5</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>390</v>
+        <v>507</v>
       </c>
       <c r="T34" s="3" t="str" cm="1">
         <f t="array" ref="T34">_xlfn.REGEXEXTRACT(A34,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B35" s="3">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>376</v>
+        <v>283</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>377</v>
+        <v>44</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>162</v>
+        <v>511</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>358</v>
+        <v>512</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>287</v>
+        <v>119</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>128</v>
+        <v>475</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>44</v>
+        <v>434</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="O35" s="3">
-        <v>69</v>
+        <v>513</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>323</v>
+        <v>514</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>57</v>
@@ -4452,7 +4449,7 @@
         <v>5</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>379</v>
+        <v>515</v>
       </c>
       <c r="T35" s="3" t="str" cm="1">
         <f t="array" ref="T35">_xlfn.REGEXEXTRACT(A35,"(?&lt;=//)[^/]+")</f>
@@ -4461,52 +4458,52 @@
     </row>
     <row r="36" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>356</v>
+        <v>157</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>326</v>
+        <v>403</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>358</v>
+        <v>167</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>323</v>
+        <v>133</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>57</v>
@@ -4515,58 +4512,58 @@
         <v>5</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>357</v>
+        <v>213</v>
       </c>
       <c r="T36" s="3" t="str" cm="1">
         <f t="array" ref="T36">_xlfn.REGEXEXTRACT(A36,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>44</v>
@@ -4578,7 +4575,7 @@
         <v>5</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="T37" s="3" t="str" cm="1">
         <f t="array" ref="T37">_xlfn.REGEXEXTRACT(A37,"(?&lt;=//)[^/]+")</f>
@@ -4587,52 +4584,52 @@
     </row>
     <row r="38" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>577</v>
       </c>
       <c r="B38" s="3">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>114</v>
+        <v>477</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>399</v>
+        <v>578</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>408</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>72</v>
+        <v>429</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>429</v>
+        <v>119</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P38" s="3">
-        <v>69</v>
+        <v>530</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>57</v>
@@ -4641,25 +4638,25 @@
         <v>5</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>208</v>
+        <v>579</v>
       </c>
       <c r="T38" s="3" t="str" cm="1">
         <f t="array" ref="T38">_xlfn.REGEXEXTRACT(A38,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>276</v>
+        <v>580</v>
       </c>
       <c r="B39" s="3">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>284</v>
+        <v>115</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>285</v>
+        <v>581</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>44</v>
@@ -4671,31 +4668,31 @@
         <v>82</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>220</v>
+        <v>451</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>68</v>
       </c>
       <c r="K39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="M39" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="N39" s="3" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="Q39" s="3" t="s">
         <v>57</v>
@@ -4704,25 +4701,25 @@
         <v>5</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="T39" s="3" t="str" cm="1">
         <f t="array" ref="T39">_xlfn.REGEXEXTRACT(A39,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>266</v>
+        <v>590</v>
       </c>
       <c r="B40" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>279</v>
+        <v>115</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>280</v>
+        <v>591</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>44</v>
@@ -4731,34 +4728,34 @@
         <v>44</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="N40" s="3" t="s">
-        <v>69</v>
+        <v>462</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>193</v>
+        <v>530</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>57</v>
@@ -4767,45 +4764,45 @@
         <v>5</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>282</v>
+        <v>592</v>
       </c>
       <c r="T40" s="3" t="str" cm="1">
         <f t="array" ref="T40">_xlfn.REGEXEXTRACT(A40,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>228</v>
+        <v>567</v>
       </c>
       <c r="B41" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>225</v>
+        <v>550</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>406</v>
+        <v>557</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>229</v>
+        <v>568</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L41" s="3" t="s">
@@ -4815,13 +4812,13 @@
         <v>44</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>57</v>
@@ -4830,25 +4827,25 @@
         <v>4</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>230</v>
+        <v>569</v>
       </c>
       <c r="T41" s="3" t="str" cm="1">
         <f t="array" ref="T41">_xlfn.REGEXEXTRACT(A41,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>netfapx.net</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>570</v>
       </c>
       <c r="B42" s="3">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>157</v>
+        <v>550</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>158</v>
+        <v>557</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>44</v>
@@ -4857,34 +4854,34 @@
         <v>44</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>160</v>
+        <v>568</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>152</v>
+        <v>568</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>57</v>
@@ -4893,61 +4890,61 @@
         <v>4</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>164</v>
+        <v>571</v>
       </c>
       <c r="T42" s="3" t="str" cm="1">
         <f t="array" ref="T42">_xlfn.REGEXEXTRACT(A42,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>pornzog</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>574</v>
+        <v>0</v>
       </c>
       <c r="B43" s="3">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>279</v>
+        <v>396</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>575</v>
+        <v>285</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>576</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>68</v>
+        <v>340</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>476</v>
+        <v>44</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="O43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P43" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>57</v>
@@ -4956,61 +4953,61 @@
         <v>4</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>577</v>
+        <v>288</v>
       </c>
       <c r="T43" s="3" t="str" cm="1">
         <f t="array" ref="T43">_xlfn.REGEXEXTRACT(A43,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>xhamster18.desi</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="B44" s="3">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>226</v>
+        <v>297</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>404</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>85</v>
+        <v>340</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>94</v>
+        <v>44</v>
+      </c>
+      <c r="N44" s="3">
+        <v>69</v>
+      </c>
+      <c r="O44" s="3">
+        <v>619</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>95</v>
+        <v>365</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>57</v>
@@ -5019,61 +5016,61 @@
         <v>4</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>97</v>
+        <v>298</v>
       </c>
       <c r="T44" s="3" t="str" cm="1">
         <f t="array" ref="T44">_xlfn.REGEXEXTRACT(A44,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>www.porndead.org</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>544</v>
+        <v>4</v>
       </c>
       <c r="B45" s="3">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>545</v>
+        <v>306</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>546</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>547</v>
+        <v>340</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>548</v>
+        <v>128</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>100</v>
+        <v>309</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>549</v>
+        <v>44</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>95</v>
+        <v>384</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>323</v>
+        <v>44</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>531</v>
+        <v>44</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>57</v>
@@ -5082,25 +5079,25 @@
         <v>4</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="T45" s="3" t="str" cm="1">
         <f t="array" ref="T45">_xlfn.REGEXEXTRACT(A45,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="B46" s="3">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>44</v>
@@ -5112,28 +5109,28 @@
         <v>82</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>415</v>
+        <v>101</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>115</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>117</v>
+        <v>311</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>44</v>
@@ -5145,61 +5142,61 @@
         <v>4</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>118</v>
+        <v>312</v>
       </c>
       <c r="T46" s="3" t="str" cm="1">
         <f t="array" ref="T46">_xlfn.REGEXEXTRACT(A46,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="B47" s="3">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>392</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>180</v>
+        <v>398</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>498</v>
+        <v>116</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>349</v>
+        <v>101</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>499</v>
+        <v>78</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>101</v>
+        <v>340</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>486</v>
+        <v>66</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="N47" s="3">
-        <v>69</v>
+        <v>434</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>502</v>
+        <v>44</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>57</v>
@@ -5208,25 +5205,25 @@
         <v>4</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="T47" s="3" t="str" cm="1">
         <f t="array" ref="T47">_xlfn.REGEXEXTRACT(A47,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="B48" s="3">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>115</v>
+        <v>341</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>497</v>
+        <v>342</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>44</v>
@@ -5235,61 +5232,61 @@
         <v>44</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>314</v>
+        <v>67</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>353</v>
+        <v>128</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>436</v>
+        <v>257</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>66</v>
+        <v>347</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>503</v>
+        <v>155</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>504</v>
+        <v>44</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="R48" s="3">
         <v>4</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>505</v>
+        <v>346</v>
       </c>
       <c r="T48" s="3" t="str" cm="1">
         <f t="array" ref="T48">_xlfn.REGEXEXTRACT(A48,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>txxx.me</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B49" s="3">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>308</v>
+        <v>130</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>44</v>
@@ -5301,31 +5298,31 @@
         <v>82</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>489</v>
+        <v>68</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>66</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>488</v>
+        <v>133</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>57</v>
@@ -5334,25 +5331,25 @@
         <v>4</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>490</v>
+        <v>278</v>
       </c>
       <c r="T49" s="3" t="str" cm="1">
         <f t="array" ref="T49">_xlfn.REGEXEXTRACT(A49,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.party</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="B50" s="3">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>114</v>
+        <v>322</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>448</v>
+        <v>359</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>44</v>
@@ -5361,34 +5358,34 @@
         <v>44</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>73</v>
+        <v>362</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>415</v>
+        <v>340</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>450</v>
+        <v>287</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>451</v>
+        <v>44</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>449</v>
+        <v>94</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>57</v>
@@ -5397,25 +5394,25 @@
         <v>4</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>452</v>
+        <v>360</v>
       </c>
       <c r="T50" s="3" t="str" cm="1">
         <f t="array" ref="T50">_xlfn.REGEXEXTRACT(A50,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="B51" s="3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>44</v>
@@ -5427,31 +5424,31 @@
         <v>82</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>436</v>
+        <v>73</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>439</v>
+        <v>44</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>155</v>
+        <v>383</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>115</v>
+        <v>381</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>57</v>
@@ -5460,11 +5457,11 @@
         <v>4</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="T51" s="3" t="str" cm="1">
         <f t="array" ref="T51">_xlfn.REGEXEXTRACT(A51,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -5593,18 +5590,18 @@
         <v>txxx.com</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="B54" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>44</v>
@@ -5616,31 +5613,31 @@
         <v>82</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>73</v>
+        <v>436</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="J54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="L54" s="3" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>44</v>
+        <v>439</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>383</v>
+        <v>155</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>44</v>
+        <v>438</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>57</v>
@@ -5649,25 +5646,25 @@
         <v>4</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="T54" s="3" t="str" cm="1">
         <f t="array" ref="T54">_xlfn.REGEXEXTRACT(A54,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B55" s="3">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>180</v>
+        <v>448</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>44</v>
@@ -5679,28 +5676,28 @@
         <v>82</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>101</v>
+        <v>416</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>68</v>
+        <v>450</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>66</v>
+        <v>451</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>44</v>
+        <v>437</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>131</v>
+        <v>449</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>44</v>
@@ -5712,25 +5709,25 @@
         <v>4</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="T55" s="3" t="str" cm="1">
         <f t="array" ref="T55">_xlfn.REGEXEXTRACT(A55,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="B56" s="3">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>44</v>
@@ -5739,34 +5736,34 @@
         <v>44</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>362</v>
+        <v>287</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>340</v>
+        <v>101</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>287</v>
+        <v>488</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>95</v>
+        <v>487</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>338</v>
+        <v>155</v>
       </c>
       <c r="Q56" s="3" t="s">
         <v>57</v>
@@ -5775,25 +5772,25 @@
         <v>4</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>360</v>
+        <v>489</v>
       </c>
       <c r="T56" s="3" t="str" cm="1">
         <f t="array" ref="T56">_xlfn.REGEXEXTRACT(A56,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>spankbang.party</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="B57" s="3">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>342</v>
+        <v>180</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>44</v>
@@ -5802,64 +5799,64 @@
         <v>44</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>67</v>
+        <v>497</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>128</v>
+        <v>498</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>347</v>
+        <v>485</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>155</v>
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
+        <v>69</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>44</v>
+        <v>501</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="R57" s="3">
         <v>4</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>346</v>
+        <v>499</v>
       </c>
       <c r="T57" s="3" t="str" cm="1">
         <f t="array" ref="T57">_xlfn.REGEXEXTRACT(A57,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.me</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="B58" s="3">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>398</v>
+        <v>496</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>44</v>
@@ -5868,31 +5865,31 @@
         <v>82</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>116</v>
+        <v>314</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>66</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>434</v>
+        <v>120</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>193</v>
+        <v>502</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>95</v>
+        <v>503</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>57</v>
@@ -5901,25 +5898,25 @@
         <v>4</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
       <c r="T58" s="3" t="str" cm="1">
         <f t="array" ref="T58">_xlfn.REGEXEXTRACT(A58,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="B59" s="3">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>308</v>
+        <v>114</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>44</v>
@@ -5931,28 +5928,28 @@
         <v>82</v>
       </c>
       <c r="H59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K59" s="3" t="s">
+      <c r="L59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>115</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>311</v>
+        <v>117</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>44</v>
@@ -5964,61 +5961,61 @@
         <v>4</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>312</v>
+        <v>118</v>
       </c>
       <c r="T59" s="3" t="str" cm="1">
         <f t="array" ref="T59">_xlfn.REGEXEXTRACT(A59,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>4</v>
+        <v>543</v>
       </c>
       <c r="B60" s="3">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>308</v>
+        <v>98</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>306</v>
+        <v>544</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>44</v>
+        <v>545</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>340</v>
+        <v>546</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>128</v>
+        <v>547</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>309</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>44</v>
+        <v>548</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>384</v>
+        <v>95</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>44</v>
+        <v>530</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>57</v>
@@ -6027,61 +6024,61 @@
         <v>4</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>310</v>
+        <v>549</v>
       </c>
       <c r="T60" s="3" t="str" cm="1">
         <f t="array" ref="T60">_xlfn.REGEXEXTRACT(A60,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>274</v>
+        <v>17</v>
       </c>
       <c r="B61" s="3">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>134</v>
+        <v>404</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>328</v>
+        <v>83</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>340</v>
-      </c>
       <c r="K61" s="3" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N61" s="3">
-        <v>69</v>
-      </c>
-      <c r="O61" s="3">
-        <v>619</v>
+        <v>91</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>365</v>
+        <v>95</v>
       </c>
       <c r="Q61" s="3" t="s">
         <v>57</v>
@@ -6090,61 +6087,61 @@
         <v>4</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>298</v>
+        <v>97</v>
       </c>
       <c r="T61" s="3" t="str" cm="1">
         <f t="array" ref="T61">_xlfn.REGEXEXTRACT(A61,"(?&lt;=//)[^/]+")</f>
-        <v>www.porndead.org</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="B62" s="3">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>396</v>
+        <v>279</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>285</v>
+        <v>574</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>575</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>340</v>
+        <v>68</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>44</v>
+        <v>475</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>289</v>
+        <v>155</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>94</v>
+        <v>530</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>57</v>
@@ -6153,25 +6150,25 @@
         <v>4</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>288</v>
+        <v>576</v>
       </c>
       <c r="T62" s="3" t="str" cm="1">
         <f t="array" ref="T62">_xlfn.REGEXEXTRACT(A62,"(?&lt;=//)[^/]+")</f>
-        <v>xhamster18.desi</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>568</v>
+        <v>36</v>
       </c>
       <c r="B63" s="3">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>551</v>
+        <v>157</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>558</v>
+        <v>158</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>44</v>
@@ -6180,34 +6177,34 @@
         <v>44</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>569</v>
+        <v>160</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M63" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>569</v>
+        <v>152</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Q63" s="3" t="s">
         <v>57</v>
@@ -6216,45 +6213,45 @@
         <v>4</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>570</v>
+        <v>164</v>
       </c>
       <c r="T63" s="3" t="str" cm="1">
         <f t="array" ref="T63">_xlfn.REGEXEXTRACT(A63,"(?&lt;=//)[^/]+")</f>
-        <v>netfapx.net</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>571</v>
+        <v>228</v>
       </c>
       <c r="B64" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>551</v>
+        <v>225</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>558</v>
+        <v>406</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>328</v>
+        <v>83</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>569</v>
+        <v>229</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K64" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>44</v>
       </c>
       <c r="L64" s="3" t="s">
@@ -6264,13 +6261,13 @@
         <v>44</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Q64" s="3" t="s">
         <v>57</v>
@@ -6279,25 +6276,25 @@
         <v>4</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>572</v>
+        <v>230</v>
       </c>
       <c r="T64" s="3" t="str" cm="1">
         <f t="array" ref="T64">_xlfn.REGEXEXTRACT(A64,"(?&lt;=//)[^/]+")</f>
-        <v>pornzog</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>24</v>
+        <v>561</v>
       </c>
       <c r="B65" s="3">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>227</v>
+        <v>550</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>44</v>
@@ -6309,31 +6306,31 @@
         <v>82</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>106</v>
+        <v>562</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>112</v>
+        <v>559</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>111</v>
+        <v>389</v>
       </c>
       <c r="Q65" s="3" t="s">
         <v>57</v>
@@ -6342,22 +6339,22 @@
         <v>3</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>207</v>
+        <v>563</v>
       </c>
       <c r="T65" s="3" t="str" cm="1">
         <f t="array" ref="T65">_xlfn.REGEXEXTRACT(A65,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>curebdsm.com</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>271</v>
+        <v>564</v>
       </c>
       <c r="B66" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>98</v>
+        <v>550</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>352</v>
@@ -6372,31 +6369,31 @@
         <v>82</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>314</v>
+        <v>562</v>
       </c>
       <c r="I66" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="M66" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>155</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>44</v>
+        <v>505</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>57</v>
@@ -6405,58 +6402,58 @@
         <v>3</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="T66" s="3" t="str" cm="1">
         <f t="array" ref="T66">_xlfn.REGEXEXTRACT(A66,"(?&lt;=//)[^/]+")</f>
         <v>curebdsm.com</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B67" s="3">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>411</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="J67" s="3" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>44</v>
@@ -6468,25 +6465,25 @@
         <v>3</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="T67" s="3" t="str" cm="1">
         <f t="array" ref="T67">_xlfn.REGEXEXTRACT(A67,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>anyporn.com</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>491</v>
+        <v>272</v>
       </c>
       <c r="B68" s="3">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>492</v>
+        <v>291</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>44</v>
@@ -6495,34 +6492,34 @@
         <v>44</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>493</v>
+        <v>67</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>494</v>
+        <v>340</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>476</v>
+        <v>294</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>496</v>
+        <v>295</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>155</v>
+        <v>292</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>94</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="Q68" s="3" t="s">
         <v>57</v>
@@ -6531,25 +6528,25 @@
         <v>3</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>495</v>
+        <v>296</v>
       </c>
       <c r="T68" s="3" t="str" cm="1">
         <f t="array" ref="T68">_xlfn.REGEXEXTRACT(A68,"(?&lt;=//)[^/]+")</f>
-        <v>pervtube.net</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>www.tnaflix.com</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="B69" s="3">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>157</v>
+        <v>308</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>44</v>
@@ -6558,31 +6555,31 @@
         <v>44</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="H69" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>493</v>
+      <c r="J69" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>179</v>
+        <v>314</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>44</v>
@@ -6594,61 +6591,61 @@
         <v>3</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="T69" s="3" t="str" cm="1">
         <f t="array" ref="T69">_xlfn.REGEXEXTRACT(A69,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="B70" s="3">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>279</v>
+        <v>192</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>446</v>
+        <v>190</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>423</v>
+        <v>220</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>451</v>
+        <v>44</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>57</v>
@@ -6657,7 +6654,7 @@
         <v>3</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>447</v>
+        <v>222</v>
       </c>
       <c r="T70" s="3" t="str" cm="1">
         <f t="array" ref="T70">_xlfn.REGEXEXTRACT(A70,"(?&lt;=//)[^/]+")</f>
@@ -6666,52 +6663,52 @@
     </row>
     <row r="71" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
       <c r="B71" s="3">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>459</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>343</v>
+        <v>120</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>462</v>
+        <v>301</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="N71" s="3">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="Q71" s="3" t="s">
         <v>57</v>
@@ -6720,25 +6717,25 @@
         <v>3</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>461</v>
+        <v>319</v>
       </c>
       <c r="T71" s="3" t="str" cm="1">
         <f t="array" ref="T71">_xlfn.REGEXEXTRACT(A71,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="B72" s="3">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>170</v>
+        <v>322</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>44</v>
@@ -6747,19 +6744,19 @@
         <v>44</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>140</v>
+        <v>287</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>44</v>
@@ -6768,76 +6765,76 @@
         <v>44</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="R72" s="3">
         <v>3</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="T72" s="3" t="str" cm="1">
         <f t="array" ref="T72">_xlfn.REGEXEXTRACT(A72,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>www.pornhub.com</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="B73" s="3">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>423</v>
+        <v>84</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>340</v>
+        <v>128</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="O73" s="3" t="s">
-        <v>74</v>
+        <v>162</v>
+      </c>
+      <c r="O73" s="3">
+        <v>69</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>366</v>
+        <v>104</v>
       </c>
       <c r="Q73" s="3" t="s">
         <v>57</v>
@@ -6846,25 +6843,25 @@
         <v>3</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>424</v>
+        <v>330</v>
       </c>
       <c r="T73" s="3" t="str" cm="1">
         <f t="array" ref="T73">_xlfn.REGEXEXTRACT(A73,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>tube.perverzija.com</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B74" s="3">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>134</v>
+        <v>335</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>44</v>
@@ -6873,19 +6870,19 @@
         <v>44</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>304</v>
+        <v>67</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>85</v>
+        <v>340</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>44</v>
@@ -6894,13 +6891,13 @@
         <v>44</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>383</v>
+        <v>155</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>95</v>
+        <v>338</v>
       </c>
       <c r="Q74" s="3" t="s">
         <v>57</v>
@@ -6909,46 +6906,46 @@
         <v>3</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="T74" s="3" t="str" cm="1">
         <f t="array" ref="T74">_xlfn.REGEXEXTRACT(A74,"(?&lt;=//)[^/]+")</f>
         <v>www.pornhub.com</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="B75" s="3">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>363</v>
+        <v>192</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>364</v>
+        <v>192</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>328</v>
+        <v>83</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>87</v>
+        <v>348</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>231</v>
+        <v>349</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>44</v>
@@ -6957,13 +6954,13 @@
         <v>44</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>366</v>
+        <v>155</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>345</v>
+        <v>162</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="Q75" s="3" t="s">
         <v>57</v>
@@ -6972,46 +6969,46 @@
         <v>3</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="T75" s="3" t="str" cm="1">
         <f t="array" ref="T75">_xlfn.REGEXEXTRACT(A75,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="B76" s="3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>192</v>
+        <v>363</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>192</v>
+        <v>364</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>348</v>
+        <v>87</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>44</v>
@@ -7020,13 +7017,13 @@
         <v>44</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>155</v>
+        <v>366</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>44</v>
+        <v>323</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>57</v>
@@ -7035,61 +7032,61 @@
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="T76" s="3" t="str" cm="1">
         <f t="array" ref="T76">_xlfn.REGEXEXTRACT(A76,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="3">
         <v>42</v>
       </c>
-      <c r="B77" s="3">
-        <v>30</v>
-      </c>
       <c r="C77" s="3" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>326</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="I77" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="K77" s="3" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="M77" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O77" s="3">
-        <v>69</v>
+        <v>383</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="Q77" s="3" t="s">
         <v>57</v>
@@ -7098,25 +7095,25 @@
         <v>3</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="T77" s="3" t="str" cm="1">
         <f t="array" ref="T77">_xlfn.REGEXEXTRACT(A77,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="B78" s="3">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>334</v>
+        <v>170</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>335</v>
+        <v>186</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>44</v>
@@ -7125,19 +7122,19 @@
         <v>44</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>337</v>
+        <v>196</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>340</v>
+        <v>140</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>339</v>
+        <v>199</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>44</v>
@@ -7146,40 +7143,40 @@
         <v>44</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="R78" s="3">
         <v>3</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="T78" s="3" t="str" cm="1">
         <f t="array" ref="T78">_xlfn.REGEXEXTRACT(A78,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="B79" s="3">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>322</v>
+        <v>422</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>335</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>44</v>
@@ -7191,16 +7188,16 @@
         <v>328</v>
       </c>
       <c r="H79" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>44</v>
@@ -7212,10 +7209,10 @@
         <v>292</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="Q79" s="3" t="s">
         <v>57</v>
@@ -7224,25 +7221,25 @@
         <v>3</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>324</v>
+        <v>424</v>
       </c>
       <c r="T79" s="3" t="str" cm="1">
         <f t="array" ref="T79">_xlfn.REGEXEXTRACT(A79,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>249</v>
+        <v>19</v>
       </c>
       <c r="B80" s="3">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>44</v>
@@ -7254,31 +7251,31 @@
         <v>82</v>
       </c>
       <c r="H80" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="K80" s="3" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>44</v>
+        <v>451</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>318</v>
+        <v>94</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Q80" s="3" t="s">
         <v>57</v>
@@ -7287,7 +7284,7 @@
         <v>3</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
       <c r="T80" s="3" t="str" cm="1">
         <f t="array" ref="T80">_xlfn.REGEXEXTRACT(A80,"(?&lt;=//)[^/]+")</f>
@@ -7296,52 +7293,52 @@
     </row>
     <row r="81" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="B81" s="3">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>190</v>
+        <v>326</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>191</v>
+        <v>459</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>220</v>
+        <v>343</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>221</v>
+        <v>461</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>219</v>
+        <v>287</v>
+      </c>
+      <c r="N81" s="3">
+        <v>69</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>57</v>
@@ -7350,25 +7347,25 @@
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>222</v>
+        <v>460</v>
       </c>
       <c r="T81" s="3" t="str" cm="1">
         <f t="array" ref="T81">_xlfn.REGEXEXTRACT(A81,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="B82" s="3">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>313</v>
+        <v>177</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>44</v>
@@ -7377,31 +7374,31 @@
         <v>44</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>101</v>
+        <v>178</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>314</v>
+        <v>179</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>44</v>
@@ -7413,25 +7410,25 @@
         <v>3</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="T82" s="3" t="str" cm="1">
         <f t="array" ref="T82">_xlfn.REGEXEXTRACT(A82,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>www.pornhits.com</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
       <c r="B83" s="3">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>291</v>
+        <v>491</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>44</v>
@@ -7440,34 +7437,34 @@
         <v>44</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>340</v>
+        <v>493</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>294</v>
+        <v>475</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>295</v>
+        <v>495</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>94</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>57</v>
@@ -7476,58 +7473,58 @@
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>296</v>
+        <v>494</v>
       </c>
       <c r="T83" s="3" t="str" cm="1">
         <f t="array" ref="T83">_xlfn.REGEXEXTRACT(A83,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>pervtube.net</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B84" s="3">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>44</v>
@@ -7539,25 +7536,25 @@
         <v>3</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="T84" s="3" t="str" cm="1">
         <f t="array" ref="T84">_xlfn.REGEXEXTRACT(A84,"(?&lt;=//)[^/]+")</f>
-        <v>anyporn.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>562</v>
+        <v>271</v>
       </c>
       <c r="B85" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>551</v>
+        <v>98</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>44</v>
@@ -7569,31 +7566,31 @@
         <v>82</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>563</v>
+        <v>314</v>
       </c>
       <c r="I85" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="L85" s="3" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>560</v>
+        <v>44</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="Q85" s="3" t="s">
         <v>57</v>
@@ -7602,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>564</v>
+        <v>510</v>
       </c>
       <c r="T85" s="3" t="str" cm="1">
         <f t="array" ref="T85">_xlfn.REGEXEXTRACT(A85,"(?&lt;=//)[^/]+")</f>
@@ -7611,16 +7608,16 @@
     </row>
     <row r="86" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>565</v>
+        <v>24</v>
       </c>
       <c r="B86" s="3">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>551</v>
+        <v>227</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>44</v>
@@ -7632,31 +7629,31 @@
         <v>82</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>563</v>
+        <v>106</v>
       </c>
       <c r="I86" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J86" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J86" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="K86" s="3" t="s">
-        <v>566</v>
+        <v>109</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>506</v>
+        <v>438</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="Q86" s="3" t="s">
         <v>57</v>
@@ -7665,25 +7662,25 @@
         <v>3</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>567</v>
+        <v>207</v>
       </c>
       <c r="T86" s="3" t="str" cm="1">
         <f t="array" ref="T86">_xlfn.REGEXEXTRACT(A86,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>584</v>
+        <v>232</v>
       </c>
       <c r="B87" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>585</v>
+        <v>233</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>586</v>
+        <v>234</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>44</v>
@@ -7692,34 +7689,34 @@
         <v>44</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>587</v>
+        <v>236</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>588</v>
+        <v>237</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>589</v>
+        <v>44</v>
       </c>
       <c r="Q87" s="3" t="s">
         <v>57</v>
@@ -7728,61 +7725,61 @@
         <v>2</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>590</v>
+        <v>238</v>
       </c>
       <c r="T87" s="3" t="str" cm="1">
         <f t="array" ref="T87">_xlfn.REGEXEXTRACT(A87,"(?&lt;=//)[^/]+")</f>
-        <v>www.peekvids.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>536</v>
+        <v>241</v>
       </c>
       <c r="B88" s="3">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>537</v>
+        <v>283</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>538</v>
+        <v>242</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>389</v>
+        <v>245</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>366</v>
+        <v>155</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>531</v>
+        <v>44</v>
       </c>
       <c r="Q88" s="3" t="s">
         <v>57</v>
@@ -7791,28 +7788,28 @@
         <v>2</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>539</v>
+        <v>246</v>
       </c>
       <c r="T88" s="3" t="str" cm="1">
         <f t="array" ref="T88">_xlfn.REGEXEXTRACT(A88,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>540</v>
+        <v>277</v>
       </c>
       <c r="B89" s="3">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>445</v>
+        <v>192</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>406</v>
+        <v>192</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>541</v>
+        <v>191</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>44</v>
@@ -7821,16 +7818,16 @@
         <v>83</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>429</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>96</v>
+        <v>316</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>44</v>
@@ -7839,13 +7836,13 @@
         <v>44</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>542</v>
+        <v>155</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>345</v>
+        <v>44</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>57</v>
@@ -7854,61 +7851,61 @@
         <v>2</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>543</v>
+        <v>317</v>
       </c>
       <c r="T89" s="3" t="str" cm="1">
         <f t="array" ref="T89">_xlfn.REGEXEXTRACT(A89,"(?&lt;=//)[^/]+")</f>
-        <v>www.omg.xxx</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B90" s="3">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>468</v>
+        <v>352</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>469</v>
+        <v>44</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>470</v>
+        <v>353</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>85</v>
+        <v>340</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>473</v>
+        <v>44</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>93</v>
+        <v>523</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="Q90" s="3" t="s">
         <v>57</v>
@@ -7917,11 +7914,11 @@
         <v>2</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>471</v>
+        <v>354</v>
       </c>
       <c r="T90" s="3" t="str" cm="1">
         <f t="array" ref="T90">_xlfn.REGEXEXTRACT(A90,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -7987,54 +7984,54 @@
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B92" s="3">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>352</v>
+        <v>467</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>44</v>
+        <v>468</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>353</v>
+        <v>469</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>340</v>
+        <v>85</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>44</v>
+        <v>471</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>44</v>
+        <v>472</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>524</v>
+        <v>93</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Q92" s="3" t="s">
         <v>57</v>
@@ -8043,61 +8040,61 @@
         <v>2</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>354</v>
+        <v>470</v>
       </c>
       <c r="T92" s="3" t="str" cm="1">
         <f t="array" ref="T92">_xlfn.REGEXEXTRACT(A92,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>277</v>
+        <v>535</v>
       </c>
       <c r="B93" s="3">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>192</v>
+        <v>536</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>192</v>
+        <v>537</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>316</v>
+        <v>113</v>
       </c>
       <c r="J93" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K93" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K93" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="L93" s="3" t="s">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>155</v>
+        <v>389</v>
       </c>
       <c r="O93" s="3" t="s">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>44</v>
+        <v>530</v>
       </c>
       <c r="Q93" s="3" t="s">
         <v>57</v>
@@ -8106,7 +8103,7 @@
         <v>2</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>317</v>
+        <v>538</v>
       </c>
       <c r="T93" s="3" t="str" cm="1">
         <f t="array" ref="T93">_xlfn.REGEXEXTRACT(A93,"(?&lt;=//)[^/]+")</f>
@@ -8115,37 +8112,37 @@
     </row>
     <row r="94" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>241</v>
+        <v>539</v>
       </c>
       <c r="B94" s="3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>283</v>
+        <v>445</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>242</v>
+        <v>406</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>243</v>
+        <v>540</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>71</v>
+        <v>429</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>44</v>
@@ -8154,13 +8151,13 @@
         <v>44</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>245</v>
+        <v>541</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>57</v>
@@ -8169,25 +8166,25 @@
         <v>2</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>246</v>
+        <v>542</v>
       </c>
       <c r="T94" s="3" t="str" cm="1">
         <f t="array" ref="T94">_xlfn.REGEXEXTRACT(A94,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>www.omg.xxx</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>232</v>
+        <v>583</v>
       </c>
       <c r="B95" s="3">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>233</v>
+        <v>584</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>234</v>
+        <v>585</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>44</v>
@@ -8196,34 +8193,34 @@
         <v>44</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>235</v>
+        <v>299</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>236</v>
+        <v>586</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>237</v>
+        <v>587</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>44</v>
+        <v>588</v>
       </c>
       <c r="Q95" s="3" t="s">
         <v>57</v>
@@ -8232,25 +8229,25 @@
         <v>2</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>238</v>
+        <v>589</v>
       </c>
       <c r="T95" s="3" t="str" cm="1">
         <f t="array" ref="T95">_xlfn.REGEXEXTRACT(A95,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>www.peekvids.com</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>248</v>
+        <v>3</v>
       </c>
       <c r="B96" s="3">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>44</v>
@@ -8259,19 +8256,19 @@
         <v>44</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>455</v>
+        <v>299</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>44</v>
@@ -8280,26 +8277,26 @@
         <v>44</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>155</v>
+        <v>292</v>
       </c>
       <c r="P96" s="3" t="s">
         <v>44</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="R96" s="3">
         <v>1</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>474</v>
+        <v>305</v>
       </c>
       <c r="T96" s="3" t="str" cm="1">
         <f t="array" ref="T96">_xlfn.REGEXEXTRACT(A96,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>www.pornhub.com</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -8365,18 +8362,18 @@
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="B98" s="3">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>303</v>
+        <v>192</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>44</v>
@@ -8385,19 +8382,19 @@
         <v>44</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>328</v>
+        <v>83</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>299</v>
+        <v>455</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>304</v>
+        <v>44</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>44</v>
@@ -8406,26 +8403,26 @@
         <v>44</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>44</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="R98" s="3">
         <v>1</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>305</v>
+        <v>473</v>
       </c>
       <c r="T98" s="3" t="str" cm="1">
         <f t="array" ref="T98">_xlfn.REGEXEXTRACT(A98,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
   </sheetData>
@@ -8434,12 +8431,12 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:T1">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8450,7 +8447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:T39 A2:B98 C40:I40 K40:T40 C41:T72 C73:H74 J73:T74 C75:T86 C87:O87 Q87:T87 C88:T88 C89 E89:T89 C90:T90 C91:N91 P91:T91 C92:T98">
+  <conditionalFormatting sqref="C2:T39 A2:B98 C40:I40 K40:T40 C73:H74 J73:T74 C75:T86 C87:O87 Q87:T87 C88:T88 C89 E89:T89 C90:T90 C91:N91 P91:T91 C92:T98 C41:T72">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>

--- a/data/links.xlsx
+++ b/data/links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crypto\Private\LQDU\LinkBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A700F2F8-71B9-42DA-895D-C6CBBF0A579D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0A5811-3D3E-460D-98A6-FE3B5DFC2DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-45" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSFW_Links" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="685">
   <si>
     <t>https://xhamster18.desi/videos/nubile-films-seductive-games-of-passion-3267609</t>
   </si>
@@ -2065,6 +2065,54 @@
   </si>
   <si>
     <t>sitting on pusst at 140m</t>
+  </si>
+  <si>
+    <t>https://www.txxx.porn/sites/divine-bitches/</t>
+  </si>
+  <si>
+    <t>foot worship</t>
+  </si>
+  <si>
+    <t>cbt</t>
+  </si>
+  <si>
+    <t>decent sized collection of full length femdom videos from divine bitches</t>
+  </si>
+  <si>
+    <t>https://www.txxx.porn/sites/men-in-pain/</t>
+  </si>
+  <si>
+    <t>men in pain</t>
+  </si>
+  <si>
+    <t>decent sized collection of full length femdom videos from men in pain</t>
+  </si>
+  <si>
+    <t>https://www.txxx.porn/sites/kink/</t>
+  </si>
+  <si>
+    <t>femdom</t>
+  </si>
+  <si>
+    <t>decent sized collection of full length femdom videos from kink</t>
+  </si>
+  <si>
+    <t>https://www.txxx.porn/sites/kink-classics/</t>
+  </si>
+  <si>
+    <t>kink classic</t>
+  </si>
+  <si>
+    <t>dani daniels</t>
+  </si>
+  <si>
+    <t>decent sized collection of full length femdom videos from kink classic</t>
+  </si>
+  <si>
+    <t>https://www.tubegalore.com/c/japanese-femdom</t>
+  </si>
+  <si>
+    <t>jap femdom</t>
   </si>
 </sst>
 </file>
@@ -2448,11 +2496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:T115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,18 +2573,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>551</v>
+        <v>591</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>545</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>44</v>
@@ -2548,31 +2596,31 @@
         <v>81</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>441</v>
+        <v>297</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>57</v>
@@ -2581,25 +2629,25 @@
         <v>8</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>555</v>
+        <v>595</v>
       </c>
       <c r="T2" s="2" t="str" cm="1">
         <f t="array" ref="T2">_xlfn.REGEXEXTRACT(A2,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="B3" s="2">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>169</v>
+        <v>545</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>44</v>
@@ -2611,31 +2659,31 @@
         <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>297</v>
+        <v>441</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>593</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>100</v>
+        <v>553</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>57</v>
@@ -2644,25 +2692,25 @@
         <v>8</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
       <c r="T3" s="2" t="str" cm="1">
         <f t="array" ref="T3">_xlfn.REGEXEXTRACT(A3,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>tube.perverzija.com</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>253</v>
+        <v>604</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>545</v>
+        <v>281</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>44</v>
@@ -2671,34 +2719,34 @@
         <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>605</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>77</v>
+        <v>606</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>256</v>
+        <v>472</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>154</v>
+        <v>607</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>192</v>
+        <v>608</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>171</v>
+        <v>609</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>57</v>
@@ -2707,61 +2755,61 @@
         <v>7</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>258</v>
+        <v>610</v>
       </c>
       <c r="T4" s="2" t="str" cm="1">
         <f t="array" ref="T4">_xlfn.REGEXEXTRACT(A4,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>punishworld.com</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>119</v>
+        <v>596</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>100</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>460</v>
+        <v>137</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>461</v>
+        <v>92</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>462</v>
+        <v>140</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>57</v>
@@ -2770,25 +2818,25 @@
         <v>7</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>463</v>
+        <v>208</v>
       </c>
       <c r="T5" s="2" t="str" cm="1">
         <f t="array" ref="T5">_xlfn.REGEXEXTRACT(A5,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>187</v>
+        <v>597</v>
       </c>
       <c r="B6" s="2">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>200</v>
+        <v>598</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>44</v>
@@ -2797,34 +2845,34 @@
         <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>203</v>
+        <v>599</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>115</v>
+        <v>600</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>67</v>
+        <v>337</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>201</v>
+        <v>601</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>44</v>
+        <v>602</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>44</v>
+        <v>342</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>57</v>
@@ -2833,7 +2881,7 @@
         <v>7</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>216</v>
+        <v>603</v>
       </c>
       <c r="T6" s="2" t="str" cm="1">
         <f t="array" ref="T6">_xlfn.REGEXEXTRACT(A6,"(?&lt;=//)[^/]+")</f>
@@ -2842,16 +2890,16 @@
     </row>
     <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>252</v>
+        <v>523</v>
       </c>
       <c r="B7" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>44</v>
@@ -2863,31 +2911,31 @@
         <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>125</v>
+        <v>440</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>109</v>
+        <v>472</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>57</v>
@@ -2896,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>483</v>
+        <v>525</v>
       </c>
       <c r="T7" s="2" t="str" cm="1">
         <f t="array" ref="T7">_xlfn.REGEXEXTRACT(A7,"(?&lt;=//)[^/]+")</f>
@@ -2968,16 +3016,16 @@
     </row>
     <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>523</v>
+        <v>252</v>
       </c>
       <c r="B9" s="2">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
@@ -2989,31 +3037,31 @@
         <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>520</v>
+        <v>482</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>440</v>
+        <v>125</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>472</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>57</v>
@@ -3022,7 +3070,7 @@
         <v>7</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>525</v>
+        <v>483</v>
       </c>
       <c r="T9" s="2" t="str" cm="1">
         <f t="array" ref="T9">_xlfn.REGEXEXTRACT(A9,"(?&lt;=//)[^/]+")</f>
@@ -3031,52 +3079,52 @@
     </row>
     <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="B10" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>392</v>
+        <v>199</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>596</v>
+        <v>203</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>57</v>
@@ -3085,25 +3133,25 @@
         <v>7</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="T10" s="2" t="str" cm="1">
         <f t="array" ref="T10">_xlfn.REGEXEXTRACT(A10,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>597</v>
+        <v>261</v>
       </c>
       <c r="B11" s="2">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>598</v>
+        <v>332</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>44</v>
@@ -3115,31 +3163,31 @@
         <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>599</v>
+        <v>119</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>600</v>
+        <v>461</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>337</v>
+        <v>462</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>601</v>
+        <v>114</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>602</v>
+        <v>135</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>342</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>57</v>
@@ -3148,25 +3196,25 @@
         <v>7</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>603</v>
+        <v>463</v>
       </c>
       <c r="T11" s="2" t="str" cm="1">
         <f t="array" ref="T11">_xlfn.REGEXEXTRACT(A11,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>604</v>
+        <v>253</v>
       </c>
       <c r="B12" s="2">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>281</v>
+        <v>545</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>44</v>
@@ -3175,34 +3223,34 @@
         <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>605</v>
+        <v>66</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>606</v>
+        <v>77</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>472</v>
+        <v>256</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>607</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>608</v>
+        <v>192</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>609</v>
+        <v>171</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>57</v>
@@ -3211,25 +3259,25 @@
         <v>7</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>610</v>
+        <v>258</v>
       </c>
       <c r="T12" s="2" t="str" cm="1">
         <f t="array" ref="T12">_xlfn.REGEXEXTRACT(A12,"(?&lt;=//)[^/]+")</f>
-        <v>punishworld.com</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>546</v>
+        <v>669</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>545</v>
+        <v>156</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>356</v>
+        <v>552</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>44</v>
@@ -3238,61 +3286,61 @@
         <v>44</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>325</v>
+        <v>158</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>547</v>
+        <v>61</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>230</v>
+        <v>670</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>548</v>
+        <v>671</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>549</v>
+        <v>472</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="P13" s="2" t="s">
-        <v>363</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R13" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>550</v>
+        <v>672</v>
       </c>
       <c r="T13" s="2" t="str" cm="1">
         <f t="array" ref="T13">_xlfn.REGEXEXTRACT(A13,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>www.txxx.porn</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="B14" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>44</v>
@@ -3304,31 +3352,31 @@
         <v>81</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>311</v>
+        <v>174</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>367</v>
+        <v>135</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>342</v>
+        <v>170</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>57</v>
@@ -3337,61 +3385,61 @@
         <v>6</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>368</v>
+        <v>213</v>
       </c>
       <c r="T14" s="2" t="str" cm="1">
         <f t="array" ref="T14">_xlfn.REGEXEXTRACT(A14,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>www.pornhits.com</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>268</v>
+        <v>588</v>
       </c>
       <c r="B15" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>369</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>323</v>
+        <v>589</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>370</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>596</v>
+        <v>99</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>337</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="P15" s="2">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>57</v>
@@ -3400,25 +3448,25 @@
         <v>6</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>371</v>
+        <v>590</v>
       </c>
       <c r="T15" s="2" t="str" cm="1">
         <f t="array" ref="T15">_xlfn.REGEXEXTRACT(A15,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>528</v>
       </c>
       <c r="B16" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>389</v>
+        <v>474</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>390</v>
+        <v>529</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -3427,34 +3475,34 @@
         <v>44</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>109</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>412</v>
+        <v>131</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="N16" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>57</v>
@@ -3463,7 +3511,7 @@
         <v>6</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>391</v>
+        <v>530</v>
       </c>
       <c r="T16" s="2" t="str" cm="1">
         <f t="array" ref="T16">_xlfn.REGEXEXTRACT(A16,"(?&lt;=//)[^/]+")</f>
@@ -3472,16 +3520,16 @@
     </row>
     <row r="17" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>442</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>305</v>
+        <v>512</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>44</v>
@@ -3490,34 +3538,34 @@
         <v>44</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>100</v>
+        <v>416</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>311</v>
+        <v>496</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>342</v>
+        <v>567</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>57</v>
@@ -3526,25 +3574,25 @@
         <v>6</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>439</v>
+        <v>516</v>
       </c>
       <c r="T17" s="2" t="str" cm="1">
         <f t="array" ref="T17">_xlfn.REGEXEXTRACT(A17,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>305</v>
+        <v>397</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>44</v>
@@ -3556,31 +3604,31 @@
         <v>81</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="J18" s="2" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>66</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>342</v>
+        <v>104</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>454</v>
+        <v>93</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>455</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>57</v>
@@ -3589,61 +3637,61 @@
         <v>6</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>521</v>
+        <v>205</v>
       </c>
       <c r="T18" s="2" t="str" cm="1">
         <f t="array" ref="T18">_xlfn.REGEXEXTRACT(A18,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>abxxx.com</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>406</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>100</v>
+        <v>596</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>149</v>
+        <v>317</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>472</v>
+        <v>91</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>342</v>
+        <v>121</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>453</v>
+        <v>89</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>57</v>
@@ -3652,11 +3700,11 @@
         <v>6</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>473</v>
+        <v>204</v>
       </c>
       <c r="T19" s="2" t="str" cm="1">
         <f t="array" ref="T19">_xlfn.REGEXEXTRACT(A19,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3724,16 +3772,16 @@
     </row>
     <row r="21" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>397</v>
+        <v>471</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>44</v>
@@ -3745,31 +3793,31 @@
         <v>81</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>100</v>
+        <v>472</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>104</v>
+        <v>342</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>93</v>
+        <v>453</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>57</v>
@@ -3778,61 +3826,61 @@
         <v>6</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>205</v>
+        <v>473</v>
       </c>
       <c r="T21" s="2" t="str" cm="1">
         <f t="array" ref="T21">_xlfn.REGEXEXTRACT(A21,"(?&lt;=//)[^/]+")</f>
-        <v>abxxx.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>398</v>
+        <v>305</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>406</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>596</v>
+        <v>99</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>317</v>
+        <v>125</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>121</v>
+        <v>342</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>89</v>
+        <v>454</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>88</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>57</v>
@@ -3841,25 +3889,25 @@
         <v>6</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>204</v>
+        <v>521</v>
       </c>
       <c r="T22" s="2" t="str" cm="1">
         <f t="array" ref="T22">_xlfn.REGEXEXTRACT(A22,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="B23" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>97</v>
+        <v>442</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>512</v>
+        <v>305</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>44</v>
@@ -3868,34 +3916,34 @@
         <v>44</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>416</v>
+        <v>100</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>496</v>
+        <v>311</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>514</v>
+        <v>438</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>567</v>
+        <v>342</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>57</v>
@@ -3904,25 +3952,25 @@
         <v>6</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>516</v>
+        <v>439</v>
       </c>
       <c r="T23" s="2" t="str" cm="1">
         <f t="array" ref="T23">_xlfn.REGEXEXTRACT(A23,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>528</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>474</v>
+        <v>389</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>529</v>
+        <v>390</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>44</v>
@@ -3931,34 +3979,34 @@
         <v>44</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>109</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>131</v>
+        <v>412</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>72</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>459</v>
+        <v>386</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>386</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>57</v>
@@ -3967,7 +4015,7 @@
         <v>6</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>530</v>
+        <v>391</v>
       </c>
       <c r="T24" s="2" t="str" cm="1">
         <f t="array" ref="T24">_xlfn.REGEXEXTRACT(A24,"(?&lt;=//)[^/]+")</f>
@@ -3976,52 +4024,52 @@
     </row>
     <row r="25" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>588</v>
+        <v>268</v>
       </c>
       <c r="B25" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>114</v>
+        <v>369</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>589</v>
+        <v>323</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>99</v>
+        <v>596</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>447</v>
+        <v>372</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>139</v>
+        <v>337</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>441</v>
+        <v>362</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>154</v>
+        <v>342</v>
+      </c>
+      <c r="P25" s="2">
+        <v>69</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>57</v>
@@ -4030,25 +4078,25 @@
         <v>6</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>590</v>
+        <v>371</v>
       </c>
       <c r="T25" s="2" t="str" cm="1">
         <f t="array" ref="T25">_xlfn.REGEXEXTRACT(A25,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>www.tnaflix.com</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>44</v>
@@ -4060,31 +4108,31 @@
         <v>81</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>174</v>
+        <v>311</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>135</v>
+        <v>367</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>170</v>
+        <v>342</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>57</v>
@@ -4093,11 +4141,11 @@
         <v>6</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>213</v>
+        <v>368</v>
       </c>
       <c r="T26" s="2" t="str" cm="1">
         <f t="array" ref="T26">_xlfn.REGEXEXTRACT(A26,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -4163,18 +4211,18 @@
         <v>punishworld.com</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>264</v>
+        <v>546</v>
       </c>
       <c r="B28" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>277</v>
+        <v>545</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>44</v>
@@ -4183,127 +4231,127 @@
         <v>44</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>72</v>
+        <v>547</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>119</v>
+        <v>337</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>84</v>
+        <v>548</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>44</v>
+        <v>549</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>279</v>
+        <v>93</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>192</v>
+        <v>363</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>280</v>
+        <v>550</v>
       </c>
       <c r="T28" s="2" t="str" cm="1">
         <f t="array" ref="T28">_xlfn.REGEXEXTRACT(A28,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>274</v>
+        <v>673</v>
       </c>
       <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R29" s="3">
         <v>6</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R29" s="3">
-        <v>5</v>
-      </c>
       <c r="S29" s="2" t="s">
-        <v>518</v>
+        <v>675</v>
       </c>
       <c r="T29" s="2" t="str" cm="1">
         <f t="array" ref="T29">_xlfn.REGEXEXTRACT(A29,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+        <v>www.txxx.porn</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>676</v>
       </c>
       <c r="B30" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>442</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>396</v>
+        <v>552</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>405</v>
+        <v>44</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>44</v>
@@ -4312,61 +4360,61 @@
         <v>81</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>596</v>
+        <v>77</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>426</v>
+        <v>66</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>311</v>
+        <v>86</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>66</v>
+        <v>677</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>72</v>
+        <v>554</v>
       </c>
       <c r="N30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P30" s="2">
-        <v>69</v>
-      </c>
       <c r="Q30" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R30" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>207</v>
+        <v>678</v>
       </c>
       <c r="T30" s="2" t="str" cm="1">
         <f t="array" ref="T30">_xlfn.REGEXEXTRACT(A30,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>www.txxx.porn</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>650</v>
       </c>
       <c r="B31" s="2">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>113</v>
+        <v>651</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>44</v>
@@ -4375,94 +4423,94 @@
         <v>81</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>141</v>
+        <v>596</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>109</v>
+        <v>652</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>142</v>
+        <v>557</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>144</v>
+        <v>342</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>57</v>
+        <v>653</v>
       </c>
       <c r="R31" s="3">
         <v>5</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>209</v>
+        <v>654</v>
       </c>
       <c r="T31" s="2" t="str" cm="1">
         <f t="array" ref="T31">_xlfn.REGEXEXTRACT(A31,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>646</v>
       </c>
       <c r="B32" s="2">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="K32" s="2" t="s">
-        <v>355</v>
+        <v>127</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>44</v>
+        <v>647</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>320</v>
+        <v>648</v>
+      </c>
+      <c r="N32" s="2">
+        <v>69</v>
       </c>
       <c r="O32" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>57</v>
@@ -4471,61 +4519,61 @@
         <v>5</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>354</v>
+        <v>649</v>
       </c>
       <c r="T32" s="2" t="str" cm="1">
         <f t="array" ref="T32">_xlfn.REGEXEXTRACT(A32,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>8</v>
+        <v>618</v>
       </c>
       <c r="B33" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>373</v>
+        <v>619</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>323</v>
+        <v>620</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>161</v>
+        <v>434</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>355</v>
+        <v>605</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>285</v>
+        <v>621</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O33" s="2">
-        <v>69</v>
+        <v>526</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>622</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>320</v>
+        <v>601</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>57</v>
@@ -4534,28 +4582,28 @@
         <v>5</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>376</v>
+        <v>623</v>
       </c>
       <c r="T33" s="2" t="str" cm="1">
         <f t="array" ref="T33">_xlfn.REGEXEXTRACT(A33,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>punishworld.com</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>260</v>
+        <v>611</v>
       </c>
       <c r="B34" s="2">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>385</v>
+        <v>512</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>44</v>
@@ -4564,31 +4612,31 @@
         <v>81</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>596</v>
+        <v>100</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>83</v>
+        <v>612</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>119</v>
+        <v>613</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>388</v>
+        <v>614</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>386</v>
+        <v>615</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>114</v>
+        <v>616</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>57</v>
@@ -4597,25 +4645,25 @@
         <v>5</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>387</v>
+        <v>617</v>
       </c>
       <c r="T34" s="2" t="str" cm="1">
         <f t="array" ref="T34">_xlfn.REGEXEXTRACT(A34,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>20</v>
+        <v>585</v>
       </c>
       <c r="B35" s="2">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>44</v>
@@ -4624,34 +4672,34 @@
         <v>44</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>436</v>
+        <v>119</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>120</v>
+        <v>459</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>44</v>
+        <v>526</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>57</v>
@@ -4660,25 +4708,25 @@
         <v>5</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>451</v>
+        <v>587</v>
       </c>
       <c r="T35" s="2" t="str" cm="1">
         <f t="array" ref="T35">_xlfn.REGEXEXTRACT(A35,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>575</v>
       </c>
       <c r="B36" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>474</v>
+        <v>114</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>395</v>
+        <v>576</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>44</v>
@@ -4687,34 +4735,34 @@
         <v>44</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K36" s="2" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>95</v>
+        <v>496</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>416</v>
+        <v>119</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>475</v>
+        <v>154</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>386</v>
+        <v>92</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>93</v>
+        <v>320</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>57</v>
@@ -4723,25 +4771,25 @@
         <v>5</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>476</v>
+        <v>577</v>
       </c>
       <c r="T36" s="2" t="str" cm="1">
         <f t="array" ref="T36">_xlfn.REGEXEXTRACT(A36,"(?&lt;=//)[^/]+")</f>
-        <v>hcbdsm.com</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>18</v>
+        <v>572</v>
       </c>
       <c r="B37" s="2">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>114</v>
+        <v>474</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>477</v>
+        <v>573</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>44</v>
@@ -4750,34 +4798,34 @@
         <v>44</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="L37" s="2" t="s">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>472</v>
+        <v>119</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>522</v>
+        <v>92</v>
       </c>
       <c r="O37" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="P37" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>57</v>
@@ -4786,61 +4834,61 @@
         <v>5</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>478</v>
+        <v>574</v>
       </c>
       <c r="T37" s="2" t="str" cm="1">
         <f t="array" ref="T37">_xlfn.REGEXEXTRACT(A37,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>349</v>
+        <v>179</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>433</v>
+        <v>84</v>
       </c>
       <c r="I38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>504</v>
-      </c>
       <c r="L38" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>505</v>
+        <v>126</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>386</v>
+        <v>182</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>501</v>
+        <v>44</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>57</v>
@@ -4849,25 +4897,25 @@
         <v>5</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>503</v>
+        <v>184</v>
       </c>
       <c r="T38" s="2" t="str" cm="1">
         <f t="array" ref="T38">_xlfn.REGEXEXTRACT(A38,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>281</v>
+        <v>156</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>281</v>
+        <v>400</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>44</v>
@@ -4876,34 +4924,34 @@
         <v>44</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>507</v>
+        <v>100</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>508</v>
+        <v>61</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>472</v>
+        <v>167</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>431</v>
+        <v>84</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>509</v>
+        <v>132</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>459</v>
+        <v>165</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>510</v>
+        <v>44</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>57</v>
@@ -4912,25 +4960,25 @@
         <v>5</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>511</v>
+        <v>212</v>
       </c>
       <c r="T39" s="2" t="str" cm="1">
         <f t="array" ref="T39">_xlfn.REGEXEXTRACT(A39,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="B40" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>44</v>
@@ -4939,34 +4987,34 @@
         <v>44</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>61</v>
+        <v>502</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>166</v>
+        <v>504</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>84</v>
+        <v>505</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>132</v>
+        <v>386</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>165</v>
+        <v>501</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>57</v>
@@ -4975,61 +5023,61 @@
         <v>5</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>212</v>
+        <v>503</v>
       </c>
       <c r="T40" s="2" t="str" cm="1">
         <f t="array" ref="T40">_xlfn.REGEXEXTRACT(A40,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>97</v>
+        <v>281</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>84</v>
+        <v>507</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>115</v>
+        <v>508</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>100</v>
+        <v>472</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>126</v>
+        <v>431</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>182</v>
+        <v>509</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>44</v>
+        <v>459</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>44</v>
+        <v>510</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>57</v>
@@ -5038,25 +5086,25 @@
         <v>5</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>184</v>
+        <v>511</v>
       </c>
       <c r="T41" s="2" t="str" cm="1">
         <f t="array" ref="T41">_xlfn.REGEXEXTRACT(A41,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>572</v>
+        <v>18</v>
       </c>
       <c r="B42" s="2">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>474</v>
+        <v>114</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>573</v>
+        <v>477</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>44</v>
@@ -5065,34 +5113,34 @@
         <v>44</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>426</v>
+        <v>68</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>119</v>
+        <v>472</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>92</v>
+        <v>522</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>526</v>
+        <v>441</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>57</v>
@@ -5101,25 +5149,25 @@
         <v>5</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>574</v>
+        <v>478</v>
       </c>
       <c r="T42" s="2" t="str" cm="1">
         <f t="array" ref="T42">_xlfn.REGEXEXTRACT(A42,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>575</v>
+        <v>26</v>
       </c>
       <c r="B43" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>114</v>
+        <v>474</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>576</v>
+        <v>395</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>44</v>
@@ -5128,34 +5176,34 @@
         <v>44</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>448</v>
+        <v>100</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>496</v>
+        <v>95</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>119</v>
+        <v>416</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>154</v>
+        <v>475</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>320</v>
+        <v>93</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>57</v>
@@ -5164,25 +5212,25 @@
         <v>5</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>577</v>
+        <v>476</v>
       </c>
       <c r="T43" s="2" t="str" cm="1">
         <f t="array" ref="T43">_xlfn.REGEXEXTRACT(A43,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>hcbdsm.com</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>585</v>
+        <v>20</v>
       </c>
       <c r="B44" s="2">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>586</v>
+        <v>450</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>44</v>
@@ -5191,34 +5239,34 @@
         <v>44</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="I44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="L44" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>119</v>
+        <v>436</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>459</v>
+        <v>120</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>526</v>
+        <v>44</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>57</v>
@@ -5227,7 +5275,7 @@
         <v>5</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>587</v>
+        <v>451</v>
       </c>
       <c r="T44" s="2" t="str" cm="1">
         <f t="array" ref="T44">_xlfn.REGEXEXTRACT(A44,"(?&lt;=//)[^/]+")</f>
@@ -5236,19 +5284,19 @@
     </row>
     <row r="45" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>611</v>
+        <v>260</v>
       </c>
       <c r="B45" s="2">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>512</v>
+        <v>385</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>44</v>
@@ -5257,31 +5305,31 @@
         <v>81</v>
       </c>
       <c r="H45" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="K45" s="2" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>613</v>
+        <v>119</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>614</v>
+        <v>388</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>615</v>
+        <v>386</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>616</v>
+        <v>114</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>57</v>
@@ -5290,61 +5338,61 @@
         <v>5</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>617</v>
+        <v>387</v>
       </c>
       <c r="T45" s="2" t="str" cm="1">
         <f t="array" ref="T45">_xlfn.REGEXEXTRACT(A45,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>618</v>
+        <v>8</v>
       </c>
       <c r="B46" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>619</v>
+        <v>373</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>620</v>
+        <v>323</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>434</v>
+        <v>161</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>605</v>
+        <v>355</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>621</v>
+        <v>285</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>622</v>
+        <v>196</v>
+      </c>
+      <c r="O46" s="2">
+        <v>69</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>601</v>
+        <v>320</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>57</v>
@@ -5353,61 +5401,61 @@
         <v>5</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>623</v>
+        <v>376</v>
       </c>
       <c r="T46" s="2" t="str" cm="1">
         <f t="array" ref="T46">_xlfn.REGEXEXTRACT(A46,"(?&lt;=//)[^/]+")</f>
-        <v>punishworld.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>646</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="K47" s="2" t="s">
-        <v>127</v>
+        <v>355</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>647</v>
+        <v>44</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="N47" s="2">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>57</v>
@@ -5416,28 +5464,28 @@
         <v>5</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>649</v>
+        <v>354</v>
       </c>
       <c r="T47" s="2" t="str" cm="1">
         <f t="array" ref="T47">_xlfn.REGEXEXTRACT(A47,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>tube.perverzija.com</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>650</v>
+        <v>15</v>
       </c>
       <c r="B48" s="2">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>651</v>
+        <v>113</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>44</v>
@@ -5446,121 +5494,121 @@
         <v>81</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>596</v>
+        <v>141</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>652</v>
+        <v>109</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>557</v>
+        <v>142</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>342</v>
+        <v>144</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>653</v>
+        <v>57</v>
       </c>
       <c r="R48" s="3">
         <v>5</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>654</v>
+        <v>209</v>
       </c>
       <c r="T48" s="2" t="str" cm="1">
         <f t="array" ref="T48">_xlfn.REGEXEXTRACT(A48,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>562</v>
+        <v>29</v>
       </c>
       <c r="B49" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>545</v>
+        <v>113</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>552</v>
+        <v>396</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>563</v>
+        <v>596</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>563</v>
+        <v>73</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
+      </c>
+      <c r="P49" s="2">
+        <v>69</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R49" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>564</v>
+        <v>207</v>
       </c>
       <c r="T49" s="2" t="str" cm="1">
         <f t="array" ref="T49">_xlfn.REGEXEXTRACT(A49,"(?&lt;=//)[^/]+")</f>
-        <v>netfapx.net</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>565</v>
+        <v>274</v>
       </c>
       <c r="B50" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>545</v>
+        <v>282</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>552</v>
+        <v>283</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>44</v>
@@ -5569,28 +5617,28 @@
         <v>44</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>563</v>
+        <v>219</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>563</v>
+        <v>218</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>44</v>
@@ -5602,28 +5650,28 @@
         <v>57</v>
       </c>
       <c r="R50" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="T50" s="2" t="str" cm="1">
         <f t="array" ref="T50">_xlfn.REGEXEXTRACT(A50,"(?&lt;=//)[^/]+")</f>
-        <v>pornzog</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="B51" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>393</v>
+        <v>277</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>44</v>
@@ -5632,124 +5680,124 @@
         <v>44</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="H51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L51" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>287</v>
+        <v>69</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>94</v>
+        <v>279</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R51" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="T51" s="2" t="str" cm="1">
         <f t="array" ref="T51">_xlfn.REGEXEXTRACT(A51,"(?&lt;=//)[^/]+")</f>
-        <v>xhamster18.desi</v>
+        <v>txxx.com</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>272</v>
+        <v>679</v>
       </c>
       <c r="B52" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>295</v>
+        <v>680</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>133</v>
+        <v>552</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>44</v>
+        <v>681</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>337</v>
+        <v>554</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N52" s="2">
-        <v>69</v>
-      </c>
-      <c r="O52" s="2">
-        <v>619</v>
+        <v>68</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R52" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>296</v>
+        <v>682</v>
       </c>
       <c r="T52" s="2" t="str" cm="1">
         <f t="array" ref="T52">_xlfn.REGEXEXTRACT(A52,"(?&lt;=//)[^/]+")</f>
-        <v>www.porndead.org</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>www.txxx.porn</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>4</v>
+        <v>663</v>
       </c>
       <c r="B53" s="2">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>44</v>
@@ -5761,31 +5809,31 @@
         <v>81</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>337</v>
+        <v>614</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>600</v>
+        <v>434</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>285</v>
+        <v>664</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>44</v>
+        <v>665</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>381</v>
+        <v>154</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>44</v>
+        <v>666</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>44</v>
+        <v>667</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>57</v>
@@ -5794,61 +5842,61 @@
         <v>4</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>307</v>
+        <v>668</v>
       </c>
       <c r="T53" s="2" t="str" cm="1">
         <f t="array" ref="T53">_xlfn.REGEXEXTRACT(A53,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>punishbang.com</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>267</v>
+        <v>655</v>
       </c>
       <c r="B54" s="2">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>306</v>
+        <v>656</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>305</v>
+        <v>657</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>44</v>
+        <v>658</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H54" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="K54" s="2" t="s">
-        <v>66</v>
+        <v>659</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>44</v>
+        <v>660</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>44</v>
+        <v>661</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>308</v>
+        <v>601</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>44</v>
+        <v>459</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>57</v>
@@ -5857,61 +5905,61 @@
         <v>4</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>309</v>
+        <v>662</v>
       </c>
       <c r="T54" s="2" t="str" cm="1">
         <f t="array" ref="T54">_xlfn.REGEXEXTRACT(A54,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>punishbang.com</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B55" s="2">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>181</v>
+        <v>409</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>431</v>
+        <v>44</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>192</v>
+        <v>526</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>57</v>
@@ -5920,25 +5968,25 @@
         <v>4</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="T55" s="2" t="str" cm="1">
         <f t="array" ref="T55">_xlfn.REGEXEXTRACT(A55,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="B56" s="2">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>44</v>
@@ -5947,34 +5995,34 @@
         <v>44</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>330</v>
+        <v>158</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>344</v>
+        <v>162</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O56" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P56" s="2" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>57</v>
@@ -5983,25 +6031,25 @@
         <v>4</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>343</v>
+        <v>163</v>
       </c>
       <c r="T56" s="2" t="str" cm="1">
         <f t="array" ref="T56">_xlfn.REGEXEXTRACT(A56,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.me</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>32</v>
+        <v>624</v>
       </c>
       <c r="B57" s="2">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>129</v>
+        <v>625</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>179</v>
+        <v>626</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>44</v>
@@ -6010,34 +6058,34 @@
         <v>44</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>100</v>
+        <v>627</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>131</v>
+        <v>434</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>66</v>
+        <v>628</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>44</v>
+        <v>629</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>132</v>
+        <v>630</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>44</v>
+        <v>631</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>57</v>
@@ -6046,61 +6094,61 @@
         <v>4</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>276</v>
+        <v>632</v>
       </c>
       <c r="T57" s="2" t="str" cm="1">
         <f t="array" ref="T57">_xlfn.REGEXEXTRACT(A57,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>271</v>
+        <v>568</v>
       </c>
       <c r="B58" s="2">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>356</v>
+        <v>569</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>44</v>
+        <v>570</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>358</v>
+        <v>112</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>359</v>
+        <v>68</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>337</v>
+        <v>100</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>285</v>
+        <v>472</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="N58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O58" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O58" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="P58" s="2" t="s">
-        <v>335</v>
+        <v>526</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>57</v>
@@ -6109,61 +6157,61 @@
         <v>4</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>357</v>
+        <v>571</v>
       </c>
       <c r="T58" s="2" t="str" cm="1">
         <f t="array" ref="T58">_xlfn.REGEXEXTRACT(A58,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="B59" s="2">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>380</v>
+        <v>92</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>378</v>
+        <v>93</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>57</v>
@@ -6172,7 +6220,7 @@
         <v>4</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>382</v>
+        <v>96</v>
       </c>
       <c r="T59" s="2" t="str" cm="1">
         <f t="array" ref="T59">_xlfn.REGEXEXTRACT(A59,"(?&lt;=//)[^/]+")</f>
@@ -6181,52 +6229,52 @@
     </row>
     <row r="60" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>12</v>
+        <v>539</v>
       </c>
       <c r="B60" s="2">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>411</v>
+        <v>540</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>44</v>
+        <v>541</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>412</v>
+        <v>68</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>413</v>
+        <v>542</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>311</v>
+        <v>543</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>415</v>
+        <v>99</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>418</v>
+        <v>72</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>416</v>
+        <v>100</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>414</v>
+        <v>94</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>386</v>
+        <v>526</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>57</v>
@@ -6235,7 +6283,7 @@
         <v>4</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>417</v>
+        <v>544</v>
       </c>
       <c r="T60" s="2" t="str" cm="1">
         <f t="array" ref="T60">_xlfn.REGEXEXTRACT(A60,"(?&lt;=//)[^/]+")</f>
@@ -6244,52 +6292,52 @@
     </row>
     <row r="61" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="B61" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="K61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="N61" s="2" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>427</v>
+        <v>44</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>57</v>
@@ -6298,25 +6346,25 @@
         <v>4</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>425</v>
+        <v>117</v>
       </c>
       <c r="T61" s="2" t="str" cm="1">
         <f t="array" ref="T61">_xlfn.REGEXEXTRACT(A61,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B62" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>114</v>
+        <v>389</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>432</v>
+        <v>179</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>44</v>
@@ -6325,34 +6373,34 @@
         <v>44</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>433</v>
+        <v>493</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>434</v>
+        <v>346</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>77</v>
+        <v>494</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>100</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>115</v>
+        <v>482</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>154</v>
+        <v>496</v>
+      </c>
+      <c r="N62" s="2">
+        <v>69</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>435</v>
+        <v>192</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>114</v>
+        <v>497</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>57</v>
@@ -6361,25 +6409,25 @@
         <v>4</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="T62" s="2" t="str" cm="1">
         <f t="array" ref="T62">_xlfn.REGEXEXTRACT(A62,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B63" s="2">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>44</v>
@@ -6391,31 +6439,31 @@
         <v>81</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>413</v>
+        <v>311</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>412</v>
+        <v>350</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>448</v>
+        <v>66</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>434</v>
+        <v>119</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>192</v>
+        <v>499</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>57</v>
@@ -6424,7 +6472,7 @@
         <v>4</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="T63" s="2" t="str" cm="1">
         <f t="array" ref="T63">_xlfn.REGEXEXTRACT(A63,"(?&lt;=//)[^/]+")</f>
@@ -6494,18 +6542,18 @@
         <v>spankbang.party</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B65" s="2">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>389</v>
+        <v>113</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>179</v>
+        <v>445</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>44</v>
@@ -6514,34 +6562,34 @@
         <v>44</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>493</v>
+        <v>413</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>346</v>
+        <v>72</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>494</v>
+        <v>412</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>100</v>
+        <v>447</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="N65" s="2">
-        <v>69</v>
+        <v>434</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>192</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>497</v>
+        <v>44</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>57</v>
@@ -6550,7 +6598,7 @@
         <v>4</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="T65" s="2" t="str" cm="1">
         <f t="array" ref="T65">_xlfn.REGEXEXTRACT(A65,"(?&lt;=//)[^/]+")</f>
@@ -6559,16 +6607,16 @@
     </row>
     <row r="66" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B66" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>44</v>
@@ -6580,31 +6628,31 @@
         <v>81</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>311</v>
+        <v>433</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>68</v>
+        <v>434</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>433</v>
+        <v>100</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>119</v>
+        <v>436</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>498</v>
+        <v>154</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>499</v>
+        <v>435</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>57</v>
@@ -6613,7 +6661,7 @@
         <v>4</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>500</v>
+        <v>437</v>
       </c>
       <c r="T66" s="2" t="str" cm="1">
         <f t="array" ref="T66">_xlfn.REGEXEXTRACT(A66,"(?&lt;=//)[^/]+")</f>
@@ -6622,16 +6670,16 @@
     </row>
     <row r="67" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B67" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>44</v>
@@ -6643,31 +6691,31 @@
         <v>81</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>118</v>
+        <v>412</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>119</v>
+        <v>415</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>115</v>
+        <v>418</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>66</v>
+        <v>416</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>114</v>
+        <v>414</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>116</v>
+        <v>381</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>57</v>
@@ -6676,61 +6724,61 @@
         <v>4</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="T67" s="2" t="str" cm="1">
         <f t="array" ref="T67">_xlfn.REGEXEXTRACT(A67,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>539</v>
+        <v>259</v>
       </c>
       <c r="B68" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>97</v>
+        <v>281</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>540</v>
+        <v>422</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>541</v>
+        <v>424</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="H68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>542</v>
-      </c>
       <c r="J68" s="2" t="s">
-        <v>543</v>
+        <v>426</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>320</v>
+        <v>92</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>526</v>
+        <v>427</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>57</v>
@@ -6739,61 +6787,61 @@
         <v>4</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>544</v>
+        <v>425</v>
       </c>
       <c r="T68" s="2" t="str" cm="1">
         <f t="array" ref="T68">_xlfn.REGEXEXTRACT(A68,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>txxx.com</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="B69" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>83</v>
+        <v>379</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>92</v>
+        <v>380</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>93</v>
+        <v>378</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>57</v>
@@ -6802,28 +6850,28 @@
         <v>4</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>96</v>
+        <v>382</v>
       </c>
       <c r="T69" s="2" t="str" cm="1">
         <f t="array" ref="T69">_xlfn.REGEXEXTRACT(A69,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>568</v>
+        <v>32</v>
       </c>
       <c r="B70" s="2">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>277</v>
+        <v>129</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>569</v>
+        <v>179</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>570</v>
+        <v>44</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>44</v>
@@ -6832,31 +6880,31 @@
         <v>81</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="L70" s="2" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>526</v>
+        <v>44</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>57</v>
@@ -6865,25 +6913,25 @@
         <v>4</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>571</v>
+        <v>276</v>
       </c>
       <c r="T70" s="2" t="str" cm="1">
         <f t="array" ref="T70">_xlfn.REGEXEXTRACT(A70,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" s="2">
         <v>36</v>
       </c>
-      <c r="B71" s="2">
-        <v>67</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>156</v>
+        <v>319</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>157</v>
+        <v>356</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>44</v>
@@ -6892,34 +6940,34 @@
         <v>44</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>159</v>
+        <v>358</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>160</v>
+        <v>359</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>57</v>
@@ -6928,61 +6976,61 @@
         <v>4</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>163</v>
+        <v>357</v>
       </c>
       <c r="T71" s="2" t="str" cm="1">
         <f t="array" ref="T71">_xlfn.REGEXEXTRACT(A71,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B72" s="2">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>224</v>
+        <v>338</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>95</v>
+        <v>340</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>526</v>
+        <v>154</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>57</v>
@@ -6991,61 +7039,61 @@
         <v>4</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="T72" s="2" t="str" cm="1">
         <f t="array" ref="T72">_xlfn.REGEXEXTRACT(A72,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>txxx.me</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>624</v>
+        <v>249</v>
       </c>
       <c r="B73" s="2">
+        <v>27</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>628</v>
-      </c>
       <c r="M73" s="2" t="s">
-        <v>629</v>
+        <v>431</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>630</v>
+        <v>94</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>631</v>
+        <v>44</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>57</v>
@@ -7054,61 +7102,61 @@
         <v>4</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>632</v>
+        <v>318</v>
       </c>
       <c r="T73" s="2" t="str" cm="1">
         <f t="array" ref="T73">_xlfn.REGEXEXTRACT(A73,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>655</v>
+        <v>267</v>
       </c>
       <c r="B74" s="2">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>656</v>
+        <v>306</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>657</v>
+        <v>305</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>658</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>482</v>
+        <v>119</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>434</v>
+        <v>83</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>659</v>
+        <v>66</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>660</v>
+        <v>44</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>661</v>
+        <v>44</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>601</v>
+        <v>308</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>459</v>
+        <v>44</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>57</v>
@@ -7117,25 +7165,25 @@
         <v>4</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>662</v>
+        <v>309</v>
       </c>
       <c r="T74" s="2" t="str" cm="1">
         <f t="array" ref="T74">_xlfn.REGEXEXTRACT(A74,"(?&lt;=//)[^/]+")</f>
-        <v>punishbang.com</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>663</v>
+        <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>44</v>
@@ -7147,31 +7195,31 @@
         <v>81</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>614</v>
+        <v>337</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>434</v>
+        <v>600</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>664</v>
+        <v>285</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>665</v>
+        <v>44</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>154</v>
+        <v>381</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>666</v>
+        <v>44</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>667</v>
+        <v>44</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>57</v>
@@ -7180,25 +7228,25 @@
         <v>4</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>668</v>
+        <v>307</v>
       </c>
       <c r="T75" s="2" t="str" cm="1">
         <f t="array" ref="T75">_xlfn.REGEXEXTRACT(A75,"(?&lt;=//)[^/]+")</f>
-        <v>punishbang.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>556</v>
+        <v>272</v>
       </c>
       <c r="B76" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>545</v>
+        <v>295</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>305</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>44</v>
@@ -7207,61 +7255,61 @@
         <v>44</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>557</v>
+        <v>86</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>68</v>
+        <v>337</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>441</v>
+        <v>44</v>
+      </c>
+      <c r="N76" s="2">
+        <v>69</v>
+      </c>
+      <c r="O76" s="2">
+        <v>619</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R76" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>558</v>
+        <v>296</v>
       </c>
       <c r="T76" s="2" t="str" cm="1">
         <f t="array" ref="T76">_xlfn.REGEXEXTRACT(A76,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>www.porndead.org</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="B77" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>545</v>
+        <v>393</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>44</v>
@@ -7270,61 +7318,61 @@
         <v>44</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>557</v>
+        <v>86</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>560</v>
+        <v>44</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>154</v>
+        <v>287</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>501</v>
+        <v>94</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R77" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>561</v>
+        <v>286</v>
       </c>
       <c r="T77" s="2" t="str" cm="1">
         <f t="array" ref="T77">_xlfn.REGEXEXTRACT(A77,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>xhamster18.desi</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>25</v>
+        <v>562</v>
       </c>
       <c r="B78" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>75</v>
+        <v>545</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>394</v>
+        <v>552</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>44</v>
@@ -7333,16 +7381,16 @@
         <v>44</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>67</v>
+        <v>563</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>44</v>
@@ -7354,7 +7402,7 @@
         <v>44</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>73</v>
+        <v>563</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>44</v>
@@ -7366,28 +7414,28 @@
         <v>57</v>
       </c>
       <c r="R78" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>78</v>
+        <v>564</v>
       </c>
       <c r="T78" s="2" t="str" cm="1">
         <f t="array" ref="T78">_xlfn.REGEXEXTRACT(A78,"(?&lt;=//)[^/]+")</f>
-        <v>anyporn.com</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>netfapx.net</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>270</v>
+        <v>565</v>
       </c>
       <c r="B79" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>288</v>
+        <v>545</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>289</v>
+        <v>552</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>44</v>
@@ -7399,58 +7447,58 @@
         <v>325</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>67</v>
+        <v>563</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>290</v>
+        <v>563</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R79" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>294</v>
+        <v>566</v>
       </c>
       <c r="T79" s="2" t="str" cm="1">
         <f t="array" ref="T79">_xlfn.REGEXEXTRACT(A79,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
+        <v>pornzog</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>6</v>
+        <v>683</v>
       </c>
       <c r="B80" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>306</v>
+        <v>545</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>310</v>
+        <v>552</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>44</v>
@@ -7459,97 +7507,97 @@
         <v>44</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>119</v>
+        <v>653</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>83</v>
+        <v>670</v>
       </c>
       <c r="J80" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="L80" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>92</v>
+        <v>441</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>57</v>
+        <v>653</v>
       </c>
       <c r="R80" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>312</v>
+        <v>684</v>
       </c>
       <c r="T80" s="2" t="str" cm="1">
         <f t="array" ref="T80">_xlfn.REGEXEXTRACT(A80,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>www.tubegalore.com</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="B81" s="2">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>44</v>
+        <v>435</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>57</v>
@@ -7558,25 +7606,25 @@
         <v>3</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="T81" s="2" t="str" cm="1">
         <f t="array" ref="T81">_xlfn.REGEXEXTRACT(A81,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B82" s="2">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>44</v>
@@ -7588,28 +7636,28 @@
         <v>81</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>119</v>
+        <v>311</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>299</v>
+        <v>68</v>
       </c>
       <c r="J82" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="K82" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K82" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L82" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>315</v>
+        <v>154</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>44</v>
@@ -7621,25 +7669,25 @@
         <v>3</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>316</v>
+        <v>506</v>
       </c>
       <c r="T82" s="2" t="str" cm="1">
         <f t="array" ref="T82">_xlfn.REGEXEXTRACT(A82,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>curebdsm.com</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>2</v>
+        <v>633</v>
       </c>
       <c r="B83" s="2">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>319</v>
+        <v>113</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>133</v>
+        <v>634</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>44</v>
@@ -7648,34 +7696,34 @@
         <v>44</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>337</v>
+        <v>520</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>285</v>
+        <v>635</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>44</v>
+        <v>636</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>93</v>
+        <v>637</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>320</v>
+        <v>638</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>57</v>
@@ -7684,61 +7732,61 @@
         <v>3</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>321</v>
+        <v>639</v>
       </c>
       <c r="T83" s="2" t="str" cm="1">
         <f t="array" ref="T83">_xlfn.REGEXEXTRACT(A83,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B84" s="2">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>324</v>
+        <v>408</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="J84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L84" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K84" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="M84" s="2" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="O84" s="2">
         <v>69</v>
       </c>
+      <c r="O84" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="P84" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>57</v>
@@ -7747,25 +7795,25 @@
         <v>3</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="T84" s="2" t="str" cm="1">
         <f t="array" ref="T84">_xlfn.REGEXEXTRACT(A84,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>27</v>
+        <v>486</v>
       </c>
       <c r="B85" s="2">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>331</v>
+        <v>156</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>332</v>
+        <v>487</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>44</v>
@@ -7774,34 +7822,34 @@
         <v>44</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>326</v>
+        <v>158</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>334</v>
+        <v>488</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>337</v>
+        <v>489</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>336</v>
+        <v>61</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>44</v>
+        <v>472</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>44</v>
+        <v>491</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>154</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>57</v>
@@ -7810,49 +7858,49 @@
         <v>3</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>333</v>
+        <v>490</v>
       </c>
       <c r="T85" s="2" t="str" cm="1">
         <f t="array" ref="T85">_xlfn.REGEXEXTRACT(A85,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>pervtube.net</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="B86" s="2">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>345</v>
+        <v>83</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>346</v>
+        <v>177</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>348</v>
+        <v>488</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>44</v>
@@ -7861,7 +7909,7 @@
         <v>154</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>44</v>
@@ -7873,25 +7921,25 @@
         <v>3</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="T86" s="2" t="str" cm="1">
         <f t="array" ref="T86">_xlfn.REGEXEXTRACT(A86,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>www.pornhits.com</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>273</v>
+        <v>19</v>
       </c>
       <c r="B87" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>360</v>
+        <v>277</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>44</v>
@@ -7900,34 +7948,34 @@
         <v>44</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>86</v>
+        <v>420</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>365</v>
+        <v>119</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>44</v>
+        <v>448</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>363</v>
+        <v>93</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>320</v>
+        <v>192</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="Q87" s="2" t="s">
         <v>57</v>
@@ -7936,61 +7984,61 @@
         <v>3</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="T87" s="2" t="str" cm="1">
         <f t="array" ref="T87">_xlfn.REGEXEXTRACT(A87,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B88" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>383</v>
+        <v>281</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>44</v>
+        <v>456</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>86</v>
+        <v>458</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K88" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="L88" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="M88" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>380</v>
+        <v>285</v>
+      </c>
+      <c r="N88" s="2">
+        <v>69</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>93</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>57</v>
@@ -7999,11 +8047,11 @@
         <v>3</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>384</v>
+        <v>457</v>
       </c>
       <c r="T88" s="2" t="str" cm="1">
         <f t="array" ref="T88">_xlfn.REGEXEXTRACT(A88,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -8134,16 +8182,16 @@
     </row>
     <row r="91" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B91" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>277</v>
+        <v>383</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>443</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>44</v>
@@ -8152,34 +8200,34 @@
         <v>44</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>420</v>
+        <v>302</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>118</v>
+        <v>337</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="N91" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="O91" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O91" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="P91" s="2" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>57</v>
@@ -8188,61 +8236,61 @@
         <v>3</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="T91" s="2" t="str" cm="1">
         <f t="array" ref="T91">_xlfn.REGEXEXTRACT(A91,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
       <c r="B92" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>340</v>
+        <v>86</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>458</v>
+        <v>230</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N92" s="2">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>93</v>
+        <v>320</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>154</v>
+        <v>342</v>
       </c>
       <c r="Q92" s="2" t="s">
         <v>57</v>
@@ -8251,49 +8299,49 @@
         <v>3</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>457</v>
+        <v>364</v>
       </c>
       <c r="T92" s="2" t="str" cm="1">
         <f t="array" ref="T92">_xlfn.REGEXEXTRACT(A92,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="B93" s="2">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>83</v>
+        <v>345</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>177</v>
+        <v>346</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>488</v>
+        <v>348</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>44</v>
@@ -8302,7 +8350,7 @@
         <v>154</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>44</v>
@@ -8314,61 +8362,61 @@
         <v>3</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>214</v>
+        <v>347</v>
       </c>
       <c r="T93" s="2" t="str" cm="1">
         <f t="array" ref="T93">_xlfn.REGEXEXTRACT(A93,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>486</v>
+        <v>42</v>
       </c>
       <c r="B94" s="2">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>156</v>
+        <v>322</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>487</v>
+        <v>323</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>158</v>
+        <v>330</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>488</v>
+        <v>84</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>489</v>
+        <v>127</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>472</v>
+        <v>329</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>491</v>
+        <v>44</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>93</v>
+        <v>161</v>
+      </c>
+      <c r="O94" s="2">
+        <v>69</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>386</v>
+        <v>103</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>57</v>
@@ -8377,61 +8425,61 @@
         <v>3</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>490</v>
+        <v>327</v>
       </c>
       <c r="T94" s="2" t="str" cm="1">
         <f t="array" ref="T94">_xlfn.REGEXEXTRACT(A94,"(?&lt;=//)[^/]+")</f>
-        <v>pervtube.net</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B95" s="2">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>402</v>
+        <v>332</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>408</v>
+        <v>44</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>100</v>
+        <v>334</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>152</v>
+        <v>337</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>153</v>
+        <v>336</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>57</v>
@@ -8440,25 +8488,25 @@
         <v>3</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>211</v>
+        <v>333</v>
       </c>
       <c r="T95" s="2" t="str" cm="1">
         <f t="array" ref="T95">_xlfn.REGEXEXTRACT(A95,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>www.pornhub.com</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>269</v>
+        <v>2</v>
       </c>
       <c r="B96" s="2">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>44</v>
@@ -8467,19 +8515,19 @@
         <v>44</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>311</v>
+        <v>86</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>68</v>
+        <v>337</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>527</v>
+        <v>285</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>44</v>
@@ -8488,13 +8536,13 @@
         <v>44</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="Q96" s="2" t="s">
         <v>57</v>
@@ -8503,25 +8551,25 @@
         <v>3</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>506</v>
+        <v>321</v>
       </c>
       <c r="T96" s="2" t="str" cm="1">
         <f t="array" ref="T96">_xlfn.REGEXEXTRACT(A96,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>www.pornhub.com</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="B97" s="2">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>44</v>
@@ -8533,31 +8581,31 @@
         <v>81</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>106</v>
+        <v>299</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>100</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>107</v>
+        <v>315</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>435</v>
+        <v>196</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>57</v>
@@ -8566,61 +8614,61 @@
         <v>3</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="T97" s="2" t="str" cm="1">
         <f t="array" ref="T97">_xlfn.REGEXEXTRACT(A97,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>633</v>
+        <v>188</v>
       </c>
       <c r="B98" s="2">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>634</v>
+        <v>189</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>635</v>
+        <v>222</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>636</v>
+        <v>44</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>114</v>
+        <v>218</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>637</v>
+        <v>44</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>638</v>
+        <v>44</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>57</v>
@@ -8629,25 +8677,25 @@
         <v>3</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>639</v>
+        <v>221</v>
       </c>
       <c r="T98" s="2" t="str" cm="1">
         <f t="array" ref="T98">_xlfn.REGEXEXTRACT(A98,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>231</v>
+        <v>6</v>
       </c>
       <c r="B99" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>44</v>
@@ -8656,28 +8704,28 @@
         <v>44</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>235</v>
+        <v>83</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>67</v>
+        <v>311</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>44</v>
@@ -8689,10 +8737,10 @@
         <v>57</v>
       </c>
       <c r="R99" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="T99" s="2" t="str" cm="1">
         <f t="array" ref="T99">_xlfn.REGEXEXTRACT(A99,"(?&lt;=//)[^/]+")</f>
@@ -8701,97 +8749,97 @@
     </row>
     <row r="100" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="B100" s="2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>596</v>
+        <v>67</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="Q100" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R100" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="T100" s="2" t="str" cm="1">
         <f t="array" ref="T100">_xlfn.REGEXEXTRACT(A100,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>www.tnaflix.com</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="B101" s="2">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>191</v>
+        <v>394</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>44</v>
@@ -8803,7 +8851,7 @@
         <v>44</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>44</v>
@@ -8815,28 +8863,28 @@
         <v>57</v>
       </c>
       <c r="R101" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="T101" s="2" t="str" cm="1">
         <f t="array" ref="T101">_xlfn.REGEXEXTRACT(A101,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>anyporn.com</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>265</v>
+        <v>556</v>
       </c>
       <c r="B102" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>97</v>
+        <v>545</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>44</v>
@@ -8848,58 +8896,58 @@
         <v>81</v>
       </c>
       <c r="H102" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="I102" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I102" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="J102" s="2" t="s">
-        <v>337</v>
+        <v>68</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>44</v>
+        <v>554</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>519</v>
+        <v>342</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R102" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>351</v>
+        <v>558</v>
       </c>
       <c r="T102" s="2" t="str" cm="1">
         <f t="array" ref="T102">_xlfn.REGEXEXTRACT(A102,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>curebdsm.com</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>33</v>
+        <v>559</v>
       </c>
       <c r="B103" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>113</v>
+        <v>545</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>179</v>
+        <v>349</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>44</v>
@@ -8908,97 +8956,97 @@
         <v>44</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>119</v>
+        <v>557</v>
       </c>
       <c r="I103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="L103" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="M103" s="2" t="s">
-        <v>431</v>
+        <v>66</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>342</v>
+        <v>154</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>335</v>
+        <v>501</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>430</v>
+        <v>69</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R103" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>428</v>
+        <v>561</v>
       </c>
       <c r="T103" s="2" t="str" cm="1">
         <f t="array" ref="T103">_xlfn.REGEXEXTRACT(A103,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="B104" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>224</v>
+        <v>579</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>464</v>
+        <v>580</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>466</v>
+        <v>581</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>84</v>
+        <v>582</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>127</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>468</v>
+        <v>230</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>469</v>
+        <v>86</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>441</v>
+        <v>335</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>161</v>
+        <v>583</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>57</v>
@@ -9007,11 +9055,11 @@
         <v>2</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>467</v>
+        <v>584</v>
       </c>
       <c r="T104" s="2" t="str" cm="1">
         <f t="array" ref="T104">_xlfn.REGEXEXTRACT(A104,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+        <v>www.peekvids.com</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -9140,54 +9188,54 @@
         <v>www.omg.xxx</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>578</v>
+        <v>251</v>
       </c>
       <c r="B107" s="2">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>579</v>
+        <v>224</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>580</v>
+        <v>464</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>44</v>
+        <v>465</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>325</v>
+        <v>82</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>581</v>
+        <v>466</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>582</v>
+        <v>84</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>127</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>230</v>
+        <v>468</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>86</v>
+        <v>469</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>335</v>
+        <v>441</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>583</v>
+        <v>161</v>
       </c>
       <c r="Q107" s="2" t="s">
         <v>57</v>
@@ -9196,25 +9244,25 @@
         <v>2</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>584</v>
+        <v>467</v>
       </c>
       <c r="T107" s="2" t="str" cm="1">
         <f t="array" ref="T107">_xlfn.REGEXEXTRACT(A107,"(?&lt;=//)[^/]+")</f>
-        <v>www.peekvids.com</v>
+        <v>m.hqporner.com</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B108" s="2">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>301</v>
+        <v>113</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>44</v>
@@ -9223,79 +9271,79 @@
         <v>44</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>325</v>
+        <v>82</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>297</v>
+        <v>119</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>299</v>
+        <v>429</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>302</v>
+        <v>149</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>44</v>
+        <v>431</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R108" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>303</v>
+        <v>428</v>
       </c>
       <c r="T108" s="2" t="str" cm="1">
         <f t="array" ref="T108">_xlfn.REGEXEXTRACT(A108,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="B109" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>189</v>
+        <v>349</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>193</v>
+        <v>350</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>112</v>
+        <v>337</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>66</v>
@@ -9307,7 +9355,7 @@
         <v>44</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>192</v>
+        <v>519</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>44</v>
@@ -9319,22 +9367,22 @@
         <v>57</v>
       </c>
       <c r="R109" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>194</v>
+        <v>351</v>
       </c>
       <c r="T109" s="2" t="str" cm="1">
         <f t="array" ref="T109">_xlfn.REGEXEXTRACT(A109,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="B110" s="2">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>191</v>
@@ -9343,7 +9391,7 @@
         <v>191</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>44</v>
@@ -9352,13 +9400,13 @@
         <v>82</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>452</v>
+        <v>99</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>44</v>
@@ -9370,10 +9418,10 @@
         <v>44</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>44</v>
@@ -9382,14 +9430,329 @@
         <v>57</v>
       </c>
       <c r="R110" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>470</v>
+        <v>314</v>
       </c>
       <c r="T110" s="2" t="str" cm="1">
         <f t="array" ref="T110">_xlfn.REGEXEXTRACT(A110,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="2">
+        <v>18</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R111" s="3">
+        <v>2</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T111" s="2" t="str" cm="1">
+        <f t="array" ref="T111">_xlfn.REGEXEXTRACT(A111,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B112" s="2">
+        <v>14</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R112" s="3">
+        <v>2</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T112" s="2" t="str" cm="1">
+        <f t="array" ref="T112">_xlfn.REGEXEXTRACT(A112,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" s="2">
+        <v>48</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R113" s="3">
+        <v>1</v>
+      </c>
+      <c r="S113" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="T113" s="2" t="str" cm="1">
+        <f t="array" ref="T113">_xlfn.REGEXEXTRACT(A113,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B114" s="2">
+        <v>34</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R114" s="3">
+        <v>1</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="T114" s="2" t="str" cm="1">
+        <f t="array" ref="T114">_xlfn.REGEXEXTRACT(A114,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="2">
+        <v>11</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R115" s="3">
+        <v>1</v>
+      </c>
+      <c r="S115" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="T115" s="2" t="str" cm="1">
+        <f t="array" ref="T115">_xlfn.REGEXEXTRACT(A115,"(?&lt;=//)[^/]+")</f>
+        <v>www.pornhub.com</v>
       </c>
     </row>
   </sheetData>
@@ -9397,12 +9760,29 @@
     <sortCondition descending="1" ref="R1:R98"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:T110">
+  <conditionalFormatting sqref="A1:T1">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:T115">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R110">
+  <conditionalFormatting sqref="R2:R115">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/data/links.xlsx
+++ b/data/links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crypto\Private\LQDU\LinkBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246E9DB6-2CCF-4B7C-B25A-D5F752E41824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E28E3C5-AA7F-4120-9456-75A66CB340A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSFW_Links" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="769">
   <si>
     <t>https://xhamster18.desi/videos/nubile-films-seductive-games-of-passion-3267609</t>
   </si>
@@ -1158,9 +1158,6 @@
     <t>tushy</t>
   </si>
   <si>
-    <t>paige owens</t>
-  </si>
-  <si>
     <t>paige full nelson at 12m,riley full nelson at 21m,riley pretzel at 24m</t>
   </si>
   <si>
@@ -1680,9 +1677,6 @@
     <t>tit flogging at 9m,nipple clamps at 10m,water boarding at 25m</t>
   </si>
   <si>
-    <t>zlink</t>
-  </si>
-  <si>
     <t>https://pornxp.com/tags/InnocentHigh</t>
   </si>
   <si>
@@ -2368,6 +2362,9 @@
   </si>
   <si>
     <t>flogging at 9m,heels on dick at 13m,paddle spank at 22m,cunilingus at 30m,69 at 40m,leash doggy at 45m</t>
+  </si>
+  <si>
+    <t>websitelink</t>
   </si>
 </sst>
 </file>
@@ -2450,7 +2447,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6161"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2736,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
   <dimension ref="A1:T135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T135"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:T135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,16 +2816,16 @@
     </row>
     <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>43</v>
@@ -2833,7 +2837,7 @@
         <v>80</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>99</v>
@@ -2842,16 +2846,16 @@
         <v>67</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>82</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>338</v>
@@ -2866,7 +2870,7 @@
         <v>8</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="T2" s="2" t="str" cm="1">
         <f t="array" ref="T2">_xlfn.REGEXEXTRACT(A2,"(?&lt;=//)[^/]+")</f>
@@ -2875,16 +2879,16 @@
     </row>
     <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>43</v>
@@ -2896,7 +2900,7 @@
         <v>157</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>344</v>
@@ -2908,16 +2912,16 @@
         <v>158</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>153</v>
@@ -2929,7 +2933,7 @@
         <v>8</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="T3" s="2" t="str" cm="1">
         <f t="array" ref="T3">_xlfn.REGEXEXTRACT(A3,"(?&lt;=//)[^/]+")</f>
@@ -2938,7 +2942,7 @@
     </row>
     <row r="4" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B4" s="2">
         <v>87</v>
@@ -2947,7 +2951,7 @@
         <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>43</v>
@@ -2962,7 +2966,7 @@
         <v>293</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>138</v>
@@ -2974,13 +2978,13 @@
         <v>67</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>92</v>
@@ -2992,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="T4" s="2" t="str" cm="1">
         <f t="array" ref="T4">_xlfn.REGEXEXTRACT(A4,"(?&lt;=//)[^/]+")</f>
@@ -3001,16 +3005,16 @@
     </row>
     <row r="5" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B5" s="2">
         <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>43</v>
@@ -3034,13 +3038,13 @@
         <v>82</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>93</v>
@@ -3055,7 +3059,7 @@
         <v>8</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="T5" s="2" t="str" cm="1">
         <f t="array" ref="T5">_xlfn.REGEXEXTRACT(A5,"(?&lt;=//)[^/]+")</f>
@@ -3070,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>547</v>
+        <v>251</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>43</v>
@@ -3127,7 +3131,7 @@
     </row>
     <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -3136,7 +3140,7 @@
         <v>155</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>43</v>
@@ -3157,13 +3161,13 @@
         <v>293</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>160</v>
@@ -3181,7 +3185,7 @@
         <v>7</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="T7" s="2" t="str" cm="1">
         <f t="array" ref="T7">_xlfn.REGEXEXTRACT(A7,"(?&lt;=//)[^/]+")</f>
@@ -3190,16 +3194,16 @@
     </row>
     <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>43</v>
@@ -3211,7 +3215,7 @@
         <v>157</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>344</v>
@@ -3223,7 +3227,7 @@
         <v>160</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>234</v>
@@ -3232,7 +3236,7 @@
         <v>92</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>92</v>
@@ -3244,7 +3248,7 @@
         <v>7</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="T8" s="2" t="str" cm="1">
         <f t="array" ref="T8">_xlfn.REGEXEXTRACT(A8,"(?&lt;=//)[^/]+")</f>
@@ -3253,16 +3257,16 @@
     </row>
     <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>43</v>
@@ -3271,7 +3275,7 @@
         <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>43</v>
@@ -3292,13 +3296,13 @@
         <v>43</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>359</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>56</v>
@@ -3307,7 +3311,7 @@
         <v>7</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="T9" s="2" t="str" cm="1">
         <f t="array" ref="T9">_xlfn.REGEXEXTRACT(A9,"(?&lt;=//)[^/]+")</f>
@@ -3316,16 +3320,16 @@
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>43</v>
@@ -3334,7 +3338,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>43</v>
@@ -3355,10 +3359,10 @@
         <v>43</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>92</v>
@@ -3370,14 +3374,14 @@
         <v>7</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="T10" s="2" t="str" cm="1">
         <f t="array" ref="T10">_xlfn.REGEXEXTRACT(A10,"(?&lt;=//)[^/]+")</f>
         <v>www.fuq.com</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>258</v>
       </c>
@@ -3406,16 +3410,16 @@
         <v>99</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>76</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>113</v>
@@ -3433,7 +3437,7 @@
         <v>7</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T11" s="2" t="str" cm="1">
         <f t="array" ref="T11">_xlfn.REGEXEXTRACT(A11,"(?&lt;=//)[^/]+")</f>
@@ -3514,7 +3518,7 @@
         <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>43</v>
@@ -3532,7 +3536,7 @@
         <v>67</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>124</v>
@@ -3547,7 +3551,7 @@
         <v>217</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>92</v>
@@ -3559,7 +3563,7 @@
         <v>7</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T13" s="2" t="str" cm="1">
         <f t="array" ref="T13">_xlfn.REGEXEXTRACT(A13,"(?&lt;=//)[^/]+")</f>
@@ -3577,7 +3581,7 @@
         <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>43</v>
@@ -3629,9 +3633,9 @@
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B15" s="2">
         <v>56</v>
@@ -3640,7 +3644,7 @@
         <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
@@ -3658,13 +3662,13 @@
         <v>99</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>126</v>
@@ -3673,7 +3677,7 @@
         <v>131</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>153</v>
@@ -3685,7 +3689,7 @@
         <v>7</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="T15" s="2" t="str" cm="1">
         <f t="array" ref="T15">_xlfn.REGEXEXTRACT(A15,"(?&lt;=//)[^/]+")</f>
@@ -3694,7 +3698,7 @@
     </row>
     <row r="16" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B16" s="2">
         <v>73</v>
@@ -3703,7 +3707,7 @@
         <v>274</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>43</v>
@@ -3715,7 +3719,7 @@
         <v>80</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>85</v>
@@ -3727,16 +3731,16 @@
         <v>82</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>333</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>338</v>
@@ -3748,7 +3752,7 @@
         <v>7</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="T16" s="2" t="str" cm="1">
         <f t="array" ref="T16">_xlfn.REGEXEXTRACT(A16,"(?&lt;=//)[^/]+")</f>
@@ -3763,13 +3767,13 @@
         <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>43</v>
@@ -3778,7 +3782,7 @@
         <v>79</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>99</v>
@@ -3818,18 +3822,18 @@
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B18" s="2">
         <v>111</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>43</v>
@@ -3844,13 +3848,13 @@
         <v>99</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>138</v>
@@ -3859,13 +3863,13 @@
         <v>67</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>56</v>
@@ -3874,16 +3878,16 @@
         <v>7</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="T18" s="2" t="str" cm="1">
         <f t="array" ref="T18">_xlfn.REGEXEXTRACT(A18,"(?&lt;=//)[^/]+")</f>
         <v>punishworld.com</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B19" s="2">
         <v>46</v>
@@ -3892,7 +3896,7 @@
         <v>155</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>43</v>
@@ -3904,7 +3908,7 @@
         <v>157</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>118</v>
@@ -3916,7 +3920,7 @@
         <v>82</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>60</v>
@@ -3928,7 +3932,7 @@
         <v>153</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>56</v>
@@ -3937,7 +3941,7 @@
         <v>7</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="T19" s="2" t="str" cm="1">
         <f t="array" ref="T19">_xlfn.REGEXEXTRACT(A19,"(?&lt;=//)[^/]+")</f>
@@ -3946,19 +3950,19 @@
     </row>
     <row r="20" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>547</v>
+        <v>352</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>352</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>43</v>
@@ -3967,7 +3971,7 @@
         <v>321</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>85</v>
@@ -3979,10 +3983,10 @@
         <v>229</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>93</v>
@@ -4000,7 +4004,7 @@
         <v>6</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="T20" s="2" t="str" cm="1">
         <f t="array" ref="T20">_xlfn.REGEXEXTRACT(A20,"(?&lt;=//)[^/]+")</f>
@@ -4009,16 +4013,16 @@
     </row>
     <row r="21" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>43</v>
@@ -4039,7 +4043,7 @@
         <v>71</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>138</v>
@@ -4063,7 +4067,7 @@
         <v>6</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="T21" s="2" t="str" cm="1">
         <f t="array" ref="T21">_xlfn.REGEXEXTRACT(A21,"(?&lt;=//)[^/]+")</f>
@@ -4072,16 +4076,16 @@
     </row>
     <row r="22" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>43</v>
@@ -4105,10 +4109,10 @@
         <v>85</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>153</v>
@@ -4126,7 +4130,7 @@
         <v>6</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="T22" s="2" t="str" cm="1">
         <f t="array" ref="T22">_xlfn.REGEXEXTRACT(A22,"(?&lt;=//)[^/]+")</f>
@@ -4135,16 +4139,16 @@
     </row>
     <row r="23" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>43</v>
@@ -4156,7 +4160,7 @@
         <v>157</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>60</v>
@@ -4165,13 +4169,13 @@
         <v>85</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>92</v>
@@ -4180,7 +4184,7 @@
         <v>93</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>56</v>
@@ -4189,7 +4193,7 @@
         <v>6</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="T23" s="2" t="str" cm="1">
         <f t="array" ref="T23">_xlfn.REGEXEXTRACT(A23,"(?&lt;=//)[^/]+")</f>
@@ -4198,16 +4202,16 @@
     </row>
     <row r="24" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>43</v>
@@ -4219,31 +4223,31 @@
         <v>157</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>236</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>92</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>56</v>
@@ -4252,7 +4256,7 @@
         <v>6</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="T24" s="2" t="str" cm="1">
         <f t="array" ref="T24">_xlfn.REGEXEXTRACT(A24,"(?&lt;=//)[^/]+")</f>
@@ -4261,16 +4265,16 @@
     </row>
     <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>43</v>
@@ -4285,19 +4289,19 @@
         <v>60</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>92</v>
@@ -4306,7 +4310,7 @@
         <v>316</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>56</v>
@@ -4315,7 +4319,7 @@
         <v>6</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="T25" s="2" t="str" cm="1">
         <f t="array" ref="T25">_xlfn.REGEXEXTRACT(A25,"(?&lt;=//)[^/]+")</f>
@@ -4324,16 +4328,16 @@
     </row>
     <row r="26" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>43</v>
@@ -4345,19 +4349,19 @@
         <v>157</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>344</v>
@@ -4369,7 +4373,7 @@
         <v>153</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>56</v>
@@ -4378,7 +4382,7 @@
         <v>6</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="T26" s="2" t="str" cm="1">
         <f t="array" ref="T26">_xlfn.REGEXEXTRACT(A26,"(?&lt;=//)[^/]+")</f>
@@ -4387,16 +4391,16 @@
     </row>
     <row r="27" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B27" s="2">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>43</v>
@@ -4408,40 +4412,40 @@
         <v>80</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>92</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="R27" s="2">
         <v>6</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="T27" s="2" t="str" cm="1">
         <f t="array" ref="T27">_xlfn.REGEXEXTRACT(A27,"(?&lt;=//)[^/]+")</f>
@@ -4525,7 +4529,7 @@
         <v>319</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>366</v>
+        <v>43</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>43</v>
@@ -4534,7 +4538,7 @@
         <v>322</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>85</v>
@@ -4543,7 +4547,7 @@
         <v>229</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>83</v>
@@ -4567,7 +4571,7 @@
         <v>6</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T29" s="2" t="str" cm="1">
         <f t="array" ref="T29">_xlfn.REGEXEXTRACT(A29,"(?&lt;=//)[^/]+")</f>
@@ -4582,10 +4586,10 @@
         <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>43</v>
@@ -4606,7 +4610,7 @@
         <v>108</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>65</v>
@@ -4615,7 +4619,7 @@
         <v>71</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>131</v>
@@ -4630,7 +4634,7 @@
         <v>6</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T30" s="2" t="str" cm="1">
         <f t="array" ref="T30">_xlfn.REGEXEXTRACT(A30,"(?&lt;=//)[^/]+")</f>
@@ -4645,7 +4649,7 @@
         <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>301</v>
@@ -4666,22 +4670,22 @@
         <v>65</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>307</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>134</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>338</v>
@@ -4693,7 +4697,7 @@
         <v>6</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T31" s="2" t="str" cm="1">
         <f t="array" ref="T31">_xlfn.REGEXEXTRACT(A31,"(?&lt;=//)[^/]+")</f>
@@ -4744,10 +4748,10 @@
         <v>338</v>
       </c>
       <c r="O32" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>56</v>
@@ -4756,7 +4760,7 @@
         <v>6</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T32" s="2" t="str" cm="1">
         <f t="array" ref="T32">_xlfn.REGEXEXTRACT(A32,"(?&lt;=//)[^/]+")</f>
@@ -4774,7 +4778,7 @@
         <v>302</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>43</v>
@@ -4792,7 +4796,7 @@
         <v>148</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>67</v>
@@ -4807,7 +4811,7 @@
         <v>338</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>191</v>
@@ -4819,7 +4823,7 @@
         <v>6</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="T33" s="2" t="str" cm="1">
         <f t="array" ref="T33">_xlfn.REGEXEXTRACT(A33,"(?&lt;=//)[^/]+")</f>
@@ -4900,7 +4904,7 @@
         <v>96</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>43</v>
@@ -4963,10 +4967,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>43</v>
@@ -4975,7 +4979,7 @@
         <v>79</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>313</v>
@@ -5026,7 +5030,7 @@
         <v>96</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>43</v>
@@ -5038,31 +5042,31 @@
         <v>81</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>222</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>93</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>56</v>
@@ -5071,7 +5075,7 @@
         <v>6</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="T37" s="2" t="str" cm="1">
         <f t="array" ref="T37">_xlfn.REGEXEXTRACT(A37,"(?&lt;=//)[^/]+")</f>
@@ -5080,16 +5084,16 @@
     </row>
     <row r="38" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B38" s="2">
         <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>43</v>
@@ -5119,13 +5123,13 @@
         <v>71</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>91</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>56</v>
@@ -5134,7 +5138,7 @@
         <v>6</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T38" s="2" t="str" cm="1">
         <f t="array" ref="T38">_xlfn.REGEXEXTRACT(A38,"(?&lt;=//)[^/]+")</f>
@@ -5143,7 +5147,7 @@
     </row>
     <row r="39" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B39" s="2">
         <v>66</v>
@@ -5152,7 +5156,7 @@
         <v>113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>43</v>
@@ -5173,7 +5177,7 @@
         <v>67</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>82</v>
@@ -5182,7 +5186,7 @@
         <v>138</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>43</v>
@@ -5197,7 +5201,7 @@
         <v>6</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="T39" s="2" t="str" cm="1">
         <f t="array" ref="T39">_xlfn.REGEXEXTRACT(A39,"(?&lt;=//)[^/]+")</f>
@@ -5215,7 +5219,7 @@
         <v>168</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>43</v>
@@ -5269,16 +5273,16 @@
     </row>
     <row r="41" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B41" s="2">
         <v>113</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>43</v>
@@ -5290,16 +5294,16 @@
         <v>157</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>60</v>
@@ -5314,16 +5318,16 @@
         <v>92</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="R41" s="2">
         <v>6</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="T41" s="2" t="str" cm="1">
         <f t="array" ref="T41">_xlfn.REGEXEXTRACT(A41,"(?&lt;=//)[^/]+")</f>
@@ -5332,19 +5336,19 @@
     </row>
     <row r="42" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>547</v>
+        <v>672</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>674</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>43</v>
@@ -5359,7 +5363,7 @@
         <v>65</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>66</v>
@@ -5377,7 +5381,7 @@
         <v>93</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>56</v>
@@ -5386,7 +5390,7 @@
         <v>5</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="T42" s="2" t="str" cm="1">
         <f t="array" ref="T42">_xlfn.REGEXEXTRACT(A42,"(?&lt;=//)[^/]+")</f>
@@ -5395,16 +5399,16 @@
     </row>
     <row r="43" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>43</v>
@@ -5419,19 +5423,19 @@
         <v>172</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J43" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>92</v>
@@ -5440,7 +5444,7 @@
         <v>68</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>56</v>
@@ -5449,7 +5453,7 @@
         <v>5</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="T43" s="2" t="str" cm="1">
         <f t="array" ref="T43">_xlfn.REGEXEXTRACT(A43,"(?&lt;=//)[^/]+")</f>
@@ -5458,16 +5462,16 @@
     </row>
     <row r="44" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>43</v>
@@ -5488,7 +5492,7 @@
         <v>117</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>43</v>
@@ -5497,7 +5501,7 @@
         <v>43</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>43</v>
@@ -5506,13 +5510,13 @@
         <v>43</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="R44" s="2">
         <v>5</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="T44" s="2" t="str" cm="1">
         <f t="array" ref="T44">_xlfn.REGEXEXTRACT(A44,"(?&lt;=//)[^/]+")</f>
@@ -5638,7 +5642,7 @@
         <v>5</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T46" s="2" t="str" cm="1">
         <f t="array" ref="T46">_xlfn.REGEXEXTRACT(A46,"(?&lt;=//)[^/]+")</f>
@@ -5647,25 +5651,25 @@
     </row>
     <row r="47" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B47" s="2">
         <v>11</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>688</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>227</v>
@@ -5674,7 +5678,7 @@
         <v>66</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>65</v>
@@ -5701,7 +5705,7 @@
         <v>5</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="T47" s="2" t="str" cm="1">
         <f t="array" ref="T47">_xlfn.REGEXEXTRACT(A47,"(?&lt;=//)[^/]+")</f>
@@ -5710,16 +5714,16 @@
     </row>
     <row r="48" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B48" s="2">
         <v>14</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>43</v>
@@ -5731,25 +5735,25 @@
         <v>157</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>60</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>92</v>
@@ -5764,7 +5768,7 @@
         <v>5</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="T48" s="2" t="str" cm="1">
         <f t="array" ref="T48">_xlfn.REGEXEXTRACT(A48,"(?&lt;=//)[^/]+")</f>
@@ -5782,10 +5786,10 @@
         <v>112</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>43</v>
@@ -5794,13 +5798,13 @@
         <v>80</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>307</v>
@@ -5968,13 +5972,13 @@
         <v>41</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>319</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>43</v>
@@ -6016,7 +6020,7 @@
         <v>5</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T52" s="2" t="str" cm="1">
         <f t="array" ref="T52">_xlfn.REGEXEXTRACT(A52,"(?&lt;=//)[^/]+")</f>
@@ -6034,10 +6038,10 @@
         <v>113</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>43</v>
@@ -6046,7 +6050,7 @@
         <v>80</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>82</v>
@@ -6061,13 +6065,13 @@
         <v>118</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>113</v>
@@ -6079,7 +6083,7 @@
         <v>5</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="T53" s="2" t="str" cm="1">
         <f t="array" ref="T53">_xlfn.REGEXEXTRACT(A53,"(?&lt;=//)[^/]+")</f>
@@ -6097,7 +6101,7 @@
         <v>96</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>43</v>
@@ -6124,7 +6128,7 @@
         <v>76</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>119</v>
@@ -6142,7 +6146,7 @@
         <v>5</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="T54" s="2" t="str" cm="1">
         <f t="array" ref="T54">_xlfn.REGEXEXTRACT(A54,"(?&lt;=//)[^/]+")</f>
@@ -6157,10 +6161,10 @@
         <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>43</v>
@@ -6187,13 +6191,13 @@
         <v>94</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>92</v>
@@ -6205,7 +6209,7 @@
         <v>5</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="T55" s="2" t="str" cm="1">
         <f t="array" ref="T55">_xlfn.REGEXEXTRACT(A55,"(?&lt;=//)[^/]+")</f>
@@ -6223,7 +6227,7 @@
         <v>113</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>43</v>
@@ -6250,16 +6254,16 @@
         <v>229</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>56</v>
@@ -6268,7 +6272,7 @@
         <v>5</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="T56" s="2" t="str" cm="1">
         <f t="array" ref="T56">_xlfn.REGEXEXTRACT(A56,"(?&lt;=//)[^/]+")</f>
@@ -6298,28 +6302,28 @@
         <v>80</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>118</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>126</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>68</v>
@@ -6331,7 +6335,7 @@
         <v>5</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="T57" s="2" t="str" cm="1">
         <f t="array" ref="T57">_xlfn.REGEXEXTRACT(A57,"(?&lt;=//)[^/]+")</f>
@@ -6346,10 +6350,10 @@
         <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>43</v>
@@ -6361,31 +6365,31 @@
         <v>81</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>117</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N58" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="P58" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>56</v>
@@ -6394,7 +6398,7 @@
         <v>5</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="T58" s="2" t="str" cm="1">
         <f t="array" ref="T58">_xlfn.REGEXEXTRACT(A58,"(?&lt;=//)[^/]+")</f>
@@ -6412,7 +6416,7 @@
         <v>155</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>43</v>
@@ -6529,16 +6533,16 @@
     </row>
     <row r="61" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B61" s="2">
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>43</v>
@@ -6553,7 +6557,7 @@
         <v>82</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>117</v>
@@ -6571,10 +6575,10 @@
         <v>91</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>56</v>
@@ -6583,7 +6587,7 @@
         <v>5</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="T61" s="2" t="str" cm="1">
         <f t="array" ref="T61">_xlfn.REGEXEXTRACT(A61,"(?&lt;=//)[^/]+")</f>
@@ -6592,7 +6596,7 @@
     </row>
     <row r="62" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B62" s="2">
         <v>62</v>
@@ -6601,7 +6605,7 @@
         <v>113</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>43</v>
@@ -6613,7 +6617,7 @@
         <v>80</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>99</v>
@@ -6625,7 +6629,7 @@
         <v>71</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>118</v>
@@ -6646,7 +6650,7 @@
         <v>5</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T62" s="2" t="str" cm="1">
         <f t="array" ref="T62">_xlfn.REGEXEXTRACT(A62,"(?&lt;=//)[^/]+")</f>
@@ -6655,7 +6659,7 @@
     </row>
     <row r="63" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B63" s="2">
         <v>65</v>
@@ -6664,7 +6668,7 @@
         <v>113</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>43</v>
@@ -6694,13 +6698,13 @@
         <v>118</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>102</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>56</v>
@@ -6709,7 +6713,7 @@
         <v>5</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="T63" s="2" t="str" cm="1">
         <f t="array" ref="T63">_xlfn.REGEXEXTRACT(A63,"(?&lt;=//)[^/]+")</f>
@@ -6718,7 +6722,7 @@
     </row>
     <row r="64" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B64" s="2">
         <v>89</v>
@@ -6727,7 +6731,7 @@
         <v>96</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>180</v>
@@ -6742,7 +6746,7 @@
         <v>99</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>71</v>
@@ -6751,19 +6755,19 @@
         <v>138</v>
       </c>
       <c r="L64" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="N64" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="O64" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="P64" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>56</v>
@@ -6772,7 +6776,7 @@
         <v>5</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="T64" s="2" t="str" cm="1">
         <f t="array" ref="T64">_xlfn.REGEXEXTRACT(A64,"(?&lt;=//)[^/]+")</f>
@@ -6781,16 +6785,16 @@
     </row>
     <row r="65" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B65" s="2">
         <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>43</v>
@@ -6802,16 +6806,16 @@
         <v>80</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>114</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>67</v>
@@ -6820,13 +6824,13 @@
         <v>82</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>56</v>
@@ -6835,7 +6839,7 @@
         <v>5</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="T65" s="2" t="str" cm="1">
         <f t="array" ref="T65">_xlfn.REGEXEXTRACT(A65,"(?&lt;=//)[^/]+")</f>
@@ -6844,19 +6848,19 @@
     </row>
     <row r="66" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B66" s="2">
         <v>128</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>43</v>
@@ -6877,10 +6881,10 @@
         <v>126</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N66" s="2">
         <v>69</v>
@@ -6898,7 +6902,7 @@
         <v>5</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="T66" s="2" t="str" cm="1">
         <f t="array" ref="T66">_xlfn.REGEXEXTRACT(A66,"(?&lt;=//)[^/]+")</f>
@@ -6907,19 +6911,19 @@
     </row>
     <row r="67" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B67" s="2">
         <v>129</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>43</v>
@@ -6928,16 +6932,16 @@
         <v>80</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>138</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>281</v>
@@ -6955,13 +6959,13 @@
         <v>92</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="R67" s="2">
         <v>5</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="T67" s="2" t="str" cm="1">
         <f t="array" ref="T67">_xlfn.REGEXEXTRACT(A67,"(?&lt;=//)[^/]+")</f>
@@ -6970,16 +6974,16 @@
     </row>
     <row r="68" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B68" s="2">
         <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>43</v>
@@ -6991,16 +6995,16 @@
         <v>80</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>67</v>
@@ -7015,7 +7019,7 @@
         <v>92</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>56</v>
@@ -7024,7 +7028,7 @@
         <v>5</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="T68" s="2" t="str" cm="1">
         <f t="array" ref="T68">_xlfn.REGEXEXTRACT(A68,"(?&lt;=//)[^/]+")</f>
@@ -7033,16 +7037,16 @@
     </row>
     <row r="69" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>43</v>
@@ -7051,7 +7055,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>43</v>
@@ -7087,7 +7091,7 @@
         <v>4</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="T69" s="2" t="str" cm="1">
         <f t="array" ref="T69">_xlfn.REGEXEXTRACT(A69,"(?&lt;=//)[^/]+")</f>
@@ -7096,16 +7100,16 @@
     </row>
     <row r="70" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>43</v>
@@ -7114,7 +7118,7 @@
         <v>43</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>43</v>
@@ -7150,7 +7154,7 @@
         <v>4</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="T70" s="2" t="str" cm="1">
         <f t="array" ref="T70">_xlfn.REGEXEXTRACT(A70,"(?&lt;=//)[^/]+")</f>
@@ -7159,16 +7163,16 @@
     </row>
     <row r="71" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>43</v>
@@ -7180,13 +7184,13 @@
         <v>157</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>99</v>
@@ -7198,22 +7202,22 @@
         <v>293</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>131</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="R71" s="2">
         <v>4</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="T71" s="2" t="str" cm="1">
         <f t="array" ref="T71">_xlfn.REGEXEXTRACT(A71,"(?&lt;=//)[^/]+")</f>
@@ -7228,7 +7232,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>279</v>
@@ -7378,7 +7382,7 @@
         <v>126</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>281</v>
@@ -7387,7 +7391,7 @@
         <v>43</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>43</v>
@@ -7483,7 +7487,7 @@
         <v>96</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>180</v>
@@ -7510,7 +7514,7 @@
         <v>65</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>191</v>
@@ -7735,7 +7739,7 @@
         <v>96</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>43</v>
@@ -7750,7 +7754,7 @@
         <v>71</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>99</v>
@@ -7765,10 +7769,10 @@
         <v>43</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>43</v>
@@ -7780,7 +7784,7 @@
         <v>4</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T80" s="2" t="str" cm="1">
         <f t="array" ref="T80">_xlfn.REGEXEXTRACT(A80,"(?&lt;=//)[^/]+")</f>
@@ -7798,7 +7802,7 @@
         <v>112</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>43</v>
@@ -7810,31 +7814,31 @@
         <v>80</v>
       </c>
       <c r="H81" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>307</v>
       </c>
       <c r="K81" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M81" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="L81" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="N81" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>56</v>
@@ -7843,7 +7847,7 @@
         <v>4</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T81" s="2" t="str" cm="1">
         <f t="array" ref="T81">_xlfn.REGEXEXTRACT(A81,"(?&lt;=//)[^/]+")</f>
@@ -7858,19 +7862,19 @@
         <v>44</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>124</v>
@@ -7879,7 +7883,7 @@
         <v>67</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>65</v>
@@ -7897,7 +7901,7 @@
         <v>91</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q82" s="2" t="s">
         <v>56</v>
@@ -7906,7 +7910,7 @@
         <v>4</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T82" s="2" t="str" cm="1">
         <f t="array" ref="T82">_xlfn.REGEXEXTRACT(A82,"(?&lt;=//)[^/]+")</f>
@@ -7924,7 +7928,7 @@
         <v>113</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>43</v>
@@ -7936,10 +7940,10 @@
         <v>80</v>
       </c>
       <c r="H83" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>76</v>
@@ -7951,13 +7955,13 @@
         <v>114</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>153</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P83" s="2" t="s">
         <v>113</v>
@@ -7969,7 +7973,7 @@
         <v>4</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="T83" s="2" t="str" cm="1">
         <f t="array" ref="T83">_xlfn.REGEXEXTRACT(A83,"(?&lt;=//)[^/]+")</f>
@@ -7987,7 +7991,7 @@
         <v>112</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>43</v>
@@ -7999,25 +8003,25 @@
         <v>80</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>71</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K84" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="L84" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="L84" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="M84" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>191</v>
@@ -8032,7 +8036,7 @@
         <v>4</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T84" s="2" t="str" cm="1">
         <f t="array" ref="T84">_xlfn.REGEXEXTRACT(A84,"(?&lt;=//)[^/]+")</f>
@@ -8050,7 +8054,7 @@
         <v>302</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>43</v>
@@ -8083,7 +8087,7 @@
         <v>113</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>153</v>
@@ -8095,7 +8099,7 @@
         <v>4</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="T85" s="2" t="str" cm="1">
         <f t="array" ref="T85">_xlfn.REGEXEXTRACT(A85,"(?&lt;=//)[^/]+")</f>
@@ -8110,7 +8114,7 @@
         <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>178</v>
@@ -8125,22 +8129,22 @@
         <v>81</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>342</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>99</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N86" s="2">
         <v>69</v>
@@ -8149,7 +8153,7 @@
         <v>191</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>56</v>
@@ -8158,7 +8162,7 @@
         <v>4</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T86" s="2" t="str" cm="1">
         <f t="array" ref="T86">_xlfn.REGEXEXTRACT(A86,"(?&lt;=//)[^/]+")</f>
@@ -8176,7 +8180,7 @@
         <v>113</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>43</v>
@@ -8197,7 +8201,7 @@
         <v>346</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>65</v>
@@ -8206,10 +8210,10 @@
         <v>118</v>
       </c>
       <c r="N87" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="O87" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>102</v>
@@ -8221,7 +8225,7 @@
         <v>4</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T87" s="2" t="str" cm="1">
         <f t="array" ref="T87">_xlfn.REGEXEXTRACT(A87,"(?&lt;=//)[^/]+")</f>
@@ -8239,7 +8243,7 @@
         <v>112</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>43</v>
@@ -8257,7 +8261,7 @@
         <v>138</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>118</v>
@@ -8293,7 +8297,7 @@
     </row>
     <row r="89" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B89" s="2">
         <v>58</v>
@@ -8302,10 +8306,10 @@
         <v>96</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>43</v>
@@ -8317,10 +8321,10 @@
         <v>67</v>
       </c>
       <c r="I89" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>98</v>
@@ -8338,7 +8342,7 @@
         <v>316</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>56</v>
@@ -8347,7 +8351,7 @@
         <v>4</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T89" s="2" t="str" cm="1">
         <f t="array" ref="T89">_xlfn.REGEXEXTRACT(A89,"(?&lt;=//)[^/]+")</f>
@@ -8365,10 +8369,10 @@
         <v>224</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>43</v>
@@ -8419,7 +8423,7 @@
     </row>
     <row r="91" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B91" s="2">
         <v>60</v>
@@ -8428,10 +8432,10 @@
         <v>274</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>43</v>
@@ -8449,7 +8453,7 @@
         <v>99</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>126</v>
@@ -8464,7 +8468,7 @@
         <v>92</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>56</v>
@@ -8473,7 +8477,7 @@
         <v>4</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T91" s="2" t="str" cm="1">
         <f t="array" ref="T91">_xlfn.REGEXEXTRACT(A91,"(?&lt;=//)[^/]+")</f>
@@ -8482,16 +8486,16 @@
     </row>
     <row r="92" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B92" s="2">
         <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>43</v>
@@ -8503,31 +8507,31 @@
         <v>321</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>293</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>85</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>153</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q92" s="2" t="s">
         <v>56</v>
@@ -8536,7 +8540,7 @@
         <v>4</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="T92" s="2" t="str" cm="1">
         <f t="array" ref="T92">_xlfn.REGEXEXTRACT(A92,"(?&lt;=//)[^/]+")</f>
@@ -8617,10 +8621,10 @@
         <v>223</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>43</v>
@@ -8647,7 +8651,7 @@
         <v>43</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>153</v>
@@ -8671,19 +8675,19 @@
     </row>
     <row r="95" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B95" s="2">
         <v>170</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>43</v>
@@ -8692,31 +8696,31 @@
         <v>81</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>118</v>
       </c>
       <c r="K95" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="M95" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>153</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>56</v>
@@ -8725,7 +8729,7 @@
         <v>4</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="T95" s="2" t="str" cm="1">
         <f t="array" ref="T95">_xlfn.REGEXEXTRACT(A95,"(?&lt;=//)[^/]+")</f>
@@ -8734,16 +8738,16 @@
     </row>
     <row r="96" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B96" s="2">
         <v>182</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>43</v>
@@ -8755,31 +8759,31 @@
         <v>80</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>153</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="Q96" s="2" t="s">
         <v>56</v>
@@ -8788,7 +8792,7 @@
         <v>4</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="T96" s="2" t="str" cm="1">
         <f t="array" ref="T96">_xlfn.REGEXEXTRACT(A96,"(?&lt;=//)[^/]+")</f>
@@ -8797,7 +8801,7 @@
     </row>
     <row r="97" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B97" s="2">
         <v>22</v>
@@ -8806,7 +8810,7 @@
         <v>231</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>43</v>
@@ -8818,7 +8822,7 @@
         <v>157</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>82</v>
@@ -8830,19 +8834,19 @@
         <v>99</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>92</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>56</v>
@@ -8851,7 +8855,7 @@
         <v>4</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="T97" s="2" t="str" cm="1">
         <f t="array" ref="T97">_xlfn.REGEXEXTRACT(A97,"(?&lt;=//)[^/]+")</f>
@@ -8860,19 +8864,19 @@
     </row>
     <row r="98" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B98" s="2">
         <v>0</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>547</v>
+        <v>301</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>301</v>
+        <v>43</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>43</v>
@@ -8881,7 +8885,7 @@
         <v>80</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>99</v>
@@ -8896,16 +8900,16 @@
         <v>85</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>338</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>56</v>
@@ -8914,7 +8918,7 @@
         <v>3</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="T98" s="2" t="str" cm="1">
         <f t="array" ref="T98">_xlfn.REGEXEXTRACT(A98,"(?&lt;=//)[^/]+")</f>
@@ -8923,19 +8927,19 @@
     </row>
     <row r="99" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B99" s="2">
         <v>0</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>547</v>
+        <v>345</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>43</v>
@@ -8944,7 +8948,7 @@
         <v>80</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>99</v>
@@ -8953,7 +8957,7 @@
         <v>138</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>67</v>
@@ -8965,7 +8969,7 @@
         <v>153</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>68</v>
@@ -8977,7 +8981,7 @@
         <v>3</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="T99" s="2" t="str" cm="1">
         <f t="array" ref="T99">_xlfn.REGEXEXTRACT(A99,"(?&lt;=//)[^/]+")</f>
@@ -8986,7 +8990,7 @@
     </row>
     <row r="100" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B100" s="2">
         <v>4</v>
@@ -8995,7 +8999,7 @@
         <v>155</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>43</v>
@@ -9013,7 +9017,7 @@
         <v>85</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>43</v>
@@ -9040,7 +9044,7 @@
         <v>3</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T100" s="2" t="str" cm="1">
         <f t="array" ref="T100">_xlfn.REGEXEXTRACT(A100,"(?&lt;=//)[^/]+")</f>
@@ -9049,16 +9053,16 @@
     </row>
     <row r="101" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B101" s="2">
         <v>5</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>43</v>
@@ -9070,10 +9074,10 @@
         <v>157</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>43</v>
@@ -9088,7 +9092,7 @@
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>43</v>
@@ -9097,13 +9101,13 @@
         <v>43</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R101" s="2">
         <v>3</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="T101" s="2" t="str" cm="1">
         <f t="array" ref="T101">_xlfn.REGEXEXTRACT(A101,"(?&lt;=//)[^/]+")</f>
@@ -9121,7 +9125,7 @@
         <v>74</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>43</v>
@@ -9373,7 +9377,7 @@
         <v>96</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>43</v>
@@ -9748,7 +9752,7 @@
         <v>42</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>132</v>
@@ -9781,7 +9785,7 @@
         <v>43</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O112" s="2" t="s">
         <v>92</v>
@@ -9796,7 +9800,7 @@
         <v>3</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T112" s="2" t="str" cm="1">
         <f t="array" ref="T112">_xlfn.REGEXEXTRACT(A112,"(?&lt;=//)[^/]+")</f>
@@ -9874,7 +9878,7 @@
         <v>44</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>328</v>
@@ -9889,7 +9893,7 @@
         <v>321</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>85</v>
@@ -9922,7 +9926,7 @@
         <v>3</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T114" s="2" t="str" cm="1">
         <f t="array" ref="T114">_xlfn.REGEXEXTRACT(A114,"(?&lt;=//)[^/]+")</f>
@@ -9940,7 +9944,7 @@
         <v>274</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>43</v>
@@ -9952,7 +9956,7 @@
         <v>80</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>99</v>
@@ -9967,7 +9971,7 @@
         <v>66</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>92</v>
@@ -9985,7 +9989,7 @@
         <v>3</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="T115" s="2" t="str" cm="1">
         <f t="array" ref="T115">_xlfn.REGEXEXTRACT(A115,"(?&lt;=//)[^/]+")</f>
@@ -9994,19 +9998,19 @@
     </row>
     <row r="116" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B116" s="2">
         <v>46</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>319</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>43</v>
@@ -10018,7 +10022,7 @@
         <v>336</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>83</v>
@@ -10048,7 +10052,7 @@
         <v>3</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T116" s="2" t="str" cm="1">
         <f t="array" ref="T116">_xlfn.REGEXEXTRACT(A116,"(?&lt;=//)[^/]+")</f>
@@ -10084,7 +10088,7 @@
         <v>176</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>177</v>
@@ -10120,7 +10124,7 @@
     </row>
     <row r="118" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B118" s="2">
         <v>53</v>
@@ -10129,7 +10133,7 @@
         <v>155</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>43</v>
@@ -10144,19 +10148,19 @@
         <v>99</v>
       </c>
       <c r="I118" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J118" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>60</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>153</v>
@@ -10165,7 +10169,7 @@
         <v>92</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q118" s="2" t="s">
         <v>56</v>
@@ -10174,7 +10178,7 @@
         <v>3</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="T118" s="2" t="str" cm="1">
         <f t="array" ref="T118">_xlfn.REGEXEXTRACT(A118,"(?&lt;=//)[^/]+")</f>
@@ -10189,13 +10193,13 @@
         <v>70</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>43</v>
@@ -10246,7 +10250,7 @@
     </row>
     <row r="120" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B120" s="2">
         <v>77</v>
@@ -10255,7 +10259,7 @@
         <v>112</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>43</v>
@@ -10270,16 +10274,16 @@
         <v>98</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>65</v>
@@ -10288,10 +10292,10 @@
         <v>113</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Q120" s="2" t="s">
         <v>56</v>
@@ -10300,7 +10304,7 @@
         <v>3</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="T120" s="2" t="str" cm="1">
         <f t="array" ref="T120">_xlfn.REGEXEXTRACT(A120,"(?&lt;=//)[^/]+")</f>
@@ -10336,7 +10340,7 @@
         <v>67</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>99</v>
@@ -10363,7 +10367,7 @@
         <v>3</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T121" s="2" t="str" cm="1">
         <f t="array" ref="T121">_xlfn.REGEXEXTRACT(A121,"(?&lt;=//)[^/]+")</f>
@@ -10381,7 +10385,7 @@
         <v>225</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>43</v>
@@ -10414,7 +10418,7 @@
         <v>106</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>109</v>
@@ -10435,19 +10439,19 @@
     </row>
     <row r="123" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B123" s="2">
         <v>106</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>43</v>
@@ -10456,22 +10460,22 @@
         <v>157</v>
       </c>
       <c r="H123" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="K123" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="L123" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="L123" s="2" t="s">
-        <v>752</v>
-      </c>
       <c r="M123" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>153</v>
@@ -10480,16 +10484,16 @@
         <v>93</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="R123" s="2">
         <v>3</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="T123" s="2" t="str" cm="1">
         <f t="array" ref="T123">_xlfn.REGEXEXTRACT(A123,"(?&lt;=//)[^/]+")</f>
@@ -10552,7 +10556,7 @@
         <v>2</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="T124" s="2" t="str" cm="1">
         <f t="array" ref="T124">_xlfn.REGEXEXTRACT(A124,"(?&lt;=//)[^/]+")</f>
@@ -10567,7 +10571,7 @@
         <v>18</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>239</v>
@@ -10582,7 +10586,7 @@
         <v>79</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>241</v>
@@ -10615,7 +10619,7 @@
         <v>2</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="T125" s="2" t="str" cm="1">
         <f t="array" ref="T125">_xlfn.REGEXEXTRACT(A125,"(?&lt;=//)[^/]+")</f>
@@ -10726,7 +10730,7 @@
         <v>43</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O127" s="2" t="s">
         <v>43</v>
@@ -10777,16 +10781,16 @@
         <v>67</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>148</v>
       </c>
       <c r="L128" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="M128" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="M128" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>338</v>
@@ -10795,7 +10799,7 @@
         <v>331</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q128" s="2" t="s">
         <v>56</v>
@@ -10804,7 +10808,7 @@
         <v>2</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T128" s="2" t="str" cm="1">
         <f t="array" ref="T128">_xlfn.REGEXEXTRACT(A128,"(?&lt;=//)[^/]+")</f>
@@ -10822,10 +10826,10 @@
         <v>223</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>43</v>
@@ -10837,7 +10841,7 @@
         <v>227</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>83</v>
@@ -10846,16 +10850,16 @@
         <v>126</v>
       </c>
       <c r="L129" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="M129" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>91</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>160</v>
@@ -10867,7 +10871,7 @@
         <v>2</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T129" s="2" t="str" cm="1">
         <f t="array" ref="T129">_xlfn.REGEXEXTRACT(A129,"(?&lt;=//)[^/]+")</f>
@@ -10876,16 +10880,16 @@
     </row>
     <row r="130" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B130" s="2">
         <v>57</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>43</v>
@@ -10915,13 +10919,13 @@
         <v>229</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>359</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q130" s="2" t="s">
         <v>56</v>
@@ -10930,7 +10934,7 @@
         <v>2</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="T130" s="2" t="str" cm="1">
         <f t="array" ref="T130">_xlfn.REGEXEXTRACT(A130,"(?&lt;=//)[^/]+")</f>
@@ -10939,19 +10943,19 @@
     </row>
     <row r="131" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B131" s="2">
         <v>57</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>43</v>
@@ -10960,7 +10964,7 @@
         <v>81</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>94</v>
@@ -10978,7 +10982,7 @@
         <v>43</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O131" s="2" t="s">
         <v>338</v>
@@ -10993,7 +10997,7 @@
         <v>2</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T131" s="2" t="str" cm="1">
         <f t="array" ref="T131">_xlfn.REGEXEXTRACT(A131,"(?&lt;=//)[^/]+")</f>
@@ -11002,16 +11006,16 @@
     </row>
     <row r="132" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B132" s="2">
         <v>64</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>43</v>
@@ -11026,10 +11030,10 @@
         <v>293</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>126</v>
@@ -11047,7 +11051,7 @@
         <v>331</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="Q132" s="2" t="s">
         <v>56</v>
@@ -11056,7 +11060,7 @@
         <v>2</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="T132" s="2" t="str" cm="1">
         <f t="array" ref="T132">_xlfn.REGEXEXTRACT(A132,"(?&lt;=//)[^/]+")</f>
@@ -11212,7 +11216,7 @@
         <v>81</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>43</v>
@@ -11245,7 +11249,7 @@
         <v>1</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="T135" s="2" t="str" cm="1">
         <f t="array" ref="T135">_xlfn.REGEXEXTRACT(A135,"(?&lt;=//)[^/]+")</f>

--- a/data/links.xlsx
+++ b/data/links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crypto\Private\LQDU\LinkBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E42DF1A-3EDA-42E9-A9B6-F72CA5F53F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27396901-3D10-4D3C-B4E3-A23191238A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSFW_Links" sheetId="2" r:id="rId1"/>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="827">
   <si>
     <t>https://xhamster18.desi/videos/nubile-films-seductive-games-of-passion-3267609</t>
   </si>
@@ -2371,6 +2349,174 @@
   </si>
   <si>
     <t>full length divine bitches library</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/sites/men-in-pain/most-popular/</t>
+  </si>
+  <si>
+    <t>go to most viewed</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/videos/22501682/839b596862993727fd9847f01e9660fa/</t>
+  </si>
+  <si>
+    <t>maitresse madeline marlowe</t>
+  </si>
+  <si>
+    <t>cloth tear at 12m,flogging at 14m,trampling at 18m, foot on dick at 20m, ass eating at 24m,pegging at 40m</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/videos/22502128/48becf08ce1d8544f1ecd11b29940273/</t>
+  </si>
+  <si>
+    <t>bobbi starr</t>
+  </si>
+  <si>
+    <t>suspended upside down</t>
+  </si>
+  <si>
+    <t>cbt at 12m,spanking at 16m,pegging at 22m,pussy eating at 33m</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/videos/22496998/e3ddcb0614bd2e35f425251178c9885f/</t>
+  </si>
+  <si>
+    <t>aiden starr</t>
+  </si>
+  <si>
+    <t>madison young</t>
+  </si>
+  <si>
+    <t>2f-1m</t>
+  </si>
+  <si>
+    <t>ass eating at 15m,flogging at 23m,pegging at 25m,spitroast</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/videos/22501001/47e1b5131fea40a07c8dbe676b82203b/</t>
+  </si>
+  <si>
+    <t>daphne rosen</t>
+  </si>
+  <si>
+    <t>blackmail at 10m,flogging at 11m,doggy at 25m,paddling at 27m</t>
+  </si>
+  <si>
+    <t>https://www.porntry.com/videos/22498489/ad30ac38767161a6b1b21f0b051cf0e3/</t>
+  </si>
+  <si>
+    <t>cassandra cruz</t>
+  </si>
+  <si>
+    <t>samantha sin</t>
+  </si>
+  <si>
+    <t>flogging at 2m,cunnilingus at 15m,pegging at 16m,female pretzel,dildo on mouth at 20m,cock clothespin at 26m</t>
+  </si>
+  <si>
+    <t>heavyfetish.com</t>
+  </si>
+  <si>
+    <t>www.eporner.com</t>
+  </si>
+  <si>
+    <t>tube.perverzija.com</t>
+  </si>
+  <si>
+    <t>www.fuq.com</t>
+  </si>
+  <si>
+    <t>punishworld.com</t>
+  </si>
+  <si>
+    <t>bdsmstreak.com</t>
+  </si>
+  <si>
+    <t>m.hqporner.com</t>
+  </si>
+  <si>
+    <t>www.pornhits.com</t>
+  </si>
+  <si>
+    <t>spankbang.com</t>
+  </si>
+  <si>
+    <t>www.txxx.porn</t>
+  </si>
+  <si>
+    <t>beeg.com</t>
+  </si>
+  <si>
+    <t>abjav.com</t>
+  </si>
+  <si>
+    <t>abxxx.com</t>
+  </si>
+  <si>
+    <t>www.tnaflix.com</t>
+  </si>
+  <si>
+    <t>pornxp.com</t>
+  </si>
+  <si>
+    <t>www.porntry.com</t>
+  </si>
+  <si>
+    <t>curebdsm.com</t>
+  </si>
+  <si>
+    <t>hcbdsm.com</t>
+  </si>
+  <si>
+    <t>www.porntrex.com</t>
+  </si>
+  <si>
+    <t>txxx.com</t>
+  </si>
+  <si>
+    <t>xhamster44.desi</t>
+  </si>
+  <si>
+    <t>punishbang.com</t>
+  </si>
+  <si>
+    <t>spankbang.party</t>
+  </si>
+  <si>
+    <t>txxx.me</t>
+  </si>
+  <si>
+    <t>www.porndead.org</t>
+  </si>
+  <si>
+    <t>xhamster18.desi</t>
+  </si>
+  <si>
+    <t>netfapx.net</t>
+  </si>
+  <si>
+    <t>pornzog</t>
+  </si>
+  <si>
+    <t>www.tubegalore.com</t>
+  </si>
+  <si>
+    <t>pervtube.net</t>
+  </si>
+  <si>
+    <t>www.pornhub.com</t>
+  </si>
+  <si>
+    <t>anyporn.com</t>
+  </si>
+  <si>
+    <t>www.porntopedia.com</t>
+  </si>
+  <si>
+    <t>www.peekvids.com</t>
+  </si>
+  <si>
+    <t>www.omg.xxx</t>
   </si>
 </sst>
 </file>
@@ -2751,10 +2897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
-  <dimension ref="A1:T136"/>
+  <dimension ref="A1:T142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T136"/>
+      <selection activeCell="A2" sqref="A2:T142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,9 +3031,8 @@
       <c r="S2" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="T2" s="2" t="str" cm="1">
-        <f t="array" ref="T2">_xlfn.REGEXEXTRACT(A2,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+      <c r="T2" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -2948,9 +3093,8 @@
       <c r="S3" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="T3" s="2" t="str" cm="1">
-        <f t="array" ref="T3">_xlfn.REGEXEXTRACT(A3,"(?&lt;=//)[^/]+")</f>
-        <v>www.eporner.com</v>
+      <c r="T3" s="2" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3011,9 +3155,8 @@
       <c r="S4" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="T4" s="2" t="str" cm="1">
-        <f t="array" ref="T4">_xlfn.REGEXEXTRACT(A4,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
+      <c r="T4" s="2" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3074,9 +3217,8 @@
       <c r="S5" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="T5" s="2" t="str" cm="1">
-        <f t="array" ref="T5">_xlfn.REGEXEXTRACT(A5,"(?&lt;=//)[^/]+")</f>
-        <v>www.fuq.com</v>
+      <c r="T5" s="2" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3137,9 +3279,8 @@
       <c r="S6" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="T6" s="2" t="str" cm="1">
-        <f t="array" ref="T6">_xlfn.REGEXEXTRACT(A6,"(?&lt;=//)[^/]+")</f>
-        <v>punishworld.com</v>
+      <c r="T6" s="2" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -3200,9 +3341,8 @@
       <c r="S7" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="T7" s="2" t="str" cm="1">
-        <f t="array" ref="T7">_xlfn.REGEXEXTRACT(A7,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+      <c r="T7" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="75" x14ac:dyDescent="0.25">
@@ -3263,9 +3403,8 @@
       <c r="S8" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="T8" s="2" t="str" cm="1">
-        <f t="array" ref="T8">_xlfn.REGEXEXTRACT(A8,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+      <c r="T8" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3326,9 +3465,8 @@
       <c r="S9" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="T9" s="2" t="str" cm="1">
-        <f t="array" ref="T9">_xlfn.REGEXEXTRACT(A9,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+      <c r="T9" s="2" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3389,9 +3527,8 @@
       <c r="S10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T10" s="2" t="str" cm="1">
-        <f t="array" ref="T10">_xlfn.REGEXEXTRACT(A10,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+      <c r="T10" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3452,9 +3589,8 @@
       <c r="S11" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="T11" s="2" t="str" cm="1">
-        <f t="array" ref="T11">_xlfn.REGEXEXTRACT(A11,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+      <c r="T11" s="2" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -3515,9 +3651,8 @@
       <c r="S12" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="T12" s="2" t="str" cm="1">
-        <f t="array" ref="T12">_xlfn.REGEXEXTRACT(A12,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+      <c r="T12" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -3578,9 +3713,8 @@
       <c r="S13" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="T13" s="2" t="str" cm="1">
-        <f t="array" ref="T13">_xlfn.REGEXEXTRACT(A13,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+      <c r="T13" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3641,9 +3775,8 @@
       <c r="S14" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="T14" s="2" t="str" cm="1">
-        <f t="array" ref="T14">_xlfn.REGEXEXTRACT(A14,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+      <c r="T14" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3704,9 +3837,8 @@
       <c r="S15" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="T15" s="2" t="str" cm="1">
-        <f t="array" ref="T15">_xlfn.REGEXEXTRACT(A15,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
+      <c r="T15" s="2" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3767,9 +3899,8 @@
       <c r="S16" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="T16" s="2" t="str" cm="1">
-        <f t="array" ref="T16">_xlfn.REGEXEXTRACT(A16,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+      <c r="T16" s="2" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3830,9 +3961,8 @@
       <c r="S17" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="T17" s="2" t="str" cm="1">
-        <f t="array" ref="T17">_xlfn.REGEXEXTRACT(A17,"(?&lt;=//)[^/]+")</f>
-        <v>www.txxx.porn</v>
+      <c r="T17" s="2" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -3893,9 +4023,8 @@
       <c r="S18" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="T18" s="2" t="str" cm="1">
-        <f t="array" ref="T18">_xlfn.REGEXEXTRACT(A18,"(?&lt;=//)[^/]+")</f>
-        <v>beeg.com</v>
+      <c r="T18" s="2" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -3956,9 +4085,8 @@
       <c r="S19" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="T19" s="2" t="str" cm="1">
-        <f t="array" ref="T19">_xlfn.REGEXEXTRACT(A19,"(?&lt;=//)[^/]+")</f>
-        <v>beeg.com</v>
+      <c r="T19" s="2" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -4019,9 +4147,8 @@
       <c r="S20" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="T20" s="2" t="str" cm="1">
-        <f t="array" ref="T20">_xlfn.REGEXEXTRACT(A20,"(?&lt;=//)[^/]+")</f>
-        <v>www.fuq.com</v>
+      <c r="T20" s="2" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -4082,9 +4209,8 @@
       <c r="S21" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="T21" s="2" t="str" cm="1">
-        <f t="array" ref="T21">_xlfn.REGEXEXTRACT(A21,"(?&lt;=//)[^/]+")</f>
-        <v>abjav.com</v>
+      <c r="T21" s="2" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -4145,9 +4271,8 @@
       <c r="S22" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="T22" s="2" t="str" cm="1">
-        <f t="array" ref="T22">_xlfn.REGEXEXTRACT(A22,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
+      <c r="T22" s="2" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -4208,9 +4333,8 @@
       <c r="S23" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="T23" s="2" t="str" cm="1">
-        <f t="array" ref="T23">_xlfn.REGEXEXTRACT(A23,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+      <c r="T23" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -4271,9 +4395,8 @@
       <c r="S24" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="T24" s="2" t="str" cm="1">
-        <f t="array" ref="T24">_xlfn.REGEXEXTRACT(A24,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+      <c r="T24" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -4334,9 +4457,8 @@
       <c r="S25" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="T25" s="2" t="str" cm="1">
-        <f t="array" ref="T25">_xlfn.REGEXEXTRACT(A25,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+      <c r="T25" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -4397,9 +4519,8 @@
       <c r="S26" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T26" s="2" t="str" cm="1">
-        <f t="array" ref="T26">_xlfn.REGEXEXTRACT(A26,"(?&lt;=//)[^/]+")</f>
-        <v>abxxx.com</v>
+      <c r="T26" s="2" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -4460,9 +4581,8 @@
       <c r="S27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="T27" s="2" t="str" cm="1">
-        <f t="array" ref="T27">_xlfn.REGEXEXTRACT(A27,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+      <c r="T27" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -4523,9 +4643,8 @@
       <c r="S28" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="T28" s="2" t="str" cm="1">
-        <f t="array" ref="T28">_xlfn.REGEXEXTRACT(A28,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+      <c r="T28" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -4586,9 +4705,8 @@
       <c r="S29" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="T29" s="2" t="str" cm="1">
-        <f t="array" ref="T29">_xlfn.REGEXEXTRACT(A29,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+      <c r="T29" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -4649,9 +4767,8 @@
       <c r="S30" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="T30" s="2" t="str" cm="1">
-        <f t="array" ref="T30">_xlfn.REGEXEXTRACT(A30,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+      <c r="T30" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -4712,9 +4829,8 @@
       <c r="S31" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="T31" s="2" t="str" cm="1">
-        <f t="array" ref="T31">_xlfn.REGEXEXTRACT(A31,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+      <c r="T31" s="2" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -4775,9 +4891,8 @@
       <c r="S32" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="T32" s="2" t="str" cm="1">
-        <f t="array" ref="T32">_xlfn.REGEXEXTRACT(A32,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+      <c r="T32" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -4838,9 +4953,8 @@
       <c r="S33" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="T33" s="2" t="str" cm="1">
-        <f t="array" ref="T33">_xlfn.REGEXEXTRACT(A33,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
+      <c r="T33" s="2" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -4901,9 +5015,8 @@
       <c r="S34" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="T34" s="2" t="str" cm="1">
-        <f t="array" ref="T34">_xlfn.REGEXEXTRACT(A34,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+      <c r="T34" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -4964,9 +5077,8 @@
       <c r="S35" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="T35" s="2" t="str" cm="1">
-        <f t="array" ref="T35">_xlfn.REGEXEXTRACT(A35,"(?&lt;=//)[^/]+")</f>
-        <v>punishworld.com</v>
+      <c r="T35" s="2" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -5027,9 +5139,8 @@
       <c r="S36" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="T36" s="2" t="str" cm="1">
-        <f t="array" ref="T36">_xlfn.REGEXEXTRACT(A36,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+      <c r="T36" s="2" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -5090,9 +5201,8 @@
       <c r="S37" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="T37" s="2" t="str" cm="1">
-        <f t="array" ref="T37">_xlfn.REGEXEXTRACT(A37,"(?&lt;=//)[^/]+")</f>
-        <v>www.txxx.porn</v>
+      <c r="T37" s="2" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -5153,9 +5263,8 @@
       <c r="S38" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="T38" s="2" t="str" cm="1">
-        <f t="array" ref="T38">_xlfn.REGEXEXTRACT(A38,"(?&lt;=//)[^/]+")</f>
-        <v>www.txxx.porn</v>
+      <c r="T38" s="2" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -5216,9 +5325,8 @@
       <c r="S39" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="T39" s="2" t="str" cm="1">
-        <f t="array" ref="T39">_xlfn.REGEXEXTRACT(A39,"(?&lt;=//)[^/]+")</f>
-        <v>beeg.com</v>
+      <c r="T39" s="2" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -5279,9 +5387,8 @@
       <c r="S40" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="T40" s="2" t="str" cm="1">
-        <f t="array" ref="T40">_xlfn.REGEXEXTRACT(A40,"(?&lt;=//)[^/]+")</f>
-        <v>www.fuq.com</v>
+      <c r="T40" s="2" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -5342,9 +5449,8 @@
       <c r="S41" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="T41" s="2" t="str" cm="1">
-        <f t="array" ref="T41">_xlfn.REGEXEXTRACT(A41,"(?&lt;=//)[^/]+")</f>
-        <v>www.fuq.com</v>
+      <c r="T41" s="2" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -5405,26 +5511,25 @@
       <c r="S42" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="T42" s="2" t="str" cm="1">
-        <f t="array" ref="T42">_xlfn.REGEXEXTRACT(A42,"(?&lt;=//)[^/]+")</f>
-        <v>www.fuq.com</v>
+      <c r="T42" s="2" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>641</v>
+        <v>771</v>
       </c>
       <c r="B43" s="2">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>686</v>
+        <v>545</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>686</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>43</v>
@@ -5433,124 +5538,122 @@
         <v>80</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>588</v>
+        <v>82</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>643</v>
+        <v>60</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>550</v>
+        <v>65</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>281</v>
+        <v>43</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>338</v>
+        <v>92</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>92</v>
+        <v>381</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>644</v>
+        <v>56</v>
       </c>
       <c r="R43" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="T43" s="2" t="str" cm="1">
-        <f t="array" ref="T43">_xlfn.REGEXEXTRACT(A43,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>772</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>715</v>
+        <v>773</v>
       </c>
       <c r="B44" s="2">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" s="2">
+        <v>6</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B45" s="2">
+        <v>129</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="N44" s="2">
-        <v>69</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R44" s="2">
-        <v>5</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="T44" s="2" t="str" cm="1">
-        <f t="array" ref="T44">_xlfn.REGEXEXTRACT(A44,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B45" s="2">
-        <v>116</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>43</v>
@@ -5559,94 +5662,93 @@
         <v>80</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>429</v>
+        <v>588</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>114</v>
+        <v>643</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>597</v>
+        <v>138</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>613</v>
+        <v>550</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>520</v>
+        <v>191</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>614</v>
+        <v>338</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>593</v>
+        <v>92</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>56</v>
+        <v>644</v>
       </c>
       <c r="R45" s="2">
         <v>5</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="T45" s="2" t="str" cm="1">
-        <f t="array" ref="T45">_xlfn.REGEXEXTRACT(A45,"(?&lt;=//)[^/]+")</f>
-        <v>punishworld.com</v>
+        <v>645</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>603</v>
+        <v>715</v>
       </c>
       <c r="B46" s="2">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>96</v>
+        <v>686</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>506</v>
+        <v>686</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>180</v>
+        <v>686</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>604</v>
+        <v>281</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>607</v>
+        <v>639</v>
+      </c>
+      <c r="N46" s="2">
+        <v>69</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>520</v>
+        <v>191</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>608</v>
+        <v>153</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>56</v>
@@ -5655,25 +5757,24 @@
         <v>5</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="T46" s="2" t="str" cm="1">
-        <f t="array" ref="T46">_xlfn.REGEXEXTRACT(A46,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="B47" s="2">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>113</v>
+        <v>611</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>43</v>
@@ -5682,34 +5783,34 @@
         <v>43</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="N47" s="2" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>102</v>
+        <v>614</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>56</v>
@@ -5718,28 +5819,27 @@
         <v>5</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="T47" s="2" t="str" cm="1">
-        <f t="array" ref="T47">_xlfn.REGEXEXTRACT(A47,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="B48" s="2">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>568</v>
+        <v>506</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>43</v>
@@ -5748,31 +5848,31 @@
         <v>80</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>443</v>
+        <v>99</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>99</v>
+        <v>604</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>490</v>
+        <v>605</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>118</v>
+        <v>606</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>153</v>
+        <v>607</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>91</v>
+        <v>520</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>316</v>
+        <v>608</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>56</v>
@@ -5781,25 +5881,24 @@
         <v>5</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="T48" s="2" t="str" cm="1">
-        <f t="array" ref="T48">_xlfn.REGEXEXTRACT(A48,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>609</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="B49" s="2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>469</v>
+        <v>113</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>43</v>
@@ -5814,28 +5913,28 @@
         <v>82</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>421</v>
+        <v>99</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>118</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>91</v>
+        <v>454</v>
       </c>
       <c r="O49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P49" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>56</v>
@@ -5844,61 +5943,60 @@
         <v>5</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="T49" s="2" t="str" cm="1">
-        <f t="array" ref="T49">_xlfn.REGEXEXTRACT(A49,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>579</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>21</v>
+        <v>567</v>
       </c>
       <c r="B50" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>178</v>
+        <v>568</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>80</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>83</v>
+        <v>443</v>
       </c>
       <c r="I50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="K50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="N50" s="2" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>56</v>
@@ -5907,25 +6005,24 @@
         <v>5</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="T50" s="2" t="str" cm="1">
-        <f t="array" ref="T50">_xlfn.REGEXEXTRACT(A50,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>569</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>42</v>
+        <v>564</v>
       </c>
       <c r="B51" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>155</v>
+        <v>469</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>395</v>
+        <v>565</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>43</v>
@@ -5934,34 +6031,34 @@
         <v>43</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="H51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="L51" s="2" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>164</v>
+        <v>520</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>43</v>
+        <v>436</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>56</v>
@@ -5970,61 +6067,60 @@
         <v>5</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="T51" s="2" t="str" cm="1">
-        <f t="array" ref="T51">_xlfn.REGEXEXTRACT(A51,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>345</v>
+        <v>178</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>80</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>428</v>
+        <v>83</v>
       </c>
       <c r="I52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="L52" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>499</v>
+        <v>125</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>381</v>
+        <v>181</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>495</v>
+        <v>43</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>56</v>
@@ -6033,25 +6129,24 @@
         <v>5</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="T52" s="2" t="str" cm="1">
-        <f t="array" ref="T52">_xlfn.REGEXEXTRACT(A52,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>183</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B53" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>686</v>
+        <v>155</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>686</v>
+        <v>395</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>43</v>
@@ -6060,34 +6155,34 @@
         <v>43</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>501</v>
+        <v>99</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>502</v>
+        <v>60</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>467</v>
+        <v>166</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>426</v>
+        <v>83</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>503</v>
+        <v>131</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>454</v>
+        <v>164</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>504</v>
+        <v>43</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>56</v>
@@ -6096,25 +6191,24 @@
         <v>5</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="T53" s="2" t="str" cm="1">
-        <f t="array" ref="T53">_xlfn.REGEXEXTRACT(A53,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>211</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="B54" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>472</v>
+        <v>345</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>43</v>
@@ -6126,31 +6220,31 @@
         <v>80</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>99</v>
+        <v>428</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>124</v>
+        <v>496</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>307</v>
+        <v>498</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>516</v>
+        <v>381</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>474</v>
+        <v>68</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>56</v>
@@ -6159,25 +6253,24 @@
         <v>5</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="T54" s="2" t="str" cm="1">
-        <f t="array" ref="T54">_xlfn.REGEXEXTRACT(A54,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>497</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B55" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>469</v>
+        <v>686</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>390</v>
+        <v>686</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>43</v>
@@ -6189,31 +6282,31 @@
         <v>81</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>99</v>
+        <v>501</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="J55" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="L55" s="2" t="s">
-        <v>94</v>
+        <v>467</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>381</v>
+        <v>454</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>92</v>
+        <v>504</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>56</v>
@@ -6222,25 +6315,24 @@
         <v>5</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="T55" s="2" t="str" cm="1">
-        <f t="array" ref="T55">_xlfn.REGEXEXTRACT(A55,"(?&lt;=//)[^/]+")</f>
-        <v>hcbdsm.com</v>
+        <v>505</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>43</v>
@@ -6252,31 +6344,31 @@
         <v>80</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>119</v>
+        <v>516</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>153</v>
+        <v>436</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>43</v>
+        <v>474</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>56</v>
@@ -6285,25 +6377,24 @@
         <v>5</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="T56" s="2" t="str" cm="1">
-        <f t="array" ref="T56">_xlfn.REGEXEXTRACT(A56,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>473</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>759</v>
+        <v>25</v>
       </c>
       <c r="B57" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>760</v>
+        <v>390</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>43</v>
@@ -6312,34 +6403,34 @@
         <v>43</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>761</v>
+        <v>99</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>762</v>
+        <v>67</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>550</v>
+        <v>124</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="O57" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="P57" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>56</v>
@@ -6348,28 +6439,27 @@
         <v>5</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="T57" s="2" t="str" cm="1">
-        <f t="array" ref="T57">_xlfn.REGEXEXTRACT(A57,"(?&lt;=//)[^/]+")</f>
-        <v>www.porntrex.com</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c r="B58" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>370</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>43</v>
@@ -6378,10 +6468,10 @@
         <v>80</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>588</v>
+        <v>111</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>99</v>
@@ -6390,19 +6480,19 @@
         <v>67</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>381</v>
+        <v>119</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>507</v>
+        <v>153</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>56</v>
@@ -6411,61 +6501,60 @@
         <v>5</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="T58" s="2" t="str" cm="1">
-        <f t="array" ref="T58">_xlfn.REGEXEXTRACT(A58,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>446</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>8</v>
+        <v>759</v>
       </c>
       <c r="B59" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>319</v>
+        <v>760</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>369</v>
+        <v>43</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>160</v>
+        <v>761</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>83</v>
+        <v>762</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>351</v>
+        <v>85</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>281</v>
+        <v>550</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O59" s="2">
-        <v>69</v>
+        <v>170</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>316</v>
+        <v>381</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>56</v>
@@ -6474,61 +6563,60 @@
         <v>5</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="T59" s="2" t="str" cm="1">
-        <f t="array" ref="T59">_xlfn.REGEXEXTRACT(A59,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="B60" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="J60" s="2" t="s">
-        <v>281</v>
+        <v>99</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>351</v>
+        <v>67</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>316</v>
+        <v>381</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>153</v>
+        <v>507</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>286</v>
+        <v>113</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>56</v>
@@ -6537,61 +6625,60 @@
         <v>5</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="T60" s="2" t="str" cm="1">
-        <f t="array" ref="T60">_xlfn.REGEXEXTRACT(A60,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
+        <v>382</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B61" s="2">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>112</v>
+        <v>368</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>145</v>
+        <v>351</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>141</v>
+        <v>281</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>143</v>
+        <v>195</v>
+      </c>
+      <c r="O61" s="2">
+        <v>69</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>56</v>
@@ -6600,61 +6687,60 @@
         <v>5</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="T61" s="2" t="str" cm="1">
-        <f t="array" ref="T61">_xlfn.REGEXEXTRACT(A61,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B62" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>112</v>
+        <v>349</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>588</v>
+        <v>82</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>421</v>
+        <v>281</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>72</v>
+        <v>316</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P62" s="2">
-        <v>69</v>
+        <v>153</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>56</v>
@@ -6663,25 +6749,24 @@
         <v>5</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="T62" s="2" t="str" cm="1">
-        <f t="array" ref="T62">_xlfn.REGEXEXTRACT(A62,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>350</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>712</v>
+        <v>14</v>
       </c>
       <c r="B63" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>686</v>
+        <v>112</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>686</v>
+        <v>133</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>43</v>
@@ -6690,34 +6775,34 @@
         <v>43</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>421</v>
+        <v>140</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>713</v>
+        <v>108</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>463</v>
+        <v>141</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>689</v>
+        <v>76</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>381</v>
+        <v>142</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>56</v>
@@ -6726,61 +6811,60 @@
         <v>5</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="T63" s="2" t="str" cm="1">
-        <f t="array" ref="T63">_xlfn.REGEXEXTRACT(A63,"(?&lt;=//)[^/]+")</f>
-        <v>beeg.com</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>733</v>
+        <v>28</v>
       </c>
       <c r="B64" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>734</v>
+        <v>112</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>686</v>
+        <v>391</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>400</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>735</v>
+        <v>80</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>736</v>
+        <v>421</v>
       </c>
       <c r="K64" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L64" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="M64" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
+      </c>
+      <c r="P64" s="2">
+        <v>69</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>56</v>
@@ -6789,25 +6873,24 @@
         <v>5</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="T64" s="2" t="str" cm="1">
-        <f t="array" ref="T64">_xlfn.REGEXEXTRACT(A64,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>206</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>271</v>
+        <v>712</v>
       </c>
       <c r="B65" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>278</v>
+        <v>686</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>279</v>
+        <v>686</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>43</v>
@@ -6816,34 +6899,34 @@
         <v>43</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>218</v>
+        <v>421</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>280</v>
+        <v>713</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>118</v>
+        <v>463</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>281</v>
+        <v>689</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>217</v>
+        <v>381</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>56</v>
@@ -6852,25 +6935,24 @@
         <v>5</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="T65" s="2" t="str" cm="1">
-        <f t="array" ref="T65">_xlfn.REGEXEXTRACT(A65,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>714</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>261</v>
+        <v>733</v>
       </c>
       <c r="B66" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>274</v>
+        <v>734</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>275</v>
+        <v>686</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>43</v>
@@ -6879,34 +6961,34 @@
         <v>43</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>80</v>
+        <v>735</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>118</v>
+        <v>736</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>43</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>276</v>
+        <v>43</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>56</v>
@@ -6915,25 +6997,24 @@
         <v>5</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="T66" s="2" t="str" cm="1">
-        <f t="array" ref="T66">_xlfn.REGEXEXTRACT(A66,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
+        <v>737</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>730</v>
+        <v>271</v>
       </c>
       <c r="B67" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>686</v>
+        <v>278</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>686</v>
+        <v>279</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>43</v>
@@ -6942,28 +7023,28 @@
         <v>43</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="I67" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="K67" s="2" t="s">
-        <v>731</v>
+        <v>118</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>43</v>
+        <v>281</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>43</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>684</v>
+        <v>217</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>43</v>
@@ -6972,31 +7053,30 @@
         <v>43</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>644</v>
+        <v>56</v>
       </c>
       <c r="R67" s="2">
         <v>5</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="T67" s="2" t="str" cm="1">
-        <f t="array" ref="T67">_xlfn.REGEXEXTRACT(A67,"(?&lt;=//)[^/]+")</f>
-        <v>xhamster44.desi</v>
+        <v>512</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>670</v>
+        <v>261</v>
       </c>
       <c r="B68" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>671</v>
+        <v>274</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>672</v>
+        <v>275</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>43</v>
@@ -7008,31 +7088,31 @@
         <v>80</v>
       </c>
       <c r="H68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="K68" s="2" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>338</v>
+        <v>68</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>93</v>
+        <v>276</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>436</v>
+        <v>191</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>56</v>
@@ -7041,25 +7121,24 @@
         <v>5</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="T68" s="2" t="str" cm="1">
-        <f t="array" ref="T68">_xlfn.REGEXEXTRACT(A68,"(?&lt;=//)[^/]+")</f>
-        <v>www.txxx.porn</v>
+        <v>277</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="B69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>768</v>
+        <v>686</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>545</v>
+        <v>686</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>43</v>
@@ -7071,58 +7150,57 @@
         <v>157</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>677</v>
+        <v>67</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>707</v>
+        <v>117</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>709</v>
+        <v>43</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>710</v>
+        <v>43</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>92</v>
+        <v>684</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>657</v>
+        <v>43</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>56</v>
+        <v>644</v>
       </c>
       <c r="R69" s="2">
         <v>5</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="T69" s="2" t="str" cm="1">
-        <f t="array" ref="T69">_xlfn.REGEXEXTRACT(A69,"(?&lt;=//)[^/]+")</f>
-        <v>www.fuq.com</v>
+        <v>732</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="B70" s="2">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>43</v>
@@ -7134,142 +7212,140 @@
         <v>80</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>588</v>
+        <v>118</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>606</v>
+        <v>65</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>65</v>
+        <v>547</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>655</v>
+        <v>227</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>656</v>
+        <v>67</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>153</v>
+        <v>338</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>657</v>
+        <v>93</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>658</v>
+        <v>436</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>56</v>
       </c>
       <c r="R70" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="T70" s="2" t="str" cm="1">
-        <f t="array" ref="T70">_xlfn.REGEXEXTRACT(A70,"(?&lt;=//)[^/]+")</f>
-        <v>punishbang.com</v>
+        <v>673</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="B71" s="2">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>647</v>
+        <v>768</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>648</v>
+        <v>545</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>649</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>477</v>
+        <v>172</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>429</v>
+        <v>677</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>118</v>
+        <v>707</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>650</v>
+        <v>708</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>651</v>
+        <v>709</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>652</v>
+        <v>710</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>593</v>
+        <v>68</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>454</v>
+        <v>657</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>56</v>
       </c>
       <c r="R71" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="T71" s="2" t="str" cm="1">
-        <f t="array" ref="T71">_xlfn.REGEXEXTRACT(A71,"(?&lt;=//)[^/]+")</f>
-        <v>punishbang.com</v>
+        <v>711</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>226</v>
+        <v>776</v>
       </c>
       <c r="B72" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>223</v>
+        <v>665</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>398</v>
+        <v>777</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>404</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>43</v>
@@ -7278,43 +7354,42 @@
         <v>43</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>520</v>
+        <v>778</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>160</v>
+        <v>657</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>56</v>
       </c>
       <c r="R72" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T72" s="2" t="str" cm="1">
-        <f t="array" ref="T72">_xlfn.REGEXEXTRACT(A72,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>779</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>35</v>
+        <v>780</v>
       </c>
       <c r="B73" s="2">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>155</v>
+        <v>665</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>156</v>
+        <v>781</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>782</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>43</v>
@@ -7323,58 +7398,57 @@
         <v>157</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="J73" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="L73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L73" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="M73" s="2" t="s">
-        <v>43</v>
+        <v>783</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>150</v>
+        <v>657</v>
       </c>
       <c r="O73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P73" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="P73" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="Q73" s="2" t="s">
         <v>56</v>
       </c>
       <c r="R73" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="T73" s="2" t="str" cm="1">
-        <f t="array" ref="T73">_xlfn.REGEXEXTRACT(A73,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>616</v>
+        <v>654</v>
       </c>
       <c r="B74" s="2">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>617</v>
+        <v>686</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>618</v>
+        <v>686</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>43</v>
@@ -7383,34 +7457,34 @@
         <v>43</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>293</v>
+        <v>606</v>
       </c>
       <c r="J74" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="K74" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="L74" s="2" t="s">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>621</v>
+        <v>656</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>153</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>623</v>
+        <v>658</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>56</v>
@@ -7419,61 +7493,60 @@
         <v>4</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="T74" s="2" t="str" cm="1">
-        <f t="array" ref="T74">_xlfn.REGEXEXTRACT(A74,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>560</v>
+        <v>646</v>
       </c>
       <c r="B75" s="2">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>274</v>
+        <v>647</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>561</v>
+        <v>648</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>562</v>
+        <v>649</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>111</v>
+        <v>477</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>67</v>
+        <v>429</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>467</v>
+        <v>650</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>126</v>
+        <v>651</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>138</v>
+        <v>652</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>153</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>92</v>
+        <v>593</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>56</v>
@@ -7482,28 +7555,27 @@
         <v>4</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="T75" s="2" t="str" cm="1">
-        <f t="array" ref="T75">_xlfn.REGEXEXTRACT(A75,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>653</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="B76" s="2">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>43</v>
@@ -7512,31 +7584,31 @@
         <v>81</v>
       </c>
       <c r="H76" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="J76" s="2" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>91</v>
+        <v>520</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>56</v>
@@ -7545,61 +7617,60 @@
         <v>4</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="T76" s="2" t="str" cm="1">
-        <f t="array" ref="T76">_xlfn.REGEXEXTRACT(A76,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>228</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>533</v>
+        <v>35</v>
       </c>
       <c r="B77" s="2">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>534</v>
+        <v>156</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>535</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>536</v>
+        <v>159</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>537</v>
+        <v>99</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>316</v>
+        <v>153</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>56</v>
@@ -7608,25 +7679,24 @@
         <v>4</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="T77" s="2" t="str" cm="1">
-        <f t="array" ref="T77">_xlfn.REGEXEXTRACT(A77,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>20</v>
+        <v>616</v>
       </c>
       <c r="B78" s="2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>112</v>
+        <v>617</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>394</v>
+        <v>618</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>43</v>
@@ -7635,34 +7705,34 @@
         <v>43</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>117</v>
+        <v>619</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>114</v>
+        <v>620</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>65</v>
+        <v>621</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>115</v>
+        <v>622</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>43</v>
+        <v>623</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>56</v>
@@ -7671,61 +7741,60 @@
         <v>4</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="T78" s="2" t="str" cm="1">
-        <f t="array" ref="T78">_xlfn.REGEXEXTRACT(A78,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>33</v>
+        <v>560</v>
       </c>
       <c r="B79" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>384</v>
+        <v>274</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>178</v>
+        <v>561</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
+        <v>562</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>487</v>
+        <v>111</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>342</v>
+        <v>67</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>488</v>
+        <v>99</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>99</v>
+        <v>467</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>477</v>
+        <v>126</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="N79" s="2">
-        <v>69</v>
+        <v>138</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>56</v>
@@ -7734,61 +7803,60 @@
         <v>4</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="T79" s="2" t="str" cm="1">
-        <f t="array" ref="T79">_xlfn.REGEXEXTRACT(A79,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>563</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B80" s="2">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>486</v>
+        <v>396</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>43</v>
+        <v>402</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>307</v>
+        <v>94</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>346</v>
+        <v>83</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>428</v>
+        <v>84</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>492</v>
+        <v>91</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>493</v>
+        <v>92</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>56</v>
@@ -7797,61 +7865,60 @@
         <v>4</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="T80" s="2" t="str" cm="1">
-        <f t="array" ref="T80">_xlfn.REGEXEXTRACT(A80,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>95</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>7</v>
+        <v>533</v>
       </c>
       <c r="B81" s="2">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>302</v>
+        <v>96</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>686</v>
+        <v>534</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>43</v>
+        <v>535</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>281</v>
+        <v>67</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>124</v>
+        <v>536</v>
       </c>
       <c r="J81" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M81" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="N81" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>479</v>
+        <v>316</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>153</v>
+        <v>520</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>56</v>
@@ -7860,25 +7927,24 @@
         <v>4</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="T81" s="2" t="str" cm="1">
-        <f t="array" ref="T81">_xlfn.REGEXEXTRACT(A81,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.party</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B82" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>43</v>
@@ -7890,28 +7956,28 @@
         <v>80</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>408</v>
+        <v>117</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>407</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>442</v>
+        <v>118</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>443</v>
+        <v>114</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>429</v>
+        <v>65</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>441</v>
+        <v>113</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>43</v>
@@ -7923,25 +7989,24 @@
         <v>4</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="T82" s="2" t="str" cm="1">
-        <f t="array" ref="T82">_xlfn.REGEXEXTRACT(A82,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>116</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B83" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>113</v>
+        <v>384</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>427</v>
+        <v>178</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>43</v>
@@ -7950,34 +8015,34 @@
         <v>43</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>429</v>
+        <v>342</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>76</v>
+        <v>488</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>99</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>114</v>
+        <v>477</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>153</v>
+        <v>490</v>
+      </c>
+      <c r="N83" s="2">
+        <v>69</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>430</v>
+        <v>191</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>113</v>
+        <v>491</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>56</v>
@@ -7986,25 +8051,24 @@
         <v>4</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="T83" s="2" t="str" cm="1">
-        <f t="array" ref="T83">_xlfn.REGEXEXTRACT(A83,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>489</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B84" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>406</v>
+        <v>486</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>43</v>
@@ -8016,31 +8080,31 @@
         <v>80</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>408</v>
+        <v>67</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>413</v>
+        <v>65</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>411</v>
+        <v>118</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>409</v>
+        <v>492</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>376</v>
+        <v>493</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>381</v>
+        <v>102</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>56</v>
@@ -8049,61 +8113,60 @@
         <v>4</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="T84" s="2" t="str" cm="1">
-        <f t="array" ref="T84">_xlfn.REGEXEXTRACT(A84,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>494</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="B85" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>419</v>
+        <v>43</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="H85" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="J85" s="2" t="s">
-        <v>421</v>
+        <v>99</v>
       </c>
       <c r="K85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L85" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L85" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="M85" s="2" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="N85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="P85" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>56</v>
@@ -8112,25 +8175,24 @@
         <v>4</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="T85" s="2" t="str" cm="1">
-        <f t="array" ref="T85">_xlfn.REGEXEXTRACT(A85,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="B86" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>43</v>
@@ -8142,28 +8204,28 @@
         <v>80</v>
       </c>
       <c r="H86" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I86" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="J86" s="2" t="s">
-        <v>99</v>
+        <v>407</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>126</v>
+        <v>442</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>373</v>
+        <v>191</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>43</v>
@@ -8175,25 +8237,24 @@
         <v>4</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="T86" s="2" t="str" cm="1">
-        <f t="array" ref="T86">_xlfn.REGEXEXTRACT(A86,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>444</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B87" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>178</v>
+        <v>427</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>43</v>
@@ -8205,31 +8266,31 @@
         <v>80</v>
       </c>
       <c r="H87" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K87" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="L87" s="2" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>131</v>
+        <v>430</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="Q87" s="2" t="s">
         <v>56</v>
@@ -8238,25 +8299,24 @@
         <v>4</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="T87" s="2" t="str" cm="1">
-        <f t="array" ref="T87">_xlfn.REGEXEXTRACT(A87,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="B88" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>315</v>
+        <v>112</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>43</v>
@@ -8265,34 +8325,34 @@
         <v>43</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>281</v>
+        <v>410</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>43</v>
+        <v>413</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>43</v>
+        <v>411</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>92</v>
+        <v>409</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>93</v>
+        <v>376</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>56</v>
@@ -8301,61 +8361,60 @@
         <v>4</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="T88" s="2" t="str" cm="1">
-        <f t="array" ref="T88">_xlfn.REGEXEXTRACT(A88,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>412</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B89" s="2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>334</v>
+        <v>686</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>335</v>
+        <v>417</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>43</v>
+        <v>419</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>326</v>
+        <v>418</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>336</v>
+        <v>67</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>126</v>
+        <v>421</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>253</v>
+        <v>65</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>340</v>
+        <v>94</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>153</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>43</v>
+        <v>422</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>56</v>
@@ -8364,28 +8423,27 @@
         <v>4</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="T89" s="2" t="str" cm="1">
-        <f t="array" ref="T89">_xlfn.REGEXEXTRACT(A89,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.me</v>
+        <v>420</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B90" s="2">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>43</v>
@@ -8394,28 +8452,28 @@
         <v>80</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="I90" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J90" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="K90" s="2" t="s">
-        <v>333</v>
+        <v>126</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>426</v>
+        <v>43</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>191</v>
+        <v>375</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>93</v>
+        <v>373</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>43</v>
@@ -8427,25 +8485,24 @@
         <v>4</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="T90" s="2" t="str" cm="1">
-        <f t="array" ref="T90">_xlfn.REGEXEXTRACT(A90,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>377</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>752</v>
+        <v>31</v>
       </c>
       <c r="B91" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>753</v>
+        <v>178</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>43</v>
@@ -8454,34 +8511,34 @@
         <v>43</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>754</v>
+        <v>99</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>755</v>
+        <v>65</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>708</v>
+        <v>43</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>684</v>
+        <v>129</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>56</v>
@@ -8490,25 +8547,24 @@
         <v>4</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="T91" s="2" t="str" cm="1">
-        <f t="array" ref="T91">_xlfn.REGEXEXTRACT(A91,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B92" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>43</v>
@@ -8517,19 +8573,19 @@
         <v>43</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>118</v>
+        <v>354</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>99</v>
+        <v>333</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>43</v>
@@ -8538,13 +8594,13 @@
         <v>43</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>304</v>
+        <v>93</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="Q92" s="2" t="s">
         <v>56</v>
@@ -8553,25 +8609,24 @@
         <v>4</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="T92" s="2" t="str" cm="1">
-        <f t="array" ref="T92">_xlfn.REGEXEXTRACT(A92,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>353</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="B93" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>43</v>
@@ -8580,28 +8635,28 @@
         <v>43</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>126</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>592</v>
+        <v>253</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>43</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>376</v>
+        <v>153</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>43</v>
@@ -8616,61 +8671,60 @@
         <v>4</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="T93" s="2" t="str" cm="1">
-        <f t="array" ref="T93">_xlfn.REGEXEXTRACT(A93,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>339</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B94" s="2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>291</v>
+        <v>96</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>390</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="J94" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K94" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="K94" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="L94" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N94" s="2">
-        <v>69</v>
-      </c>
-      <c r="O94" s="2">
-        <v>619</v>
+        <v>426</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>358</v>
+        <v>43</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>56</v>
@@ -8679,25 +8733,24 @@
         <v>4</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="T94" s="2" t="str" cm="1">
-        <f t="array" ref="T94">_xlfn.REGEXEXTRACT(A94,"(?&lt;=//)[^/]+")</f>
-        <v>www.porndead.org</v>
+        <v>314</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="B95" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>388</v>
+        <v>231</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>279</v>
+        <v>753</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>43</v>
@@ -8706,34 +8759,34 @@
         <v>43</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>322</v>
+        <v>157</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>85</v>
+        <v>754</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>295</v>
+        <v>159</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>43</v>
+        <v>755</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>43</v>
+        <v>708</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>283</v>
+        <v>684</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>92</v>
+        <v>381</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>56</v>
@@ -8742,25 +8795,24 @@
         <v>4</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="T95" s="2" t="str" cm="1">
-        <f t="array" ref="T95">_xlfn.REGEXEXTRACT(A95,"(?&lt;=//)[^/]+")</f>
-        <v>xhamster18.desi</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>555</v>
+        <v>264</v>
       </c>
       <c r="B96" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>768</v>
+        <v>302</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>545</v>
+        <v>301</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>43</v>
@@ -8769,19 +8821,19 @@
         <v>43</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>716</v>
+        <v>80</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>43</v>
@@ -8790,10 +8842,10 @@
         <v>43</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>43</v>
@@ -8805,25 +8857,24 @@
         <v>4</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="T96" s="2" t="str" cm="1">
-        <f t="array" ref="T96">_xlfn.REGEXEXTRACT(A96,"(?&lt;=//)[^/]+")</f>
-        <v>netfapx.net</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>557</v>
+        <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>768</v>
+        <v>302</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>545</v>
+        <v>300</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>43</v>
@@ -8832,28 +8883,28 @@
         <v>43</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>716</v>
+        <v>80</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>43</v>
+        <v>592</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>43</v>
+        <v>281</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>43</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>43</v>
+        <v>376</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>43</v>
@@ -8868,25 +8919,24 @@
         <v>4</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="T97" s="2" t="str" cm="1">
-        <f t="array" ref="T97">_xlfn.REGEXEXTRACT(A97,"(?&lt;=//)[^/]+")</f>
-        <v>pornzog</v>
+        <v>303</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>674</v>
+        <v>269</v>
       </c>
       <c r="B98" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>768</v>
+        <v>291</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>545</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>43</v>
@@ -8895,124 +8945,122 @@
         <v>43</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>157</v>
+        <v>321</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>644</v>
+        <v>85</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>661</v>
+        <v>83</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>662</v>
+        <v>333</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>131</v>
+        <v>43</v>
+      </c>
+      <c r="N98" s="2">
+        <v>69</v>
+      </c>
+      <c r="O98" s="2">
+        <v>619</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>644</v>
+        <v>56</v>
       </c>
       <c r="R98" s="2">
         <v>4</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="T98" s="2" t="str" cm="1">
-        <f t="array" ref="T98">_xlfn.REGEXEXTRACT(A98,"(?&lt;=//)[^/]+")</f>
-        <v>www.tubegalore.com</v>
+        <v>292</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>746</v>
+        <v>0</v>
       </c>
       <c r="B99" s="2">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>686</v>
+        <v>388</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>686</v>
+        <v>279</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>686</v>
+        <v>43</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>157</v>
+        <v>322</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>747</v>
+        <v>85</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>748</v>
+        <v>333</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>661</v>
+        <v>295</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>749</v>
+        <v>43</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>750</v>
+        <v>43</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>652</v>
+        <v>43</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>153</v>
+        <v>283</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>93</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>381</v>
+        <v>92</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>644</v>
+        <v>56</v>
       </c>
       <c r="R99" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="T99" s="2" t="str" cm="1">
-        <f t="array" ref="T99">_xlfn.REGEXEXTRACT(A99,"(?&lt;=//)[^/]+")</f>
-        <v>www.eporner.com</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>23</v>
+        <v>555</v>
       </c>
       <c r="B100" s="2">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>225</v>
+        <v>768</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>399</v>
+        <v>545</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>43</v>
@@ -9021,61 +9069,60 @@
         <v>43</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>80</v>
+        <v>716</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>430</v>
+        <v>43</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="Q100" s="2" t="s">
         <v>56</v>
       </c>
       <c r="R100" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="T100" s="2" t="str" cm="1">
-        <f t="array" ref="T100">_xlfn.REGEXEXTRACT(A100,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>266</v>
+        <v>557</v>
       </c>
       <c r="B101" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>96</v>
+        <v>768</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>345</v>
+        <v>545</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>43</v>
@@ -9084,19 +9131,19 @@
         <v>43</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>80</v>
+        <v>716</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>521</v>
+        <v>43</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>43</v>
@@ -9105,7 +9152,7 @@
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>43</v>
@@ -9117,28 +9164,27 @@
         <v>56</v>
       </c>
       <c r="R101" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="T101" s="2" t="str" cm="1">
-        <f t="array" ref="T101">_xlfn.REGEXEXTRACT(A101,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>558</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>625</v>
+        <v>674</v>
       </c>
       <c r="B102" s="2">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>112</v>
+        <v>768</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>626</v>
+        <v>545</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>43</v>
@@ -9147,94 +9193,93 @@
         <v>43</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>98</v>
+        <v>644</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>514</v>
+        <v>661</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>627</v>
+        <v>662</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>628</v>
+        <v>60</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>113</v>
+        <v>436</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>629</v>
+        <v>131</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>630</v>
+        <v>381</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>56</v>
+        <v>644</v>
       </c>
       <c r="R102" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="T102" s="2" t="str" cm="1">
-        <f t="array" ref="T102">_xlfn.REGEXEXTRACT(A102,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>675</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>36</v>
+        <v>785</v>
       </c>
       <c r="B103" s="2">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>387</v>
+        <v>665</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>397</v>
+        <v>786</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>403</v>
+        <v>43</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>154</v>
+        <v>639</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="P103" s="2" t="s">
         <v>43</v>
@@ -9243,31 +9288,30 @@
         <v>56</v>
       </c>
       <c r="R103" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="T103" s="2" t="str" cm="1">
-        <f t="array" ref="T103">_xlfn.REGEXEXTRACT(A103,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>787</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>481</v>
+        <v>788</v>
       </c>
       <c r="B104" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>155</v>
+        <v>665</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>482</v>
+        <v>789</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>43</v>
+        <v>790</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>43</v>
@@ -9279,58 +9323,57 @@
         <v>99</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>483</v>
+        <v>639</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>484</v>
+        <v>60</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>485</v>
+        <v>783</v>
       </c>
       <c r="N104" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="P104" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="O104" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P104" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="Q104" s="2" t="s">
         <v>56</v>
       </c>
       <c r="R104" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="T104" s="2" t="str" cm="1">
-        <f t="array" ref="T104">_xlfn.REGEXEXTRACT(A104,"(?&lt;=//)[^/]+")</f>
-        <v>pervtube.net</v>
+        <v>791</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>174</v>
+        <v>746</v>
       </c>
       <c r="B105" s="2">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>155</v>
+        <v>686</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>175</v>
+        <v>686</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>43</v>
+        <v>686</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>43</v>
@@ -9339,58 +9382,57 @@
         <v>157</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>82</v>
+        <v>747</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>176</v>
+        <v>748</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>483</v>
+        <v>661</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>177</v>
+        <v>749</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>60</v>
+        <v>750</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>43</v>
+        <v>652</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>153</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>43</v>
+        <v>381</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>56</v>
+        <v>644</v>
       </c>
       <c r="R105" s="2">
         <v>3</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="T105" s="2" t="str" cm="1">
-        <f t="array" ref="T105">_xlfn.REGEXEXTRACT(A105,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
+        <v>751</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B106" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>43</v>
@@ -9402,31 +9444,31 @@
         <v>80</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>415</v>
+        <v>104</v>
       </c>
       <c r="I106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J106" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K106" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>443</v>
+        <v>110</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>191</v>
+        <v>430</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>56</v>
@@ -9435,61 +9477,60 @@
         <v>3</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="T106" s="2" t="str" cm="1">
-        <f t="array" ref="T106">_xlfn.REGEXEXTRACT(A106,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>205</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>717</v>
+        <v>266</v>
       </c>
       <c r="B107" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>686</v>
+        <v>96</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>451</v>
+        <v>43</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>453</v>
+        <v>67</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>83</v>
+        <v>521</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>298</v>
+        <v>99</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>333</v>
+        <v>43</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N107" s="2">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="Q107" s="2" t="s">
         <v>56</v>
@@ -9498,25 +9539,24 @@
         <v>3</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="T107" s="2" t="str" cm="1">
-        <f t="array" ref="T107">_xlfn.REGEXEXTRACT(A107,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>500</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>182</v>
+        <v>625</v>
       </c>
       <c r="B108" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>184</v>
+        <v>626</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>43</v>
@@ -9525,97 +9565,96 @@
         <v>43</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>194</v>
+        <v>514</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>138</v>
+        <v>627</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>43</v>
+        <v>628</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>102</v>
+        <v>629</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>43</v>
+        <v>630</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="R108" s="2">
         <v>3</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="T108" s="2" t="str" cm="1">
-        <f t="array" ref="T108">_xlfn.REGEXEXTRACT(A108,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="B109" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>43</v>
+        <v>403</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>333</v>
+        <v>151</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>286</v>
+        <v>68</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>359</v>
+        <v>43</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>56</v>
@@ -9624,25 +9663,24 @@
         <v>3</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="T109" s="2" t="str" cm="1">
-        <f t="array" ref="T109">_xlfn.REGEXEXTRACT(A109,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>210</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>1</v>
+        <v>481</v>
       </c>
       <c r="B110" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>378</v>
+        <v>155</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>482</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>43</v>
@@ -9651,34 +9689,34 @@
         <v>43</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>298</v>
+        <v>99</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>85</v>
+        <v>483</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>83</v>
+        <v>484</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>333</v>
+        <v>60</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>43</v>
+        <v>467</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>43</v>
+        <v>485</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>375</v>
+        <v>153</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>92</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>56</v>
@@ -9687,25 +9725,24 @@
         <v>3</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="T110" s="2" t="str" cm="1">
-        <f t="array" ref="T110">_xlfn.REGEXEXTRACT(A110,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+      <c r="T110" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="B111" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>357</v>
+        <v>175</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>43</v>
@@ -9714,34 +9751,34 @@
         <v>43</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>361</v>
+        <v>483</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>43</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>359</v>
+        <v>153</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>316</v>
+        <v>92</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>338</v>
+        <v>43</v>
       </c>
       <c r="Q111" s="2" t="s">
         <v>56</v>
@@ -9750,61 +9787,60 @@
         <v>3</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="T111" s="2" t="str" cm="1">
-        <f t="array" ref="T111">_xlfn.REGEXEXTRACT(A111,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>213</v>
+      </c>
+      <c r="T111" s="2" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B112" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>190</v>
+        <v>438</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>337</v>
+        <v>43</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>342</v>
+        <v>99</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>344</v>
+        <v>118</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>43</v>
+        <v>550</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="Q112" s="2" t="s">
         <v>56</v>
@@ -9813,28 +9849,27 @@
         <v>3</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="T112" s="2" t="str" cm="1">
-        <f t="array" ref="T112">_xlfn.REGEXEXTRACT(A112,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>439</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>41</v>
+        <v>717</v>
       </c>
       <c r="B113" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>318</v>
+        <v>686</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>319</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>320</v>
+        <v>451</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>43</v>
@@ -9843,31 +9878,31 @@
         <v>326</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="I113" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="J113" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="K113" s="2" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O113" s="2">
+        <v>281</v>
+      </c>
+      <c r="N113" s="2">
         <v>69</v>
       </c>
+      <c r="O113" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="P113" s="2" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="Q113" s="2" t="s">
         <v>56</v>
@@ -9876,25 +9911,24 @@
         <v>3</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="T113" s="2" t="str" cm="1">
-        <f t="array" ref="T113">_xlfn.REGEXEXTRACT(A113,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
+        <v>452</v>
+      </c>
+      <c r="T113" s="2" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="114" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B114" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>327</v>
+        <v>168</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>328</v>
+        <v>184</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>43</v>
@@ -9903,19 +9937,19 @@
         <v>43</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>330</v>
+        <v>194</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>333</v>
+        <v>138</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>332</v>
+        <v>197</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>43</v>
@@ -9924,40 +9958,39 @@
         <v>43</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>331</v>
+        <v>43</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="R114" s="2">
         <v>3</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="T114" s="2" t="str" cm="1">
-        <f t="array" ref="T114">_xlfn.REGEXEXTRACT(A114,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="B115" s="2">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>315</v>
+        <v>414</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>328</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>43</v>
@@ -9969,16 +10002,16 @@
         <v>321</v>
       </c>
       <c r="H115" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="I115" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="J115" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="K115" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>43</v>
@@ -9990,10 +10023,10 @@
         <v>286</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="Q115" s="2" t="s">
         <v>56</v>
@@ -10002,25 +10035,24 @@
         <v>3</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="T115" s="2" t="str" cm="1">
-        <f t="array" ref="T115">_xlfn.REGEXEXTRACT(A115,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>416</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="B116" s="2">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>96</v>
+        <v>378</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>390</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>43</v>
@@ -10029,34 +10061,34 @@
         <v>43</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>118</v>
+        <v>298</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>295</v>
+        <v>85</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>71</v>
+        <v>333</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>43</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>311</v>
+        <v>375</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="Q116" s="2" t="s">
         <v>56</v>
@@ -10065,46 +10097,45 @@
         <v>3</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="T116" s="2" t="str" cm="1">
-        <f t="array" ref="T116">_xlfn.REGEXEXTRACT(A116,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="B117" s="2">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>190</v>
+        <v>356</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>188</v>
+        <v>357</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>221</v>
+        <v>361</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>43</v>
@@ -10113,13 +10144,13 @@
         <v>43</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>217</v>
+        <v>359</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="Q117" s="2" t="s">
         <v>56</v>
@@ -10128,58 +10159,57 @@
         <v>3</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="T117" s="2" t="str" cm="1">
-        <f t="array" ref="T117">_xlfn.REGEXEXTRACT(A117,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>360</v>
+      </c>
+      <c r="T117" s="2" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B118" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>302</v>
+        <v>190</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>306</v>
+        <v>190</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>43</v>
+        <v>337</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>118</v>
+        <v>341</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>99</v>
+        <v>344</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>43</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>43</v>
@@ -10191,61 +10221,60 @@
         <v>3</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="T118" s="2" t="str" cm="1">
-        <f t="array" ref="T118">_xlfn.REGEXEXTRACT(A118,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>343</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="B119" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>333</v>
+        <v>126</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>229</v>
+        <v>324</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>92</v>
+        <v>160</v>
+      </c>
+      <c r="O119" s="2">
+        <v>69</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>287</v>
+        <v>102</v>
       </c>
       <c r="Q119" s="2" t="s">
         <v>56</v>
@@ -10254,25 +10283,24 @@
         <v>3</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="T119" s="2" t="str" cm="1">
-        <f t="array" ref="T119">_xlfn.REGEXEXTRACT(A119,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="T119" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B120" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>74</v>
+        <v>327</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>389</v>
+        <v>328</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>43</v>
@@ -10281,19 +10309,19 @@
         <v>43</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>75</v>
+        <v>333</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>43</v>
+        <v>332</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>43</v>
@@ -10302,13 +10330,13 @@
         <v>43</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="Q120" s="2" t="s">
         <v>56</v>
@@ -10317,25 +10345,24 @@
         <v>3</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T120" s="2" t="str" cm="1">
-        <f t="array" ref="T120">_xlfn.REGEXEXTRACT(A120,"(?&lt;=//)[^/]+")</f>
-        <v>anyporn.com</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>742</v>
+        <v>2</v>
       </c>
       <c r="B121" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>686</v>
+        <v>315</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>686</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>43</v>
@@ -10344,16 +10371,16 @@
         <v>43</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>157</v>
+        <v>321</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>677</v>
+        <v>85</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>743</v>
+        <v>333</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>43</v>
+        <v>281</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>43</v>
@@ -10365,40 +10392,39 @@
         <v>43</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>381</v>
+        <v>286</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>744</v>
+        <v>56</v>
       </c>
       <c r="R121" s="2">
         <v>3</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="T121" s="2" t="str" cm="1">
-        <f t="array" ref="T121">_xlfn.REGEXEXTRACT(A121,"(?&lt;=//)[^/]+")</f>
-        <v>www.eporner.com</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="T121" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>738</v>
+        <v>245</v>
       </c>
       <c r="B122" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>739</v>
+        <v>390</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>43</v>
@@ -10407,31 +10433,31 @@
         <v>43</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>740</v>
+        <v>99</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>43</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>153</v>
+        <v>311</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>43</v>
@@ -10443,61 +10469,60 @@
         <v>3</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="T122" s="2" t="str" cm="1">
-        <f t="array" ref="T122">_xlfn.REGEXEXTRACT(A122,"(?&lt;=//)[^/]+")</f>
-        <v>www.porntopedia.com</v>
+        <v>312</v>
+      </c>
+      <c r="T122" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>549</v>
+        <v>187</v>
       </c>
       <c r="B123" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>768</v>
+        <v>190</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>550</v>
+        <v>218</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>547</v>
+        <v>43</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>338</v>
+        <v>217</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>436</v>
+        <v>43</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="Q123" s="2" t="s">
         <v>56</v>
@@ -10506,25 +10531,24 @@
         <v>3</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="T123" s="2" t="str" cm="1">
-        <f t="array" ref="T123">_xlfn.REGEXEXTRACT(A123,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>220</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>552</v>
+        <v>6</v>
       </c>
       <c r="B124" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>768</v>
+        <v>302</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>43</v>
@@ -10536,31 +10560,31 @@
         <v>80</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>550</v>
+        <v>118</v>
       </c>
       <c r="I124" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J124" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="K124" s="2" t="s">
-        <v>553</v>
+        <v>307</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>495</v>
+        <v>43</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="Q124" s="2" t="s">
         <v>56</v>
@@ -10569,25 +10593,24 @@
         <v>3</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="T124" s="2" t="str" cm="1">
-        <f t="array" ref="T124">_xlfn.REGEXEXTRACT(A124,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="T124" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>570</v>
+        <v>267</v>
       </c>
       <c r="B125" s="2">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>571</v>
+        <v>284</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>572</v>
+        <v>285</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>43</v>
@@ -10599,58 +10622,57 @@
         <v>321</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>293</v>
+        <v>66</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>573</v>
+        <v>85</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>574</v>
+        <v>333</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>85</v>
+        <v>289</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>331</v>
+        <v>92</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>575</v>
+        <v>287</v>
       </c>
       <c r="Q125" s="2" t="s">
         <v>56</v>
       </c>
       <c r="R125" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="T125" s="2" t="str" cm="1">
-        <f t="array" ref="T125">_xlfn.REGEXEXTRACT(A125,"(?&lt;=//)[^/]+")</f>
-        <v>www.peekvids.com</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>525</v>
+        <v>24</v>
       </c>
       <c r="B126" s="2">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>526</v>
+        <v>74</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>527</v>
+        <v>389</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>43</v>
@@ -10662,184 +10684,181 @@
         <v>80</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>67</v>
+        <v>550</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="J126" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R126" s="2">
+        <v>3</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B127" s="2">
+        <v>5</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="R127" s="2">
+        <v>3</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="T127" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B128" s="2">
+        <v>4</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I128" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K126" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N126" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="O126" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="P126" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q126" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R126" s="2">
-        <v>2</v>
-      </c>
-      <c r="S126" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="T126" s="2" t="str" cm="1">
-        <f t="array" ref="T126">_xlfn.REGEXEXTRACT(A126,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B127" s="2">
-        <v>57</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="O127" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="P127" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q127" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R127" s="2">
-        <v>2</v>
-      </c>
-      <c r="S127" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="T127" s="2" t="str" cm="1">
-        <f t="array" ref="T127">_xlfn.REGEXEXTRACT(A127,"(?&lt;=//)[^/]+")</f>
-        <v>www.omg.xxx</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B128" s="2">
-        <v>47</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="J128" s="2" t="s">
-        <v>83</v>
+        <v>740</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>463</v>
+        <v>43</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>464</v>
+        <v>43</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>436</v>
+        <v>43</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="Q128" s="2" t="s">
         <v>56</v>
       </c>
       <c r="R128" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="T128" s="2" t="str" cm="1">
-        <f t="array" ref="T128">_xlfn.REGEXEXTRACT(A128,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+        <v>741</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="129" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>32</v>
+        <v>549</v>
       </c>
       <c r="B129" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>112</v>
+        <v>768</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>178</v>
+        <v>301</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>43</v>
@@ -10848,58 +10867,57 @@
         <v>43</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H129" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K129" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I129" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="L129" s="2" t="s">
-        <v>425</v>
+        <v>85</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>426</v>
+        <v>547</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>338</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>331</v>
+        <v>436</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="Q129" s="2" t="s">
         <v>56</v>
       </c>
       <c r="R129" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="T129" s="2" t="str" cm="1">
-        <f t="array" ref="T129">_xlfn.REGEXEXTRACT(A129,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>262</v>
+        <v>552</v>
       </c>
       <c r="B130" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>96</v>
+        <v>768</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>345</v>
@@ -10914,94 +10932,93 @@
         <v>80</v>
       </c>
       <c r="H130" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I130" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I130" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="J130" s="2" t="s">
-        <v>333</v>
+        <v>138</v>
       </c>
       <c r="K130" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M130" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L130" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="N130" s="2" t="s">
-        <v>513</v>
+        <v>153</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>43</v>
+        <v>495</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="Q130" s="2" t="s">
         <v>56</v>
       </c>
       <c r="R130" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="T130" s="2" t="str" cm="1">
-        <f t="array" ref="T130">_xlfn.REGEXEXTRACT(A130,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="T130" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>272</v>
+        <v>570</v>
       </c>
       <c r="B131" s="2">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>190</v>
+        <v>571</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>190</v>
+        <v>572</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>309</v>
+        <v>573</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>99</v>
+        <v>574</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="Q131" s="2" t="s">
         <v>56</v>
@@ -11010,61 +11027,60 @@
         <v>2</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="T131" s="2" t="str" cm="1">
-        <f t="array" ref="T131">_xlfn.REGEXEXTRACT(A131,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>576</v>
+      </c>
+      <c r="T131" s="2" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>238</v>
+        <v>525</v>
       </c>
       <c r="B132" s="2">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>686</v>
+        <v>526</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>239</v>
+        <v>527</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>588</v>
+        <v>67</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>242</v>
+        <v>381</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>153</v>
+        <v>359</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>43</v>
+        <v>520</v>
       </c>
       <c r="Q132" s="2" t="s">
         <v>56</v>
@@ -11073,61 +11089,60 @@
         <v>2</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="T132" s="2" t="str" cm="1">
-        <f t="array" ref="T132">_xlfn.REGEXEXTRACT(A132,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>528</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="133" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>230</v>
+        <v>529</v>
       </c>
       <c r="B133" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>231</v>
+        <v>437</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>232</v>
+        <v>398</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>43</v>
+        <v>530</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>233</v>
+        <v>421</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>153</v>
+        <v>531</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="Q133" s="2" t="s">
         <v>56</v>
@@ -11136,28 +11151,27 @@
         <v>2</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="T133" s="2" t="str" cm="1">
-        <f t="array" ref="T133">_xlfn.REGEXEXTRACT(A133,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="T133" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B134" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>190</v>
+        <v>459</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>43</v>
+        <v>460</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>43</v>
@@ -11166,61 +11180,60 @@
         <v>81</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>447</v>
+        <v>227</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>43</v>
+        <v>461</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>43</v>
+        <v>463</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>43</v>
+        <v>464</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>153</v>
+        <v>436</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="Q134" s="2" t="s">
         <v>56</v>
       </c>
       <c r="R134" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="T134" s="2" t="str" cm="1">
-        <f t="array" ref="T134">_xlfn.REGEXEXTRACT(A134,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>462</v>
+      </c>
+      <c r="T134" s="2" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="B135" s="2">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>43</v>
@@ -11229,107 +11242,477 @@
         <v>81</v>
       </c>
       <c r="H135" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="P135" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q135" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R135" s="2">
+        <v>2</v>
+      </c>
+      <c r="S135" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="T135" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B136" s="2">
+        <v>32</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q136" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R136" s="2">
+        <v>2</v>
+      </c>
+      <c r="S136" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="T136" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="2">
+        <v>23</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P137" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q137" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R137" s="2">
+        <v>2</v>
+      </c>
+      <c r="S137" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="T137" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B138" s="2">
+        <v>18</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R138" s="2">
+        <v>2</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B139" s="2">
+        <v>14</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P139" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q139" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R139" s="2">
+        <v>2</v>
+      </c>
+      <c r="S139" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B140" s="2">
+        <v>48</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q140" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R140" s="2">
+        <v>1</v>
+      </c>
+      <c r="S140" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B141" s="2">
+        <v>34</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H141" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="I141" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J141" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K141" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N135" s="2" t="s">
+      <c r="L141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N141" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="O135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q135" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R135" s="2">
+      <c r="O141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q141" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R141" s="2">
         <v>1</v>
       </c>
-      <c r="S135" s="2" t="s">
+      <c r="S141" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="T135" s="2" t="str" cm="1">
-        <f t="array" ref="T135">_xlfn.REGEXEXTRACT(A135,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="T141" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B142" s="2">
         <v>11</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G136" s="2" t="s">
+      <c r="E142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="H142" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="I142" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J142" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K142" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="L136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N136" s="2" t="s">
+      <c r="L142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N142" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="O136" s="2" t="s">
+      <c r="O142" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="P136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q136" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R136" s="2">
+      <c r="P142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q142" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R142" s="2">
         <v>1</v>
       </c>
-      <c r="S136" s="2" t="s">
+      <c r="S142" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="T136" s="2" t="str" cm="1">
-        <f t="array" ref="T136">_xlfn.REGEXEXTRACT(A136,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+      <c r="T142" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -11338,12 +11721,12 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:T1">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11354,12 +11737,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:T136">
+  <conditionalFormatting sqref="A2:T142">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R136">
+  <conditionalFormatting sqref="R2:R142">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
